--- a/datosexcel.xlsx
+++ b/datosexcel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52999\Desktop\Dspace6UploadScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906D2F99-A5D3-48FF-9AE2-3D269EDCE61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLA" sheetId="1" r:id="rId1"/>
@@ -4855,7 +4856,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="790">
   <si>
     <t>Pertenece a:</t>
   </si>
@@ -9425,6 +9426,12 @@
       </rPr>
       <t>Existen cuatro  retablos laterales de mampostería de corte neoclásico que datan de 1839</t>
     </r>
+  </si>
+  <si>
+    <t>Imágenes Carpeta</t>
+  </si>
+  <si>
+    <t>Ex convento de San Antonio de Padua-Izamal</t>
   </si>
 </sst>
 </file>
@@ -9608,7 +9615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -9747,11 +9754,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9766,7 +9782,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9883,8 +9899,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9912,7 +9926,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9929,21 +9942,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -9967,7 +9978,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10010,28 +10020,43 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10046,26 +10071,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10492,395 +10505,396 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GZ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="GR2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="GT4" sqref="GT4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.05078125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.89453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.68359375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.89453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.68359375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.89453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="2.68359375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="2.83984375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="2.68359375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.83984375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.05078125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="2.7890625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="2.83984375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.7890625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="2.83984375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="2.9453125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="2.83984375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="2.68359375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="2.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5546875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="2.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="2.88671875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.77734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="2.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="3" style="1" customWidth="1"/>
+    <col min="26" max="26" width="2.88671875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="2.6640625" style="1" customWidth="1"/>
     <col min="28" max="28" width="3" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.578125" style="1" customWidth="1"/>
-    <col min="30" max="32" width="2.7890625" style="1" customWidth="1"/>
-    <col min="33" max="34" width="2.68359375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="2.578125" style="1" customWidth="1"/>
-    <col min="36" max="37" width="2.7890625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="36.734375" style="1" customWidth="1"/>
-    <col min="39" max="41" width="3.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29.41796875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="32.05078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.68359375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="3.62890625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="3.68359375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="3.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="3.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.20703125" style="1" customWidth="1"/>
-    <col min="56" max="56" width="3.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="73" width="3.20703125" style="1" customWidth="1"/>
-    <col min="74" max="75" width="3.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="4.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="4.68359375" style="1" customWidth="1"/>
-    <col min="78" max="78" width="4.62890625" style="1" customWidth="1"/>
-    <col min="79" max="79" width="2.68359375" style="1" customWidth="1"/>
-    <col min="80" max="80" width="2.734375" style="1" customWidth="1"/>
-    <col min="81" max="83" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="4.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="87" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="4.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="2.68359375" style="1" customWidth="1"/>
-    <col min="91" max="91" width="4.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="2.68359375" style="1" customWidth="1"/>
-    <col min="95" max="95" width="5.05078125" style="1" customWidth="1"/>
-    <col min="96" max="97" width="4.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="99" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="103" width="4.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="4.734375" style="1" customWidth="1"/>
-    <col min="106" max="106" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="2.83984375" style="1" customWidth="1"/>
-    <col min="108" max="108" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="4.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="111" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="4.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="115" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="4.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="117" max="118" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="4.734375" style="1" customWidth="1"/>
-    <col min="120" max="122" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="2.68359375" style="1" customWidth="1"/>
-    <col min="124" max="124" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="126" width="2.68359375" style="1" customWidth="1"/>
-    <col min="127" max="127" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="129" width="2.68359375" style="1" customWidth="1"/>
-    <col min="130" max="130" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="133" width="2.68359375" style="1" customWidth="1"/>
-    <col min="134" max="136" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="4.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="4.734375" style="1" customWidth="1"/>
-    <col min="139" max="141" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="2.68359375" style="1" customWidth="1"/>
-    <col min="143" max="143" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="4.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="145" max="146" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="2.68359375" style="1" customWidth="1"/>
-    <col min="148" max="148" width="2.7890625" style="1" customWidth="1"/>
-    <col min="149" max="150" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="154" width="2.68359375" style="1" customWidth="1"/>
-    <col min="155" max="157" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="4.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="161" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="162" max="175" width="2.68359375" style="1" customWidth="1"/>
-    <col min="176" max="177" width="3.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="3.5234375" style="1" customWidth="1"/>
-    <col min="179" max="180" width="3.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="181" max="182" width="3.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="4.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="184" max="185" width="3.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="4.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="3.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="2.83984375" style="1" customWidth="1"/>
-    <col min="190" max="190" width="2.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="2.7890625" style="1" customWidth="1"/>
-    <col min="192" max="199" width="3.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="125.41796875" style="1" customWidth="1"/>
-    <col min="201" max="201" width="81.68359375" style="1" customWidth="1"/>
-    <col min="202" max="16384" width="10.9453125" style="1"/>
+    <col min="29" max="29" width="2.5546875" style="1" customWidth="1"/>
+    <col min="30" max="32" width="2.77734375" style="1" customWidth="1"/>
+    <col min="33" max="34" width="2.6640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5546875" style="1" customWidth="1"/>
+    <col min="36" max="37" width="2.77734375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="36.77734375" style="1" customWidth="1"/>
+    <col min="39" max="41" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29.44140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="3.6640625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.21875" style="1" customWidth="1"/>
+    <col min="56" max="56" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="73" width="3.21875" style="1" customWidth="1"/>
+    <col min="74" max="75" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="4.6640625" style="1" customWidth="1"/>
+    <col min="79" max="79" width="2.6640625" style="1" customWidth="1"/>
+    <col min="80" max="80" width="2.77734375" style="1" customWidth="1"/>
+    <col min="81" max="83" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="87" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="2.6640625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="2.6640625" style="1" customWidth="1"/>
+    <col min="95" max="95" width="5" style="1" customWidth="1"/>
+    <col min="96" max="97" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="103" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="4.77734375" style="1" customWidth="1"/>
+    <col min="106" max="106" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="2.88671875" style="1" customWidth="1"/>
+    <col min="108" max="108" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="111" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="115" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="118" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="4.77734375" style="1" customWidth="1"/>
+    <col min="120" max="122" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="2.6640625" style="1" customWidth="1"/>
+    <col min="124" max="124" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="126" width="2.6640625" style="1" customWidth="1"/>
+    <col min="127" max="127" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="2.6640625" style="1" customWidth="1"/>
+    <col min="130" max="130" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="133" width="2.6640625" style="1" customWidth="1"/>
+    <col min="134" max="136" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="4.77734375" style="1" customWidth="1"/>
+    <col min="139" max="141" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="2.6640625" style="1" customWidth="1"/>
+    <col min="143" max="143" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="146" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="2.6640625" style="1" customWidth="1"/>
+    <col min="148" max="148" width="2.77734375" style="1" customWidth="1"/>
+    <col min="149" max="150" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="154" width="2.6640625" style="1" customWidth="1"/>
+    <col min="155" max="157" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="161" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="162" max="175" width="2.6640625" style="1" customWidth="1"/>
+    <col min="176" max="177" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="3.5546875" style="1" customWidth="1"/>
+    <col min="179" max="180" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="181" max="182" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="184" max="185" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="2.88671875" style="1" customWidth="1"/>
+    <col min="190" max="190" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="2.77734375" style="1" customWidth="1"/>
+    <col min="192" max="199" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="125.44140625" style="1" customWidth="1"/>
+    <col min="201" max="201" width="81.6640625" style="1" customWidth="1"/>
+    <col min="202" max="202" width="3.5546875" style="1" customWidth="1"/>
+    <col min="203" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:208" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:208" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103" t="s">
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="108" t="s">
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="103" t="s">
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="104" t="s">
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="97" t="s">
         <v>620</v>
       </c>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="115" t="s">
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="106" t="s">
         <v>657</v>
       </c>
-      <c r="AM1" s="116" t="s">
+      <c r="AM1" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="103" t="s">
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="111" t="s">
+      <c r="AQ1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="110" t="s">
+      <c r="AR1" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103" t="s">
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="103"/>
-      <c r="AX1" s="103"/>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="104" t="s">
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="BA1" s="117"/>
-      <c r="BB1" s="117"/>
-      <c r="BC1" s="117"/>
-      <c r="BD1" s="117"/>
-      <c r="BE1" s="117"/>
-      <c r="BF1" s="117"/>
-      <c r="BG1" s="117"/>
-      <c r="BH1" s="117"/>
-      <c r="BI1" s="117"/>
-      <c r="BJ1" s="117"/>
-      <c r="BK1" s="117"/>
-      <c r="BL1" s="117"/>
-      <c r="BM1" s="117"/>
-      <c r="BN1" s="117"/>
-      <c r="BO1" s="117"/>
-      <c r="BP1" s="117"/>
-      <c r="BQ1" s="117"/>
-      <c r="BR1" s="117"/>
-      <c r="BS1" s="117"/>
-      <c r="BT1" s="117"/>
-      <c r="BU1" s="118"/>
-      <c r="BV1" s="103" t="s">
+      <c r="BA1" s="104"/>
+      <c r="BB1" s="104"/>
+      <c r="BC1" s="104"/>
+      <c r="BD1" s="104"/>
+      <c r="BE1" s="104"/>
+      <c r="BF1" s="104"/>
+      <c r="BG1" s="104"/>
+      <c r="BH1" s="104"/>
+      <c r="BI1" s="104"/>
+      <c r="BJ1" s="104"/>
+      <c r="BK1" s="104"/>
+      <c r="BL1" s="104"/>
+      <c r="BM1" s="104"/>
+      <c r="BN1" s="104"/>
+      <c r="BO1" s="104"/>
+      <c r="BP1" s="104"/>
+      <c r="BQ1" s="104"/>
+      <c r="BR1" s="104"/>
+      <c r="BS1" s="104"/>
+      <c r="BT1" s="104"/>
+      <c r="BU1" s="105"/>
+      <c r="BV1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="BW1" s="103"/>
-      <c r="BX1" s="103"/>
-      <c r="BY1" s="104" t="s">
+      <c r="BW1" s="96"/>
+      <c r="BX1" s="96"/>
+      <c r="BY1" s="97" t="s">
         <v>702</v>
       </c>
-      <c r="BZ1" s="106"/>
-      <c r="CA1" s="108" t="s">
+      <c r="BZ1" s="98"/>
+      <c r="CA1" s="101" t="s">
         <v>441</v>
       </c>
-      <c r="CB1" s="109"/>
-      <c r="CC1" s="109"/>
-      <c r="CD1" s="109"/>
-      <c r="CE1" s="109"/>
-      <c r="CF1" s="109"/>
-      <c r="CG1" s="109"/>
-      <c r="CH1" s="109"/>
-      <c r="CI1" s="109"/>
-      <c r="CJ1" s="109"/>
-      <c r="CK1" s="109"/>
-      <c r="CL1" s="109"/>
-      <c r="CM1" s="109"/>
-      <c r="CN1" s="109"/>
-      <c r="CO1" s="109"/>
-      <c r="CP1" s="109"/>
-      <c r="CQ1" s="109"/>
-      <c r="CR1" s="109"/>
-      <c r="CS1" s="109"/>
-      <c r="CT1" s="109"/>
-      <c r="CU1" s="109"/>
-      <c r="CV1" s="109"/>
-      <c r="CW1" s="109"/>
-      <c r="CX1" s="109"/>
-      <c r="CY1" s="109"/>
-      <c r="CZ1" s="109"/>
-      <c r="DA1" s="109"/>
-      <c r="DB1" s="109"/>
-      <c r="DC1" s="109"/>
-      <c r="DD1" s="109"/>
-      <c r="DE1" s="109"/>
-      <c r="DF1" s="109"/>
-      <c r="DG1" s="109"/>
-      <c r="DH1" s="109"/>
-      <c r="DI1" s="109"/>
-      <c r="DJ1" s="109"/>
-      <c r="DK1" s="109"/>
-      <c r="DL1" s="114"/>
-      <c r="DM1" s="117" t="s">
+      <c r="CB1" s="102"/>
+      <c r="CC1" s="102"/>
+      <c r="CD1" s="102"/>
+      <c r="CE1" s="102"/>
+      <c r="CF1" s="102"/>
+      <c r="CG1" s="102"/>
+      <c r="CH1" s="102"/>
+      <c r="CI1" s="102"/>
+      <c r="CJ1" s="102"/>
+      <c r="CK1" s="102"/>
+      <c r="CL1" s="102"/>
+      <c r="CM1" s="102"/>
+      <c r="CN1" s="102"/>
+      <c r="CO1" s="102"/>
+      <c r="CP1" s="102"/>
+      <c r="CQ1" s="102"/>
+      <c r="CR1" s="102"/>
+      <c r="CS1" s="102"/>
+      <c r="CT1" s="102"/>
+      <c r="CU1" s="102"/>
+      <c r="CV1" s="102"/>
+      <c r="CW1" s="102"/>
+      <c r="CX1" s="102"/>
+      <c r="CY1" s="102"/>
+      <c r="CZ1" s="102"/>
+      <c r="DA1" s="102"/>
+      <c r="DB1" s="102"/>
+      <c r="DC1" s="102"/>
+      <c r="DD1" s="102"/>
+      <c r="DE1" s="102"/>
+      <c r="DF1" s="102"/>
+      <c r="DG1" s="102"/>
+      <c r="DH1" s="102"/>
+      <c r="DI1" s="102"/>
+      <c r="DJ1" s="102"/>
+      <c r="DK1" s="102"/>
+      <c r="DL1" s="103"/>
+      <c r="DM1" s="104" t="s">
         <v>442</v>
       </c>
-      <c r="DN1" s="117"/>
-      <c r="DO1" s="117"/>
-      <c r="DP1" s="117"/>
-      <c r="DQ1" s="118"/>
-      <c r="DR1" s="116" t="s">
+      <c r="DN1" s="104"/>
+      <c r="DO1" s="104"/>
+      <c r="DP1" s="104"/>
+      <c r="DQ1" s="105"/>
+      <c r="DR1" s="99" t="s">
         <v>439</v>
       </c>
-      <c r="DS1" s="105"/>
-      <c r="DT1" s="105"/>
-      <c r="DU1" s="105"/>
-      <c r="DV1" s="105"/>
-      <c r="DW1" s="105"/>
-      <c r="DX1" s="105"/>
-      <c r="DY1" s="105"/>
-      <c r="DZ1" s="105"/>
-      <c r="EA1" s="105"/>
-      <c r="EB1" s="105"/>
-      <c r="EC1" s="105"/>
-      <c r="ED1" s="105"/>
-      <c r="EE1" s="105"/>
-      <c r="EF1" s="105"/>
-      <c r="EG1" s="105"/>
-      <c r="EH1" s="105"/>
-      <c r="EI1" s="105"/>
-      <c r="EJ1" s="105"/>
-      <c r="EK1" s="105"/>
-      <c r="EL1" s="105"/>
-      <c r="EM1" s="105"/>
-      <c r="EN1" s="105"/>
-      <c r="EO1" s="105"/>
-      <c r="EP1" s="105"/>
-      <c r="EQ1" s="106"/>
-      <c r="ER1" s="116" t="s">
+      <c r="DS1" s="100"/>
+      <c r="DT1" s="100"/>
+      <c r="DU1" s="100"/>
+      <c r="DV1" s="100"/>
+      <c r="DW1" s="100"/>
+      <c r="DX1" s="100"/>
+      <c r="DY1" s="100"/>
+      <c r="DZ1" s="100"/>
+      <c r="EA1" s="100"/>
+      <c r="EB1" s="100"/>
+      <c r="EC1" s="100"/>
+      <c r="ED1" s="100"/>
+      <c r="EE1" s="100"/>
+      <c r="EF1" s="100"/>
+      <c r="EG1" s="100"/>
+      <c r="EH1" s="100"/>
+      <c r="EI1" s="100"/>
+      <c r="EJ1" s="100"/>
+      <c r="EK1" s="100"/>
+      <c r="EL1" s="100"/>
+      <c r="EM1" s="100"/>
+      <c r="EN1" s="100"/>
+      <c r="EO1" s="100"/>
+      <c r="EP1" s="100"/>
+      <c r="EQ1" s="98"/>
+      <c r="ER1" s="99" t="s">
         <v>440</v>
       </c>
-      <c r="ES1" s="105"/>
-      <c r="ET1" s="105"/>
-      <c r="EU1" s="105"/>
-      <c r="EV1" s="105"/>
-      <c r="EW1" s="105"/>
-      <c r="EX1" s="105"/>
-      <c r="EY1" s="105"/>
-      <c r="EZ1" s="105"/>
-      <c r="FA1" s="105"/>
-      <c r="FB1" s="105"/>
-      <c r="FC1" s="105"/>
-      <c r="FD1" s="105"/>
-      <c r="FE1" s="105"/>
-      <c r="FF1" s="105"/>
-      <c r="FG1" s="105"/>
-      <c r="FH1" s="105"/>
-      <c r="FI1" s="106"/>
-      <c r="FJ1" s="116" t="s">
+      <c r="ES1" s="100"/>
+      <c r="ET1" s="100"/>
+      <c r="EU1" s="100"/>
+      <c r="EV1" s="100"/>
+      <c r="EW1" s="100"/>
+      <c r="EX1" s="100"/>
+      <c r="EY1" s="100"/>
+      <c r="EZ1" s="100"/>
+      <c r="FA1" s="100"/>
+      <c r="FB1" s="100"/>
+      <c r="FC1" s="100"/>
+      <c r="FD1" s="100"/>
+      <c r="FE1" s="100"/>
+      <c r="FF1" s="100"/>
+      <c r="FG1" s="100"/>
+      <c r="FH1" s="100"/>
+      <c r="FI1" s="98"/>
+      <c r="FJ1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="FK1" s="105"/>
-      <c r="FL1" s="105"/>
-      <c r="FM1" s="105"/>
-      <c r="FN1" s="105"/>
-      <c r="FO1" s="105"/>
-      <c r="FP1" s="105"/>
-      <c r="FQ1" s="105"/>
-      <c r="FR1" s="105"/>
-      <c r="FS1" s="106"/>
-      <c r="FT1" s="103" t="s">
+      <c r="FK1" s="100"/>
+      <c r="FL1" s="100"/>
+      <c r="FM1" s="100"/>
+      <c r="FN1" s="100"/>
+      <c r="FO1" s="100"/>
+      <c r="FP1" s="100"/>
+      <c r="FQ1" s="100"/>
+      <c r="FR1" s="100"/>
+      <c r="FS1" s="98"/>
+      <c r="FT1" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="FU1" s="103"/>
-      <c r="FV1" s="103"/>
-      <c r="FW1" s="103"/>
-      <c r="FX1" s="103"/>
-      <c r="FY1" s="103" t="s">
+      <c r="FU1" s="96"/>
+      <c r="FV1" s="96"/>
+      <c r="FW1" s="96"/>
+      <c r="FX1" s="96"/>
+      <c r="FY1" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="FZ1" s="103"/>
-      <c r="GA1" s="103"/>
-      <c r="GB1" s="103"/>
-      <c r="GC1" s="103"/>
-      <c r="GD1" s="103"/>
-      <c r="GE1" s="116" t="s">
+      <c r="FZ1" s="96"/>
+      <c r="GA1" s="96"/>
+      <c r="GB1" s="96"/>
+      <c r="GC1" s="96"/>
+      <c r="GD1" s="96"/>
+      <c r="GE1" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="GF1" s="105"/>
-      <c r="GG1" s="105"/>
-      <c r="GH1" s="105"/>
-      <c r="GI1" s="106"/>
-      <c r="GJ1" s="104" t="s">
+      <c r="GF1" s="100"/>
+      <c r="GG1" s="100"/>
+      <c r="GH1" s="100"/>
+      <c r="GI1" s="98"/>
+      <c r="GJ1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="GK1" s="105"/>
-      <c r="GL1" s="105"/>
-      <c r="GM1" s="105"/>
-      <c r="GN1" s="105"/>
-      <c r="GO1" s="105"/>
-      <c r="GP1" s="105"/>
-      <c r="GQ1" s="106"/>
-      <c r="GR1" s="107" t="s">
+      <c r="GK1" s="100"/>
+      <c r="GL1" s="100"/>
+      <c r="GM1" s="100"/>
+      <c r="GN1" s="100"/>
+      <c r="GO1" s="100"/>
+      <c r="GP1" s="100"/>
+      <c r="GQ1" s="98"/>
+      <c r="GR1" s="108" t="s">
         <v>438</v>
       </c>
-      <c r="GS1" s="102" t="s">
+      <c r="GS1" s="107" t="s">
         <v>631</v>
       </c>
+      <c r="GT1" s="115" t="s">
+        <v>788</v>
+      </c>
     </row>
-    <row r="2" spans="1:208" ht="388.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
+    <row r="2" spans="1:208" ht="388.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
@@ -10896,9 +10910,9 @@
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
@@ -10977,10 +10991,10 @@
       <c r="AJ2" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AK2" s="76" t="s">
+      <c r="AK2" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AL2" s="115"/>
+      <c r="AL2" s="106"/>
       <c r="AM2" s="2" t="s">
         <v>180</v>
       </c>
@@ -10990,8 +11004,8 @@
       <c r="AO2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="111"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="110"/>
       <c r="AR2" s="7" t="s">
         <v>15</v>
       </c>
@@ -11181,7 +11195,7 @@
       <c r="DB2" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="DC2" s="78" t="s">
+      <c r="DC2" s="73" t="s">
         <v>563</v>
       </c>
       <c r="DD2" s="3" t="s">
@@ -11460,10 +11474,11 @@
       <c r="GQ2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="GR2" s="108"/>
-      <c r="GS2" s="102"/>
+      <c r="GR2" s="101"/>
+      <c r="GS2" s="107"/>
+      <c r="GT2" s="115"/>
     </row>
-    <row r="3" spans="1:208" ht="26.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:208" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
@@ -11571,7 +11586,7 @@
       <c r="BW3" s="21"/>
       <c r="BX3" s="21"/>
       <c r="BY3" s="20"/>
-      <c r="BZ3" s="70" t="s">
+      <c r="BZ3" s="67" t="s">
         <v>25</v>
       </c>
       <c r="CA3" s="23"/>
@@ -11688,7 +11703,7 @@
       <c r="FX3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="FY3" s="80" t="s">
+      <c r="FY3" s="75" t="s">
         <v>25</v>
       </c>
       <c r="FZ3" s="24" t="s">
@@ -11715,12 +11730,15 @@
       <c r="GO3" s="12"/>
       <c r="GP3" s="12"/>
       <c r="GQ3" s="12"/>
-      <c r="GR3" s="86"/>
-      <c r="GS3" s="99" t="s">
+      <c r="GR3" s="80"/>
+      <c r="GS3" s="93" t="s">
         <v>689</v>
       </c>
+      <c r="GT3" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
-    <row r="4" spans="1:208" ht="90.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:208" ht="97.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>33</v>
       </c>
@@ -11976,12 +11994,12 @@
       <c r="GO4" s="12"/>
       <c r="GP4" s="12"/>
       <c r="GQ4" s="14"/>
-      <c r="GR4" s="87" t="s">
+      <c r="GR4" s="81" t="s">
         <v>774</v>
       </c>
       <c r="GS4" s="38"/>
     </row>
-    <row r="5" spans="1:208" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:208" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>47</v>
       </c>
@@ -12235,12 +12253,12 @@
       <c r="GO5" s="12"/>
       <c r="GP5" s="12"/>
       <c r="GQ5" s="12"/>
-      <c r="GR5" s="86"/>
-      <c r="GS5" s="100" t="s">
+      <c r="GR5" s="80"/>
+      <c r="GS5" s="94" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:208" ht="26.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:208" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>154</v>
       </c>
@@ -12320,30 +12338,30 @@
       <c r="AW6" s="34"/>
       <c r="AX6" s="34"/>
       <c r="AY6" s="34"/>
-      <c r="AZ6" s="79"/>
+      <c r="AZ6" s="74"/>
       <c r="BA6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="BB6" s="79"/>
-      <c r="BC6" s="79"/>
-      <c r="BD6" s="79"/>
-      <c r="BE6" s="79"/>
-      <c r="BF6" s="79"/>
-      <c r="BG6" s="79"/>
-      <c r="BH6" s="79"/>
-      <c r="BI6" s="79"/>
-      <c r="BJ6" s="79"/>
-      <c r="BK6" s="79"/>
-      <c r="BL6" s="79"/>
-      <c r="BM6" s="79"/>
-      <c r="BN6" s="79"/>
-      <c r="BO6" s="79"/>
-      <c r="BP6" s="79"/>
-      <c r="BQ6" s="79"/>
-      <c r="BR6" s="79"/>
-      <c r="BS6" s="79"/>
-      <c r="BT6" s="79"/>
-      <c r="BU6" s="79"/>
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="74"/>
+      <c r="BF6" s="74"/>
+      <c r="BG6" s="74"/>
+      <c r="BH6" s="74"/>
+      <c r="BI6" s="74"/>
+      <c r="BJ6" s="74"/>
+      <c r="BK6" s="74"/>
+      <c r="BL6" s="74"/>
+      <c r="BM6" s="74"/>
+      <c r="BN6" s="74"/>
+      <c r="BO6" s="74"/>
+      <c r="BP6" s="74"/>
+      <c r="BQ6" s="74"/>
+      <c r="BR6" s="74"/>
+      <c r="BS6" s="74"/>
+      <c r="BT6" s="74"/>
+      <c r="BU6" s="74"/>
       <c r="BV6" s="12" t="s">
         <v>25</v>
       </c>
@@ -12494,14 +12512,14 @@
       </c>
       <c r="GP6" s="12"/>
       <c r="GQ6" s="12"/>
-      <c r="GR6" s="88" t="s">
+      <c r="GR6" s="82" t="s">
         <v>579</v>
       </c>
-      <c r="GS6" s="99" t="s">
+      <c r="GS6" s="93" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:208" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:208" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>34</v>
       </c>
@@ -12745,14 +12763,14 @@
       <c r="GO7" s="12"/>
       <c r="GP7" s="12"/>
       <c r="GQ7" s="12"/>
-      <c r="GR7" s="87" t="s">
+      <c r="GR7" s="81" t="s">
         <v>621</v>
       </c>
       <c r="GS7" s="29" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="8" spans="1:208" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:208" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
@@ -13000,12 +13018,12 @@
       <c r="GO8" s="12"/>
       <c r="GP8" s="12"/>
       <c r="GQ8" s="12"/>
-      <c r="GR8" s="86"/>
+      <c r="GR8" s="80"/>
       <c r="GS8" s="15" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="9" spans="1:208" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:208" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
@@ -13255,12 +13273,12 @@
       <c r="GO9" s="12"/>
       <c r="GP9" s="12"/>
       <c r="GQ9" s="12"/>
-      <c r="GR9" s="89" t="s">
+      <c r="GR9" s="83" t="s">
         <v>784</v>
       </c>
       <c r="GS9" s="38"/>
     </row>
-    <row r="10" spans="1:208" ht="52.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:208" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>58</v>
       </c>
@@ -13524,12 +13542,12 @@
       <c r="GO10" s="12"/>
       <c r="GP10" s="12"/>
       <c r="GQ10" s="12"/>
-      <c r="GR10" s="71" t="s">
+      <c r="GR10" s="68" t="s">
         <v>718</v>
       </c>
       <c r="GS10" s="38"/>
     </row>
-    <row r="11" spans="1:208" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:208" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>55</v>
       </c>
@@ -13783,14 +13801,14 @@
         <v>25</v>
       </c>
       <c r="GQ11" s="12"/>
-      <c r="GR11" s="87" t="s">
+      <c r="GR11" s="81" t="s">
         <v>627</v>
       </c>
       <c r="GS11" s="10" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="12" spans="1:208" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:208" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>57</v>
       </c>
@@ -13869,33 +13887,33 @@
       <c r="AV12" s="21"/>
       <c r="AW12" s="12"/>
       <c r="AX12" s="38"/>
-      <c r="AY12" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ12" s="70"/>
-      <c r="BA12" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB12" s="70"/>
-      <c r="BC12" s="70"/>
-      <c r="BD12" s="70"/>
-      <c r="BE12" s="70"/>
-      <c r="BF12" s="70"/>
-      <c r="BG12" s="70"/>
-      <c r="BH12" s="70"/>
-      <c r="BI12" s="70"/>
-      <c r="BJ12" s="70"/>
-      <c r="BK12" s="70"/>
-      <c r="BL12" s="70"/>
-      <c r="BM12" s="70"/>
-      <c r="BN12" s="70"/>
-      <c r="BO12" s="70"/>
-      <c r="BP12" s="70"/>
-      <c r="BQ12" s="70"/>
-      <c r="BR12" s="70"/>
-      <c r="BS12" s="70"/>
-      <c r="BT12" s="70"/>
-      <c r="BU12" s="70"/>
+      <c r="AY12" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ12" s="67"/>
+      <c r="BA12" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB12" s="67"/>
+      <c r="BC12" s="67"/>
+      <c r="BD12" s="67"/>
+      <c r="BE12" s="67"/>
+      <c r="BF12" s="67"/>
+      <c r="BG12" s="67"/>
+      <c r="BH12" s="67"/>
+      <c r="BI12" s="67"/>
+      <c r="BJ12" s="67"/>
+      <c r="BK12" s="67"/>
+      <c r="BL12" s="67"/>
+      <c r="BM12" s="67"/>
+      <c r="BN12" s="67"/>
+      <c r="BO12" s="67"/>
+      <c r="BP12" s="67"/>
+      <c r="BQ12" s="67"/>
+      <c r="BR12" s="67"/>
+      <c r="BS12" s="67"/>
+      <c r="BT12" s="67"/>
+      <c r="BU12" s="67"/>
       <c r="BV12" s="12" t="s">
         <v>25</v>
       </c>
@@ -14048,10 +14066,10 @@
       <c r="GQ12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="GR12" s="86"/>
+      <c r="GR12" s="80"/>
       <c r="GS12" s="38"/>
     </row>
-    <row r="13" spans="1:208" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:208" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>58</v>
       </c>
@@ -14074,7 +14092,7 @@
       <c r="J13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="69" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="38"/>
@@ -14305,14 +14323,14 @@
       <c r="GO13" s="12"/>
       <c r="GP13" s="12"/>
       <c r="GQ13" s="12"/>
-      <c r="GR13" s="87" t="s">
+      <c r="GR13" s="81" t="s">
         <v>775</v>
       </c>
       <c r="GS13" s="10" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:208" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:208" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -14560,19 +14578,19 @@
         <v>25</v>
       </c>
       <c r="GQ14" s="12"/>
-      <c r="GR14" s="86"/>
+      <c r="GR14" s="80"/>
       <c r="GS14" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="GT14" s="67"/>
-      <c r="GU14" s="67"/>
-      <c r="GV14" s="67"/>
-      <c r="GW14" s="67"/>
-      <c r="GX14" s="67"/>
-      <c r="GY14" s="67"/>
-      <c r="GZ14" s="67"/>
+      <c r="GT14" s="64"/>
+      <c r="GU14" s="64"/>
+      <c r="GV14" s="64"/>
+      <c r="GW14" s="64"/>
+      <c r="GX14" s="64"/>
+      <c r="GY14" s="64"/>
+      <c r="GZ14" s="64"/>
     </row>
-    <row r="15" spans="1:208" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:208" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -14828,14 +14846,14 @@
       <c r="GO15" s="12"/>
       <c r="GP15" s="12"/>
       <c r="GQ15" s="12"/>
-      <c r="GR15" s="88" t="s">
+      <c r="GR15" s="82" t="s">
         <v>628</v>
       </c>
       <c r="GS15" s="19" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="16" spans="1:208" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:208" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>154</v>
       </c>
@@ -15071,12 +15089,12 @@
       <c r="GQ16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="GR16" s="86"/>
+      <c r="GR16" s="80"/>
       <c r="GS16" s="15" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="17" spans="1:201" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:201" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>69</v>
       </c>
@@ -15344,12 +15362,12 @@
       <c r="GQ17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="GR17" s="87" t="s">
+      <c r="GR17" s="81" t="s">
         <v>608</v>
       </c>
       <c r="GS17" s="38"/>
     </row>
-    <row r="18" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>286</v>
       </c>
@@ -15595,12 +15613,12 @@
       <c r="GO18" s="12"/>
       <c r="GP18" s="12"/>
       <c r="GQ18" s="12"/>
-      <c r="GR18" s="87" t="s">
+      <c r="GR18" s="81" t="s">
         <v>637</v>
       </c>
       <c r="GS18" s="38"/>
     </row>
-    <row r="19" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
         <v>72</v>
       </c>
@@ -15834,12 +15852,12 @@
       <c r="GO19" s="45"/>
       <c r="GP19" s="45"/>
       <c r="GQ19" s="45"/>
-      <c r="GR19" s="90" t="s">
+      <c r="GR19" s="84" t="s">
         <v>638</v>
       </c>
       <c r="GS19" s="46"/>
     </row>
-    <row r="20" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>379</v>
       </c>
@@ -15886,9 +15904,9 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
       <c r="AF20" s="13" t="s">
         <v>25</v>
       </c>
@@ -15910,7 +15928,7 @@
       <c r="AR20" s="22"/>
       <c r="AS20" s="22"/>
       <c r="AT20" s="13"/>
-      <c r="AU20" s="53" t="s">
+      <c r="AU20" s="51" t="s">
         <v>25</v>
       </c>
       <c r="AV20" s="19"/>
@@ -16081,10 +16099,10 @@
       <c r="GO20" s="12"/>
       <c r="GP20" s="12"/>
       <c r="GQ20" s="12"/>
-      <c r="GR20" s="86"/>
+      <c r="GR20" s="80"/>
       <c r="GS20" s="38"/>
     </row>
-    <row r="21" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>74</v>
       </c>
@@ -16129,14 +16147,14 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="19"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="52"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="36"/>
       <c r="AG21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AH21" s="52"/>
+      <c r="AH21" s="36"/>
       <c r="AI21" s="28"/>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="28"/>
@@ -16151,7 +16169,7 @@
       <c r="AR21" s="22"/>
       <c r="AS21" s="22"/>
       <c r="AT21" s="13"/>
-      <c r="AU21" s="53" t="s">
+      <c r="AU21" s="51" t="s">
         <v>25</v>
       </c>
       <c r="AV21" s="19"/>
@@ -16324,12 +16342,12 @@
       <c r="GO21" s="12"/>
       <c r="GP21" s="12"/>
       <c r="GQ21" s="12"/>
-      <c r="GR21" s="86"/>
+      <c r="GR21" s="80"/>
       <c r="GS21" s="19" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="22" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="29" t="s">
         <v>76</v>
       </c>
@@ -16376,10 +16394,10 @@
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="52"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="36"/>
       <c r="AG22" s="13"/>
       <c r="AH22" s="13" t="s">
         <v>25</v>
@@ -16398,7 +16416,7 @@
       <c r="AR22" s="17"/>
       <c r="AS22" s="17"/>
       <c r="AT22" s="13"/>
-      <c r="AU22" s="53" t="s">
+      <c r="AU22" s="51" t="s">
         <v>25</v>
       </c>
       <c r="AV22" s="19"/>
@@ -16575,12 +16593,12 @@
       <c r="GO22" s="12"/>
       <c r="GP22" s="12"/>
       <c r="GQ22" s="12"/>
-      <c r="GR22" s="86"/>
+      <c r="GR22" s="80"/>
       <c r="GS22" s="19" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="23" spans="1:201" ht="113.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:201" ht="113.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>192</v>
       </c>
@@ -16629,14 +16647,14 @@
       <c r="Z23" s="14"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="52"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="36"/>
       <c r="AG23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AH23" s="52"/>
+      <c r="AH23" s="36"/>
       <c r="AI23" s="28"/>
       <c r="AJ23" s="28"/>
       <c r="AK23" s="28"/>
@@ -16653,7 +16671,7 @@
       <c r="AR23" s="17"/>
       <c r="AS23" s="17"/>
       <c r="AT23" s="13"/>
-      <c r="AU23" s="53"/>
+      <c r="AU23" s="51"/>
       <c r="AV23" s="19"/>
       <c r="AW23" s="12" t="s">
         <v>25</v>
@@ -16836,12 +16854,12 @@
         <v>25</v>
       </c>
       <c r="GQ23" s="12"/>
-      <c r="GR23" s="87" t="s">
+      <c r="GR23" s="81" t="s">
         <v>776</v>
       </c>
       <c r="GS23" s="38"/>
     </row>
-    <row r="24" spans="1:201" ht="181.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:201" ht="208.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>193</v>
       </c>
@@ -16890,9 +16908,9 @@
         <v>25</v>
       </c>
       <c r="AB24" s="19"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
       <c r="AF24" s="13" t="s">
         <v>25</v>
       </c>
@@ -16920,7 +16938,7 @@
       <c r="AR24" s="17"/>
       <c r="AS24" s="17"/>
       <c r="AT24" s="13"/>
-      <c r="AU24" s="53" t="s">
+      <c r="AU24" s="51" t="s">
         <v>25</v>
       </c>
       <c r="AV24" s="19"/>
@@ -17101,14 +17119,14 @@
         <v>25</v>
       </c>
       <c r="GQ24" s="12"/>
-      <c r="GR24" s="87" t="s">
+      <c r="GR24" s="81" t="s">
         <v>712</v>
       </c>
       <c r="GS24" s="15" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="25" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>195</v>
       </c>
@@ -17153,9 +17171,9 @@
       <c r="Z25" s="19"/>
       <c r="AA25" s="19"/>
       <c r="AB25" s="19"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13" t="s">
@@ -17177,7 +17195,7 @@
       <c r="AR25" s="17"/>
       <c r="AS25" s="17"/>
       <c r="AT25" s="13"/>
-      <c r="AU25" s="53"/>
+      <c r="AU25" s="51"/>
       <c r="AV25" s="19"/>
       <c r="AW25" s="12" t="s">
         <v>25</v>
@@ -17358,12 +17376,12 @@
       <c r="GO25" s="12"/>
       <c r="GP25" s="12"/>
       <c r="GQ25" s="12"/>
-      <c r="GR25" s="88" t="s">
+      <c r="GR25" s="82" t="s">
         <v>713</v>
       </c>
       <c r="GS25" s="38"/>
     </row>
-    <row r="26" spans="1:201" ht="65.099999999999994" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:201" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>196</v>
       </c>
@@ -17412,9 +17430,9 @@
       <c r="Z26" s="19"/>
       <c r="AA26" s="19"/>
       <c r="AB26" s="19"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
       <c r="AF26" s="13" t="s">
         <v>25</v>
       </c>
@@ -17621,14 +17639,14 @@
         <v>25</v>
       </c>
       <c r="GQ26" s="12"/>
-      <c r="GR26" s="87" t="s">
+      <c r="GR26" s="81" t="s">
         <v>616</v>
       </c>
       <c r="GS26" s="15" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="27" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>372</v>
       </c>
@@ -17673,9 +17691,9 @@
       <c r="Z27" s="19"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="51"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
       <c r="AH27" s="31" t="s">
@@ -17684,7 +17702,7 @@
       <c r="AI27" s="28"/>
       <c r="AJ27" s="28"/>
       <c r="AK27" s="28"/>
-      <c r="AL27" s="54"/>
+      <c r="AL27" s="52"/>
       <c r="AM27" s="12" t="s">
         <v>25</v>
       </c>
@@ -17870,10 +17888,10 @@
       <c r="GO27" s="12"/>
       <c r="GP27" s="12"/>
       <c r="GQ27" s="12"/>
-      <c r="GR27" s="87"/>
+      <c r="GR27" s="81"/>
       <c r="GS27" s="38"/>
     </row>
-    <row r="28" spans="1:201" ht="52.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:201" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>366</v>
       </c>
@@ -17918,9 +17936,9 @@
       <c r="Z28" s="19"/>
       <c r="AA28" s="19"/>
       <c r="AB28" s="19"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="13" t="s">
         <v>25</v>
       </c>
@@ -18125,14 +18143,14 @@
         <v>25</v>
       </c>
       <c r="GQ28" s="12"/>
-      <c r="GR28" s="87" t="s">
+      <c r="GR28" s="81" t="s">
         <v>777</v>
       </c>
-      <c r="GS28" s="100" t="s">
+      <c r="GS28" s="94" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="29" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>371</v>
       </c>
@@ -18177,9 +18195,9 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
       <c r="AB29" s="19"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
       <c r="AH29" s="13"/>
@@ -18374,12 +18392,12 @@
       <c r="GO29" s="12"/>
       <c r="GP29" s="12"/>
       <c r="GQ29" s="12"/>
-      <c r="GR29" s="86"/>
+      <c r="GR29" s="80"/>
       <c r="GS29" s="19" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="30" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49" t="s">
         <v>46</v>
       </c>
@@ -18405,7 +18423,7 @@
       <c r="M30" s="45"/>
       <c r="N30" s="45"/>
       <c r="O30" s="45"/>
-      <c r="P30" s="84"/>
+      <c r="P30" s="79"/>
       <c r="Q30" s="46"/>
       <c r="R30" s="46"/>
       <c r="S30" s="45" t="s">
@@ -18420,18 +18438,18 @@
       <c r="Z30" s="49"/>
       <c r="AA30" s="49"/>
       <c r="AB30" s="49"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
       <c r="AF30" s="45"/>
       <c r="AG30" s="45"/>
       <c r="AH30" s="45"/>
-      <c r="AI30" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ30" s="64"/>
-      <c r="AK30" s="64"/>
-      <c r="AL30" s="64">
+      <c r="AI30" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ30" s="61"/>
+      <c r="AK30" s="61"/>
+      <c r="AL30" s="61">
         <v>1892</v>
       </c>
       <c r="AM30" s="45" t="s">
@@ -18613,10 +18631,10 @@
       <c r="GO30" s="45"/>
       <c r="GP30" s="45"/>
       <c r="GQ30" s="45"/>
-      <c r="GR30" s="91"/>
+      <c r="GR30" s="85"/>
       <c r="GS30" s="46"/>
     </row>
-    <row r="31" spans="1:201" ht="168.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:201" ht="194.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>197</v>
       </c>
@@ -18882,12 +18900,12 @@
       </c>
       <c r="GP31" s="12"/>
       <c r="GQ31" s="12"/>
-      <c r="GR31" s="92" t="s">
+      <c r="GR31" s="86" t="s">
         <v>426</v>
       </c>
       <c r="GS31" s="38"/>
     </row>
-    <row r="32" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>406</v>
       </c>
@@ -19121,10 +19139,10 @@
       <c r="GO32" s="14"/>
       <c r="GP32" s="12"/>
       <c r="GQ32" s="12"/>
-      <c r="GR32" s="92"/>
+      <c r="GR32" s="86"/>
       <c r="GS32" s="38"/>
     </row>
-    <row r="33" spans="1:201" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>383</v>
       </c>
@@ -19372,12 +19390,12 @@
       <c r="GO33" s="12"/>
       <c r="GP33" s="12"/>
       <c r="GQ33" s="12"/>
-      <c r="GR33" s="87" t="s">
+      <c r="GR33" s="81" t="s">
         <v>778</v>
       </c>
       <c r="GS33" s="38"/>
     </row>
-    <row r="34" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>391</v>
       </c>
@@ -19621,12 +19639,12 @@
       <c r="GO34" s="12"/>
       <c r="GP34" s="12"/>
       <c r="GQ34" s="12"/>
-      <c r="GR34" s="87"/>
-      <c r="GS34" s="100" t="s">
+      <c r="GR34" s="81"/>
+      <c r="GS34" s="94" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="35" spans="1:201" ht="26.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>203</v>
       </c>
@@ -19870,12 +19888,12 @@
       </c>
       <c r="GP35" s="12"/>
       <c r="GQ35" s="12"/>
-      <c r="GR35" s="86"/>
-      <c r="GS35" s="99" t="s">
+      <c r="GR35" s="80"/>
+      <c r="GS35" s="93" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="36" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>204</v>
       </c>
@@ -20135,12 +20153,12 @@
         <v>25</v>
       </c>
       <c r="GQ36" s="12"/>
-      <c r="GR36" s="87" t="s">
+      <c r="GR36" s="81" t="s">
         <v>609</v>
       </c>
       <c r="GS36" s="38"/>
     </row>
-    <row r="37" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>252</v>
       </c>
@@ -20396,12 +20414,12 @@
       </c>
       <c r="GP37" s="12"/>
       <c r="GQ37" s="12"/>
-      <c r="GR37" s="87" t="s">
+      <c r="GR37" s="81" t="s">
         <v>622</v>
       </c>
       <c r="GS37" s="38"/>
     </row>
-    <row r="38" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>222</v>
       </c>
@@ -20651,13 +20669,13 @@
       <c r="GO38" s="12"/>
       <c r="GP38" s="12"/>
       <c r="GQ38" s="12"/>
-      <c r="GR38" s="86"/>
+      <c r="GR38" s="80"/>
       <c r="GS38" s="19" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="39" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="55" t="s">
+    <row r="39" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="53" t="s">
         <v>205</v>
       </c>
       <c r="B39" s="36" t="s">
@@ -20906,12 +20924,12 @@
       <c r="GO39" s="12"/>
       <c r="GP39" s="12"/>
       <c r="GQ39" s="12"/>
-      <c r="GR39" s="88" t="s">
+      <c r="GR39" s="82" t="s">
         <v>393</v>
       </c>
       <c r="GS39" s="38"/>
     </row>
-    <row r="40" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
         <v>227</v>
       </c>
@@ -21119,7 +21137,7 @@
       <c r="FK40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="FL40" s="53"/>
+      <c r="FL40" s="51"/>
       <c r="FM40" s="12"/>
       <c r="FN40" s="12"/>
       <c r="FO40" s="12"/>
@@ -21157,10 +21175,10 @@
       <c r="GO40" s="12"/>
       <c r="GP40" s="12"/>
       <c r="GQ40" s="12"/>
-      <c r="GR40" s="86"/>
+      <c r="GR40" s="80"/>
       <c r="GS40" s="38"/>
     </row>
-    <row r="41" spans="1:201" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>74</v>
       </c>
@@ -21410,12 +21428,12 @@
       <c r="GO41" s="12"/>
       <c r="GP41" s="12"/>
       <c r="GQ41" s="12"/>
-      <c r="GR41" s="87" t="s">
+      <c r="GR41" s="81" t="s">
         <v>779</v>
       </c>
       <c r="GS41" s="38"/>
     </row>
-    <row r="42" spans="1:201" ht="26.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>221</v>
       </c>
@@ -21669,12 +21687,12 @@
       <c r="GO42" s="12"/>
       <c r="GP42" s="12"/>
       <c r="GQ42" s="12"/>
-      <c r="GR42" s="86"/>
-      <c r="GS42" s="99" t="s">
+      <c r="GR42" s="80"/>
+      <c r="GS42" s="93" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:201" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>77</v>
       </c>
@@ -21928,13 +21946,13 @@
       <c r="GO43" s="12"/>
       <c r="GP43" s="12"/>
       <c r="GQ43" s="12"/>
-      <c r="GR43" s="87" t="s">
+      <c r="GR43" s="81" t="s">
         <v>610</v>
       </c>
       <c r="GS43" s="38"/>
     </row>
-    <row r="44" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="55" t="s">
+    <row r="44" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="53" t="s">
         <v>228</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -22181,10 +22199,10 @@
       <c r="GO44" s="12"/>
       <c r="GP44" s="12"/>
       <c r="GQ44" s="12"/>
-      <c r="GR44" s="86"/>
+      <c r="GR44" s="80"/>
       <c r="GS44" s="38"/>
     </row>
-    <row r="45" spans="1:201" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>230</v>
       </c>
@@ -22440,13 +22458,13 @@
         <v>25</v>
       </c>
       <c r="GQ45" s="12"/>
-      <c r="GR45" s="87" t="s">
+      <c r="GR45" s="81" t="s">
         <v>711</v>
       </c>
       <c r="GS45" s="38"/>
     </row>
-    <row r="46" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="55" t="s">
+    <row r="46" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="53" t="s">
         <v>241</v>
       </c>
       <c r="B46" s="36" t="s">
@@ -22699,10 +22717,10 @@
       <c r="GO46" s="12"/>
       <c r="GP46" s="12"/>
       <c r="GQ46" s="12"/>
-      <c r="GR46" s="86"/>
+      <c r="GR46" s="80"/>
       <c r="GS46" s="38"/>
     </row>
-    <row r="47" spans="1:201" ht="26.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>268</v>
       </c>
@@ -22946,12 +22964,12 @@
       <c r="GO47" s="12"/>
       <c r="GP47" s="12"/>
       <c r="GQ47" s="12"/>
-      <c r="GR47" s="86"/>
-      <c r="GS47" s="99" t="s">
+      <c r="GR47" s="80"/>
+      <c r="GS47" s="93" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="48" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>266</v>
       </c>
@@ -23197,12 +23215,12 @@
       <c r="GO48" s="12"/>
       <c r="GP48" s="12"/>
       <c r="GQ48" s="12"/>
-      <c r="GR48" s="86"/>
+      <c r="GR48" s="80"/>
       <c r="GS48" s="10" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:201" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>283</v>
       </c>
@@ -23450,13 +23468,13 @@
       <c r="GO49" s="12"/>
       <c r="GP49" s="12"/>
       <c r="GQ49" s="12"/>
-      <c r="GR49" s="87" t="s">
+      <c r="GR49" s="81" t="s">
         <v>780</v>
       </c>
       <c r="GS49" s="38"/>
     </row>
-    <row r="50" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="55" t="s">
+    <row r="50" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="53" t="s">
         <v>192</v>
       </c>
       <c r="B50" s="36" t="s">
@@ -23703,13 +23721,13 @@
       <c r="GO50" s="12"/>
       <c r="GP50" s="12"/>
       <c r="GQ50" s="12"/>
-      <c r="GR50" s="88" t="s">
+      <c r="GR50" s="82" t="s">
         <v>623</v>
       </c>
       <c r="GS50" s="38"/>
     </row>
-    <row r="51" spans="1:201" ht="26.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="56" t="s">
+    <row r="51" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="54" t="s">
         <v>264</v>
       </c>
       <c r="B51" s="17" t="s">
@@ -23948,13 +23966,13 @@
       <c r="GO51" s="12"/>
       <c r="GP51" s="12"/>
       <c r="GQ51" s="12"/>
-      <c r="GR51" s="86"/>
+      <c r="GR51" s="80"/>
       <c r="GS51" s="15" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="52" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="55" t="s">
+    <row r="52" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="53" t="s">
         <v>260</v>
       </c>
       <c r="B52" s="36" t="s">
@@ -24193,10 +24211,10 @@
       <c r="GO52" s="12"/>
       <c r="GP52" s="12"/>
       <c r="GQ52" s="12"/>
-      <c r="GR52" s="86"/>
+      <c r="GR52" s="80"/>
       <c r="GS52" s="38"/>
     </row>
-    <row r="53" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>262</v>
       </c>
@@ -24442,10 +24460,10 @@
       <c r="GO53" s="12"/>
       <c r="GP53" s="12"/>
       <c r="GQ53" s="12"/>
-      <c r="GR53" s="86"/>
+      <c r="GR53" s="80"/>
       <c r="GS53" s="38"/>
     </row>
-    <row r="54" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>270</v>
       </c>
@@ -24691,13 +24709,13 @@
       <c r="GO54" s="12"/>
       <c r="GP54" s="12"/>
       <c r="GQ54" s="12"/>
-      <c r="GR54" s="88" t="s">
+      <c r="GR54" s="82" t="s">
         <v>390</v>
       </c>
       <c r="GS54" s="38"/>
     </row>
-    <row r="55" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A55" s="55" t="s">
+    <row r="55" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="53" t="s">
         <v>275</v>
       </c>
       <c r="B55" s="36" t="s">
@@ -24936,11 +24954,11 @@
       <c r="GO55" s="12"/>
       <c r="GP55" s="12"/>
       <c r="GQ55" s="12"/>
-      <c r="GR55" s="86"/>
+      <c r="GR55" s="80"/>
       <c r="GS55" s="38"/>
     </row>
-    <row r="56" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A56" s="55" t="s">
+    <row r="56" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="53" t="s">
         <v>278</v>
       </c>
       <c r="B56" s="35" t="s">
@@ -25175,13 +25193,13 @@
       <c r="GO56" s="12"/>
       <c r="GP56" s="12"/>
       <c r="GQ56" s="12"/>
-      <c r="GR56" s="86"/>
+      <c r="GR56" s="80"/>
       <c r="GS56" s="19" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="57" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A57" s="55" t="s">
+    <row r="57" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="53" t="s">
         <v>280</v>
       </c>
       <c r="B57" s="35" t="s">
@@ -25420,12 +25438,12 @@
       <c r="GO57" s="12"/>
       <c r="GP57" s="12"/>
       <c r="GQ57" s="12"/>
-      <c r="GR57" s="86"/>
+      <c r="GR57" s="80"/>
       <c r="GS57" s="19" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="58" spans="1:201" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>77</v>
       </c>
@@ -25474,17 +25492,17 @@
         <v>25</v>
       </c>
       <c r="AB58" s="19"/>
-      <c r="AC58" s="51"/>
-      <c r="AD58" s="51"/>
-      <c r="AE58" s="51"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="19"/>
       <c r="AF58" s="13" t="s">
         <v>302</v>
       </c>
       <c r="AG58" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AH58" s="52"/>
-      <c r="AI58" s="52"/>
+      <c r="AH58" s="36"/>
+      <c r="AI58" s="36"/>
       <c r="AJ58" s="28"/>
       <c r="AK58" s="28"/>
       <c r="AL58" s="30" t="s">
@@ -25685,10 +25703,10 @@
         <v>25</v>
       </c>
       <c r="GQ58" s="12"/>
-      <c r="GR58" s="86"/>
+      <c r="GR58" s="80"/>
       <c r="GS58" s="38"/>
     </row>
-    <row r="59" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
         <v>79</v>
       </c>
@@ -25735,9 +25753,9 @@
       <c r="Z59" s="12"/>
       <c r="AA59" s="19"/>
       <c r="AB59" s="19"/>
-      <c r="AC59" s="51"/>
-      <c r="AD59" s="51"/>
-      <c r="AE59" s="51"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
       <c r="AF59" s="13" t="s">
         <v>25</v>
       </c>
@@ -25745,7 +25763,7 @@
       <c r="AH59" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AI59" s="52"/>
+      <c r="AI59" s="36"/>
       <c r="AJ59" s="28"/>
       <c r="AK59" s="28"/>
       <c r="AL59" s="28"/>
@@ -25928,10 +25946,10 @@
       <c r="GO59" s="12"/>
       <c r="GP59" s="12"/>
       <c r="GQ59" s="12"/>
-      <c r="GR59" s="86"/>
+      <c r="GR59" s="80"/>
       <c r="GS59" s="38"/>
     </row>
-    <row r="60" spans="1:201" ht="26.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>80</v>
       </c>
@@ -25978,22 +25996,22 @@
       <c r="Z60" s="19"/>
       <c r="AA60" s="19"/>
       <c r="AB60" s="19"/>
-      <c r="AC60" s="51"/>
-      <c r="AD60" s="51"/>
-      <c r="AE60" s="51"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
       <c r="AF60" s="13" t="s">
         <v>25</v>
       </c>
       <c r="AG60" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AH60" s="52"/>
-      <c r="AI60" s="52"/>
+      <c r="AH60" s="36"/>
+      <c r="AI60" s="36"/>
       <c r="AJ60" s="13" t="s">
         <v>25</v>
       </c>
       <c r="AK60" s="28"/>
-      <c r="AL60" s="54" t="s">
+      <c r="AL60" s="52" t="s">
         <v>344</v>
       </c>
       <c r="AM60" s="12" t="s">
@@ -26191,14 +26209,14 @@
       <c r="GO60" s="12"/>
       <c r="GP60" s="12"/>
       <c r="GQ60" s="12"/>
-      <c r="GR60" s="88" t="s">
+      <c r="GR60" s="82" t="s">
         <v>735</v>
       </c>
-      <c r="GS60" s="100" t="s">
+      <c r="GS60" s="94" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="61" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="19" t="s">
         <v>82</v>
       </c>
@@ -26245,17 +26263,17 @@
       <c r="Z61" s="12"/>
       <c r="AA61" s="19"/>
       <c r="AB61" s="19"/>
-      <c r="AC61" s="51"/>
-      <c r="AD61" s="51"/>
-      <c r="AE61" s="51"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
       <c r="AF61" s="13" t="s">
         <v>25</v>
       </c>
       <c r="AG61" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AH61" s="52"/>
-      <c r="AI61" s="52"/>
+      <c r="AH61" s="36"/>
+      <c r="AI61" s="36"/>
       <c r="AJ61" s="28"/>
       <c r="AK61" s="28"/>
       <c r="AL61" s="28"/>
@@ -26442,12 +26460,12 @@
       <c r="GO61" s="12"/>
       <c r="GP61" s="12"/>
       <c r="GQ61" s="12"/>
-      <c r="GR61" s="86"/>
+      <c r="GR61" s="80"/>
       <c r="GS61" s="19" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:201" ht="103.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:201" ht="125.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
         <v>58</v>
       </c>
@@ -26494,9 +26512,9 @@
         <v>25</v>
       </c>
       <c r="AB62" s="19"/>
-      <c r="AC62" s="51"/>
-      <c r="AD62" s="51"/>
-      <c r="AE62" s="51"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
+      <c r="AE62" s="19"/>
       <c r="AF62" s="13" t="s">
         <v>25</v>
       </c>
@@ -26506,7 +26524,7 @@
       <c r="AH62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AI62" s="52"/>
+      <c r="AI62" s="36"/>
       <c r="AJ62" s="13" t="s">
         <v>25</v>
       </c>
@@ -26696,7 +26714,7 @@
       <c r="GJ62" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="GK62" s="81"/>
+      <c r="GK62" s="76"/>
       <c r="GL62" s="12" t="s">
         <v>25</v>
       </c>
@@ -26709,14 +26727,14 @@
       </c>
       <c r="GP62" s="12"/>
       <c r="GQ62" s="12"/>
-      <c r="GR62" s="87" t="s">
+      <c r="GR62" s="81" t="s">
         <v>611</v>
       </c>
-      <c r="GS62" s="100" t="s">
+      <c r="GS62" s="94" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="63" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="19" t="s">
         <v>85</v>
       </c>
@@ -26757,17 +26775,17 @@
       <c r="Z63" s="19"/>
       <c r="AA63" s="19"/>
       <c r="AB63" s="19"/>
-      <c r="AC63" s="51"/>
-      <c r="AD63" s="51"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
       <c r="AE63" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AF63" s="52"/>
+      <c r="AF63" s="36"/>
       <c r="AG63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AH63" s="52"/>
-      <c r="AI63" s="52"/>
+      <c r="AH63" s="36"/>
+      <c r="AI63" s="36"/>
       <c r="AJ63" s="28"/>
       <c r="AK63" s="28"/>
       <c r="AL63" s="28">
@@ -26954,10 +26972,10 @@
       <c r="GO63" s="12"/>
       <c r="GP63" s="12"/>
       <c r="GQ63" s="12"/>
-      <c r="GR63" s="86"/>
+      <c r="GR63" s="80"/>
       <c r="GS63" s="38"/>
     </row>
-    <row r="64" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="19"/>
       <c r="B64" s="36"/>
       <c r="C64" s="12"/>
@@ -26996,13 +27014,13 @@
       <c r="Z64" s="12"/>
       <c r="AA64" s="19"/>
       <c r="AB64" s="19"/>
-      <c r="AC64" s="51"/>
-      <c r="AD64" s="51"/>
-      <c r="AE64" s="51"/>
-      <c r="AF64" s="52"/>
-      <c r="AG64" s="52"/>
-      <c r="AH64" s="52"/>
-      <c r="AI64" s="52"/>
+      <c r="AC64" s="19"/>
+      <c r="AD64" s="19"/>
+      <c r="AE64" s="19"/>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="36"/>
+      <c r="AH64" s="36"/>
+      <c r="AI64" s="36"/>
       <c r="AJ64" s="28"/>
       <c r="AK64" s="28"/>
       <c r="AL64" s="28"/>
@@ -27183,10 +27201,10 @@
       <c r="GO64" s="12"/>
       <c r="GP64" s="12"/>
       <c r="GQ64" s="12"/>
-      <c r="GR64" s="86"/>
+      <c r="GR64" s="80"/>
       <c r="GS64" s="38"/>
     </row>
-    <row r="65" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>298</v>
       </c>
@@ -27231,15 +27249,15 @@
       <c r="Z65" s="19"/>
       <c r="AA65" s="19"/>
       <c r="AB65" s="19"/>
-      <c r="AC65" s="51"/>
-      <c r="AD65" s="51"/>
-      <c r="AE65" s="51"/>
-      <c r="AF65" s="52"/>
-      <c r="AG65" s="52"/>
+      <c r="AC65" s="19"/>
+      <c r="AD65" s="19"/>
+      <c r="AE65" s="19"/>
+      <c r="AF65" s="36"/>
+      <c r="AG65" s="36"/>
       <c r="AH65" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AI65" s="52"/>
+      <c r="AI65" s="36"/>
       <c r="AJ65" s="28"/>
       <c r="AK65" s="28"/>
       <c r="AL65" s="28"/>
@@ -27428,14 +27446,14 @@
       <c r="GO65" s="12"/>
       <c r="GP65" s="12"/>
       <c r="GQ65" s="12"/>
-      <c r="GR65" s="87" t="s">
+      <c r="GR65" s="81" t="s">
         <v>626</v>
       </c>
       <c r="GS65" s="15" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="66" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="19" t="s">
         <v>87</v>
       </c>
@@ -27491,9 +27509,9 @@
         <v>25</v>
       </c>
       <c r="AI66" s="22"/>
-      <c r="AJ66" s="57"/>
-      <c r="AK66" s="57"/>
-      <c r="AL66" s="57"/>
+      <c r="AJ66" s="55"/>
+      <c r="AK66" s="55"/>
+      <c r="AL66" s="55"/>
       <c r="AM66" s="12" t="s">
         <v>25</v>
       </c>
@@ -27681,10 +27699,10 @@
       <c r="GO66" s="12"/>
       <c r="GP66" s="12"/>
       <c r="GQ66" s="12"/>
-      <c r="GR66" s="86"/>
+      <c r="GR66" s="80"/>
       <c r="GS66" s="38"/>
     </row>
-    <row r="67" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="19" t="s">
         <v>88</v>
       </c>
@@ -27740,9 +27758,9 @@
         <v>25</v>
       </c>
       <c r="AI67" s="22"/>
-      <c r="AJ67" s="57"/>
-      <c r="AK67" s="57"/>
-      <c r="AL67" s="57"/>
+      <c r="AJ67" s="55"/>
+      <c r="AK67" s="55"/>
+      <c r="AL67" s="55"/>
       <c r="AM67" s="12" t="s">
         <v>25</v>
       </c>
@@ -27930,12 +27948,12 @@
       <c r="GO67" s="12"/>
       <c r="GP67" s="12"/>
       <c r="GQ67" s="12"/>
-      <c r="GR67" s="101" t="s">
+      <c r="GR67" s="95" t="s">
         <v>715</v>
       </c>
       <c r="GS67" s="38"/>
     </row>
-    <row r="68" spans="1:201" ht="103.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:201" ht="103.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>89</v>
       </c>
@@ -27995,8 +28013,8 @@
         <v>25</v>
       </c>
       <c r="AI68" s="22"/>
-      <c r="AJ68" s="57"/>
-      <c r="AK68" s="57"/>
+      <c r="AJ68" s="55"/>
+      <c r="AK68" s="55"/>
       <c r="AL68" s="30" t="s">
         <v>672</v>
       </c>
@@ -28193,14 +28211,14 @@
       <c r="GQ68" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="GR68" s="93" t="s">
+      <c r="GR68" s="87" t="s">
         <v>781</v>
       </c>
       <c r="GS68" s="10" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="69" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="49" t="s">
         <v>91</v>
       </c>
@@ -28254,9 +28272,9 @@
         <v>25</v>
       </c>
       <c r="AI69" s="46"/>
-      <c r="AJ69" s="58"/>
-      <c r="AK69" s="58"/>
-      <c r="AL69" s="58"/>
+      <c r="AJ69" s="56"/>
+      <c r="AK69" s="56"/>
+      <c r="AL69" s="56"/>
       <c r="AM69" s="45" t="s">
         <v>25</v>
       </c>
@@ -28436,12 +28454,12 @@
       <c r="GO69" s="45"/>
       <c r="GP69" s="45"/>
       <c r="GQ69" s="45"/>
-      <c r="GR69" s="94"/>
+      <c r="GR69" s="88"/>
       <c r="GS69" s="49" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="70" spans="1:201" ht="155.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:201" ht="180.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>299</v>
       </c>
@@ -28455,13 +28473,13 @@
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
-      <c r="H70" s="59" t="s">
+      <c r="H70" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="I70" s="59" t="s">
+      <c r="I70" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="J70" s="59" t="s">
+      <c r="J70" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K70" s="12" t="s">
@@ -28501,8 +28519,8 @@
       <c r="AI70" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AJ70" s="57"/>
-      <c r="AK70" s="57"/>
+      <c r="AJ70" s="55"/>
+      <c r="AK70" s="55"/>
       <c r="AL70" s="30" t="s">
         <v>308</v>
       </c>
@@ -28516,7 +28534,7 @@
       <c r="AR70" s="22"/>
       <c r="AS70" s="36"/>
       <c r="AT70" s="13"/>
-      <c r="AU70" s="60"/>
+      <c r="AU70" s="58"/>
       <c r="AV70" s="12"/>
       <c r="AW70" s="12"/>
       <c r="AX70" s="12"/>
@@ -28691,14 +28709,14 @@
         <v>25</v>
       </c>
       <c r="GQ70" s="12"/>
-      <c r="GR70" s="93" t="s">
+      <c r="GR70" s="87" t="s">
         <v>785</v>
       </c>
       <c r="GS70" s="15" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="71" spans="1:201" ht="129" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:201" ht="129" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>105</v>
       </c>
@@ -28712,13 +28730,13 @@
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
-      <c r="H71" s="59" t="s">
+      <c r="H71" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="I71" s="59" t="s">
+      <c r="I71" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="J71" s="59" t="s">
+      <c r="J71" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K71" s="12" t="s">
@@ -28754,9 +28772,9 @@
       </c>
       <c r="AH71" s="36"/>
       <c r="AI71" s="22"/>
-      <c r="AJ71" s="57"/>
-      <c r="AK71" s="57"/>
-      <c r="AL71" s="57"/>
+      <c r="AJ71" s="55"/>
+      <c r="AK71" s="55"/>
+      <c r="AL71" s="55"/>
       <c r="AM71" s="12" t="s">
         <v>25</v>
       </c>
@@ -28767,7 +28785,7 @@
       <c r="AR71" s="22"/>
       <c r="AS71" s="36"/>
       <c r="AT71" s="13"/>
-      <c r="AU71" s="60"/>
+      <c r="AU71" s="58"/>
       <c r="AV71" s="12"/>
       <c r="AW71" s="12" t="s">
         <v>25</v>
@@ -28952,14 +28970,14 @@
       <c r="GO71" s="12"/>
       <c r="GP71" s="12"/>
       <c r="GQ71" s="12"/>
-      <c r="GR71" s="95" t="s">
+      <c r="GR71" s="89" t="s">
         <v>782</v>
       </c>
       <c r="GS71" s="15" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="72" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="19" t="s">
         <v>46</v>
       </c>
@@ -28973,13 +28991,13 @@
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
-      <c r="H72" s="59" t="s">
+      <c r="H72" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="I72" s="59" t="s">
+      <c r="I72" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="J72" s="59" t="s">
+      <c r="J72" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K72" s="12" t="s">
@@ -29015,9 +29033,9 @@
       </c>
       <c r="AH72" s="36"/>
       <c r="AI72" s="22"/>
-      <c r="AJ72" s="57"/>
-      <c r="AK72" s="57"/>
-      <c r="AL72" s="57"/>
+      <c r="AJ72" s="55"/>
+      <c r="AK72" s="55"/>
+      <c r="AL72" s="55"/>
       <c r="AM72" s="12" t="s">
         <v>25</v>
       </c>
@@ -29028,7 +29046,7 @@
       <c r="AR72" s="22"/>
       <c r="AS72" s="36"/>
       <c r="AT72" s="13"/>
-      <c r="AU72" s="60" t="s">
+      <c r="AU72" s="58" t="s">
         <v>25</v>
       </c>
       <c r="AV72" s="12"/>
@@ -29205,10 +29223,10 @@
       <c r="GO72" s="12"/>
       <c r="GP72" s="12"/>
       <c r="GQ72" s="12"/>
-      <c r="GR72" s="96"/>
+      <c r="GR72" s="90"/>
       <c r="GS72" s="38"/>
     </row>
-    <row r="73" spans="1:201" ht="26.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>96</v>
       </c>
@@ -29222,13 +29240,13 @@
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="59" t="s">
+      <c r="H73" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="I73" s="59" t="s">
+      <c r="I73" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="J73" s="59" t="s">
+      <c r="J73" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K73" s="12" t="s">
@@ -29264,8 +29282,8 @@
       </c>
       <c r="AH73" s="13"/>
       <c r="AI73" s="22"/>
-      <c r="AJ73" s="57"/>
-      <c r="AK73" s="57"/>
+      <c r="AJ73" s="55"/>
+      <c r="AK73" s="55"/>
       <c r="AL73" s="28"/>
       <c r="AM73" s="12" t="s">
         <v>25</v>
@@ -29277,7 +29295,7 @@
       <c r="AR73" s="22"/>
       <c r="AS73" s="36"/>
       <c r="AT73" s="13"/>
-      <c r="AU73" s="60"/>
+      <c r="AU73" s="58"/>
       <c r="AV73" s="12"/>
       <c r="AW73" s="12" t="s">
         <v>25</v>
@@ -29454,14 +29472,14 @@
       <c r="GO73" s="12"/>
       <c r="GP73" s="12"/>
       <c r="GQ73" s="12"/>
-      <c r="GR73" s="98" t="s">
+      <c r="GR73" s="92" t="s">
         <v>640</v>
       </c>
-      <c r="GS73" s="99" t="s">
+      <c r="GS73" s="93" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="74" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="19" t="s">
         <v>427</v>
       </c>
@@ -29475,13 +29493,13 @@
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
-      <c r="H74" s="59" t="s">
+      <c r="H74" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="I74" s="59" t="s">
+      <c r="I74" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="J74" s="59" t="s">
+      <c r="J74" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K74" s="12" t="s">
@@ -29518,11 +29536,11 @@
         <v>25</v>
       </c>
       <c r="AH74" s="13"/>
-      <c r="AI74" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ74" s="57"/>
-      <c r="AK74" s="57"/>
+      <c r="AI74" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ74" s="55"/>
+      <c r="AK74" s="55"/>
       <c r="AL74" s="28" t="s">
         <v>673</v>
       </c>
@@ -29536,7 +29554,7 @@
       <c r="AR74" s="22"/>
       <c r="AS74" s="36"/>
       <c r="AT74" s="13"/>
-      <c r="AU74" s="60"/>
+      <c r="AU74" s="58"/>
       <c r="AV74" s="12"/>
       <c r="AW74" s="12"/>
       <c r="AX74" s="12"/>
@@ -29711,12 +29729,12 @@
       <c r="GO74" s="12"/>
       <c r="GP74" s="12"/>
       <c r="GQ74" s="12"/>
-      <c r="GR74" s="96"/>
+      <c r="GR74" s="90"/>
       <c r="GS74" s="19" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="75" spans="1:201" ht="39.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:201" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>98</v>
       </c>
@@ -29730,13 +29748,13 @@
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
-      <c r="H75" s="59" t="s">
+      <c r="H75" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="I75" s="59" t="s">
+      <c r="I75" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="J75" s="59" t="s">
+      <c r="J75" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K75" s="12" t="s">
@@ -29776,9 +29794,9 @@
         <v>25</v>
       </c>
       <c r="AI75" s="22"/>
-      <c r="AJ75" s="57"/>
-      <c r="AK75" s="57"/>
-      <c r="AL75" s="54" t="s">
+      <c r="AJ75" s="55"/>
+      <c r="AK75" s="55"/>
+      <c r="AL75" s="52" t="s">
         <v>306</v>
       </c>
       <c r="AM75" s="12" t="s">
@@ -29791,7 +29809,7 @@
       <c r="AR75" s="22"/>
       <c r="AS75" s="36"/>
       <c r="AT75" s="13"/>
-      <c r="AU75" s="60"/>
+      <c r="AU75" s="58"/>
       <c r="AV75" s="12"/>
       <c r="AW75" s="12"/>
       <c r="AX75" s="12"/>
@@ -29970,18 +29988,18 @@
       </c>
       <c r="GP75" s="12"/>
       <c r="GQ75" s="12"/>
-      <c r="GR75" s="97" t="s">
+      <c r="GR75" s="91" t="s">
         <v>624</v>
       </c>
-      <c r="GS75" s="99" t="s">
+      <c r="GS75" s="93" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="76" spans="1:201" ht="26.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="61" t="s">
+      <c r="B76" s="59" t="s">
         <v>108</v>
       </c>
       <c r="C76" s="12"/>
@@ -29991,13 +30009,13 @@
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
-      <c r="H76" s="59" t="s">
+      <c r="H76" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="I76" s="59" t="s">
+      <c r="I76" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="J76" s="59" t="s">
+      <c r="J76" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K76" s="12"/>
@@ -30031,8 +30049,8 @@
       <c r="AG76" s="36"/>
       <c r="AH76" s="36"/>
       <c r="AI76" s="22"/>
-      <c r="AJ76" s="57"/>
-      <c r="AK76" s="57"/>
+      <c r="AJ76" s="55"/>
+      <c r="AK76" s="55"/>
       <c r="AL76" s="13">
         <v>1644</v>
       </c>
@@ -30046,7 +30064,7 @@
       <c r="AR76" s="22"/>
       <c r="AS76" s="36"/>
       <c r="AT76" s="13"/>
-      <c r="AU76" s="60" t="s">
+      <c r="AU76" s="58" t="s">
         <v>25</v>
       </c>
       <c r="AV76" s="12"/>
@@ -30219,12 +30237,12 @@
       <c r="GO76" s="12"/>
       <c r="GP76" s="12"/>
       <c r="GQ76" s="12"/>
-      <c r="GR76" s="96"/>
+      <c r="GR76" s="90"/>
       <c r="GS76" s="15" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="77" spans="1:201" ht="65.099999999999994" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:201" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
         <v>101</v>
       </c>
@@ -30238,13 +30256,13 @@
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
-      <c r="H77" s="59" t="s">
+      <c r="H77" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="I77" s="59" t="s">
+      <c r="I77" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="J77" s="59" t="s">
+      <c r="J77" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K77" s="12" t="s">
@@ -30280,9 +30298,9 @@
       <c r="AG77" s="17"/>
       <c r="AH77" s="17"/>
       <c r="AI77" s="17"/>
-      <c r="AJ77" s="57"/>
-      <c r="AK77" s="57"/>
-      <c r="AL77" s="57"/>
+      <c r="AJ77" s="55"/>
+      <c r="AK77" s="55"/>
+      <c r="AL77" s="55"/>
       <c r="AM77" s="12" t="s">
         <v>25</v>
       </c>
@@ -30293,7 +30311,7 @@
       <c r="AR77" s="22"/>
       <c r="AS77" s="36"/>
       <c r="AT77" s="13"/>
-      <c r="AU77" s="60"/>
+      <c r="AU77" s="58"/>
       <c r="AV77" s="12"/>
       <c r="AW77" s="12" t="s">
         <v>25</v>
@@ -30470,14 +30488,14 @@
       <c r="GO77" s="12"/>
       <c r="GP77" s="12"/>
       <c r="GQ77" s="12"/>
-      <c r="GR77" s="87" t="s">
+      <c r="GR77" s="81" t="s">
         <v>612</v>
       </c>
       <c r="GS77" s="10" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="78" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="19" t="s">
         <v>103</v>
       </c>
@@ -30491,13 +30509,13 @@
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
-      <c r="H78" s="59" t="s">
+      <c r="H78" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="I78" s="59" t="s">
+      <c r="I78" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="J78" s="59" t="s">
+      <c r="J78" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K78" s="12" t="s">
@@ -30535,7 +30553,7 @@
       </c>
       <c r="AH78" s="17"/>
       <c r="AI78" s="17"/>
-      <c r="AJ78" s="62"/>
+      <c r="AJ78" s="22"/>
       <c r="AK78" s="22"/>
       <c r="AL78" s="22"/>
       <c r="AM78" s="12" t="s">
@@ -30548,7 +30566,7 @@
       <c r="AR78" s="22"/>
       <c r="AS78" s="36"/>
       <c r="AT78" s="13"/>
-      <c r="AU78" s="60" t="s">
+      <c r="AU78" s="58" t="s">
         <v>25</v>
       </c>
       <c r="AV78" s="12"/>
@@ -30725,10 +30743,10 @@
       <c r="GO78" s="12"/>
       <c r="GP78" s="12"/>
       <c r="GQ78" s="12"/>
-      <c r="GR78" s="96"/>
+      <c r="GR78" s="90"/>
       <c r="GS78" s="38"/>
     </row>
-    <row r="79" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="19" t="s">
         <v>105</v>
       </c>
@@ -30742,13 +30760,13 @@
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
-      <c r="H79" s="63" t="s">
+      <c r="H79" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="I79" s="63" t="s">
+      <c r="I79" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="J79" s="59" t="s">
+      <c r="J79" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K79" s="12" t="s">
@@ -30784,7 +30802,7 @@
       </c>
       <c r="AH79" s="17"/>
       <c r="AI79" s="17"/>
-      <c r="AJ79" s="62"/>
+      <c r="AJ79" s="22"/>
       <c r="AK79" s="22"/>
       <c r="AL79" s="22"/>
       <c r="AM79" s="12" t="s">
@@ -30797,7 +30815,7 @@
       <c r="AR79" s="22"/>
       <c r="AS79" s="36"/>
       <c r="AT79" s="13"/>
-      <c r="AU79" s="60" t="s">
+      <c r="AU79" s="58" t="s">
         <v>25</v>
       </c>
       <c r="AV79" s="12"/>
@@ -30968,10 +30986,10 @@
       <c r="GO79" s="12"/>
       <c r="GP79" s="12"/>
       <c r="GQ79" s="12"/>
-      <c r="GR79" s="96"/>
+      <c r="GR79" s="90"/>
       <c r="GS79" s="38"/>
     </row>
-    <row r="80" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="19" t="s">
         <v>105</v>
       </c>
@@ -30985,13 +31003,13 @@
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="59" t="s">
+      <c r="H80" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="I80" s="59" t="s">
+      <c r="I80" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="J80" s="59" t="s">
+      <c r="J80" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K80" s="12" t="s">
@@ -31029,7 +31047,7 @@
       <c r="AI80" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AJ80" s="62"/>
+      <c r="AJ80" s="22"/>
       <c r="AK80" s="22"/>
       <c r="AL80" s="22"/>
       <c r="AM80" s="12" t="s">
@@ -31042,7 +31060,7 @@
       <c r="AR80" s="22"/>
       <c r="AS80" s="36"/>
       <c r="AT80" s="13"/>
-      <c r="AU80" s="60" t="s">
+      <c r="AU80" s="58" t="s">
         <v>25</v>
       </c>
       <c r="AV80" s="12"/>
@@ -31219,12 +31237,12 @@
       <c r="GO80" s="12"/>
       <c r="GP80" s="12"/>
       <c r="GQ80" s="12"/>
-      <c r="GR80" s="98" t="s">
+      <c r="GR80" s="92" t="s">
         <v>287</v>
       </c>
       <c r="GS80" s="38"/>
     </row>
-    <row r="81" spans="1:201" ht="52.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:201" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
         <v>121</v>
       </c>
@@ -31284,7 +31302,7 @@
       <c r="AI81" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AJ81" s="62"/>
+      <c r="AJ81" s="22"/>
       <c r="AK81" s="22"/>
       <c r="AL81" s="30" t="s">
         <v>674</v>
@@ -31330,8 +31348,8 @@
       </c>
       <c r="BR81" s="13"/>
       <c r="BS81" s="13"/>
-      <c r="BT81" s="70"/>
-      <c r="BU81" s="70"/>
+      <c r="BT81" s="67"/>
+      <c r="BU81" s="67"/>
       <c r="BV81" s="12" t="s">
         <v>25</v>
       </c>
@@ -31488,10 +31506,10 @@
       <c r="GQ81" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="GR81" s="96"/>
+      <c r="GR81" s="90"/>
       <c r="GS81" s="38"/>
     </row>
-    <row r="82" spans="1:201" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>437</v>
       </c>
@@ -31547,7 +31565,7 @@
       </c>
       <c r="AH82" s="17"/>
       <c r="AI82" s="17"/>
-      <c r="AJ82" s="62"/>
+      <c r="AJ82" s="22"/>
       <c r="AK82" s="22"/>
       <c r="AL82" s="22"/>
       <c r="AM82" s="12" t="s">
@@ -31737,12 +31755,12 @@
       <c r="GO82" s="12"/>
       <c r="GP82" s="12"/>
       <c r="GQ82" s="12"/>
-      <c r="GR82" s="96"/>
-      <c r="GS82" s="100" t="s">
+      <c r="GR82" s="90"/>
+      <c r="GS82" s="94" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="83" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="19" t="s">
         <v>435</v>
       </c>
@@ -31794,7 +31812,7 @@
       <c r="AG83" s="17"/>
       <c r="AH83" s="17"/>
       <c r="AI83" s="17"/>
-      <c r="AJ83" s="62"/>
+      <c r="AJ83" s="22"/>
       <c r="AK83" s="22"/>
       <c r="AL83" s="13">
         <v>1581</v>
@@ -31978,10 +31996,10 @@
       <c r="GO83" s="12"/>
       <c r="GP83" s="12"/>
       <c r="GQ83" s="12"/>
-      <c r="GR83" s="96"/>
+      <c r="GR83" s="90"/>
       <c r="GS83" s="38"/>
     </row>
-    <row r="84" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="19" t="s">
         <v>433</v>
       </c>
@@ -32033,7 +32051,7 @@
       <c r="AG84" s="17"/>
       <c r="AH84" s="17"/>
       <c r="AI84" s="17"/>
-      <c r="AJ84" s="62"/>
+      <c r="AJ84" s="22"/>
       <c r="AK84" s="22"/>
       <c r="AL84" s="22"/>
       <c r="AM84" s="19"/>
@@ -32215,10 +32233,10 @@
       <c r="GO84" s="19"/>
       <c r="GP84" s="19"/>
       <c r="GQ84" s="19"/>
-      <c r="GR84" s="96"/>
+      <c r="GR84" s="90"/>
       <c r="GS84" s="38"/>
     </row>
-    <row r="85" spans="1:201" ht="135.30000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:201" ht="135.30000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>430</v>
       </c>
@@ -32274,7 +32292,7 @@
         <v>25</v>
       </c>
       <c r="AI85" s="17"/>
-      <c r="AJ85" s="62"/>
+      <c r="AJ85" s="22"/>
       <c r="AK85" s="22"/>
       <c r="AL85" s="13" t="s">
         <v>432</v>
@@ -32462,14 +32480,14 @@
       <c r="GO85" s="19"/>
       <c r="GP85" s="19"/>
       <c r="GQ85" s="19"/>
-      <c r="GR85" s="95" t="s">
+      <c r="GR85" s="89" t="s">
         <v>714</v>
       </c>
       <c r="GS85" s="10" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="86" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
         <v>377</v>
       </c>
@@ -32525,7 +32543,7 @@
         <v>25</v>
       </c>
       <c r="AI86" s="17"/>
-      <c r="AJ86" s="62"/>
+      <c r="AJ86" s="22"/>
       <c r="AK86" s="22"/>
       <c r="AL86" s="22"/>
       <c r="AM86" s="12" t="s">
@@ -32719,10 +32737,10 @@
       <c r="GO86" s="19"/>
       <c r="GP86" s="19"/>
       <c r="GQ86" s="19"/>
-      <c r="GR86" s="96"/>
+      <c r="GR86" s="90"/>
       <c r="GS86" s="38"/>
     </row>
-    <row r="87" spans="1:201" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
         <v>125</v>
       </c>
@@ -32780,9 +32798,9 @@
         <v>25</v>
       </c>
       <c r="AI87" s="13"/>
-      <c r="AJ87" s="57"/>
-      <c r="AK87" s="57"/>
-      <c r="AL87" s="54" t="s">
+      <c r="AJ87" s="55"/>
+      <c r="AK87" s="55"/>
+      <c r="AL87" s="52" t="s">
         <v>357</v>
       </c>
       <c r="AM87" s="12" t="s">
@@ -32974,12 +32992,12 @@
       <c r="GO87" s="19"/>
       <c r="GP87" s="19"/>
       <c r="GQ87" s="19"/>
-      <c r="GR87" s="96"/>
+      <c r="GR87" s="90"/>
       <c r="GS87" s="29" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="88" spans="1:201" ht="39.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>47</v>
       </c>
@@ -33033,8 +33051,8 @@
       </c>
       <c r="AH88" s="13"/>
       <c r="AI88" s="13"/>
-      <c r="AJ88" s="57"/>
-      <c r="AK88" s="57"/>
+      <c r="AJ88" s="55"/>
+      <c r="AK88" s="55"/>
       <c r="AL88" s="31" t="s">
         <v>354</v>
       </c>
@@ -33215,12 +33233,12 @@
       <c r="GO88" s="19"/>
       <c r="GP88" s="19"/>
       <c r="GQ88" s="19"/>
-      <c r="GR88" s="96"/>
-      <c r="GS88" s="99" t="s">
+      <c r="GR88" s="90"/>
+      <c r="GS88" s="93" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="89" spans="1:201" ht="39.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>127</v>
       </c>
@@ -33278,9 +33296,9 @@
         <v>25</v>
       </c>
       <c r="AI89" s="13"/>
-      <c r="AJ89" s="57"/>
-      <c r="AK89" s="57"/>
-      <c r="AL89" s="54" t="s">
+      <c r="AJ89" s="55"/>
+      <c r="AK89" s="55"/>
+      <c r="AL89" s="52" t="s">
         <v>309</v>
       </c>
       <c r="AM89" s="12" t="s">
@@ -33470,14 +33488,14 @@
       <c r="GO89" s="19"/>
       <c r="GP89" s="19"/>
       <c r="GQ89" s="19"/>
-      <c r="GR89" s="97" t="s">
+      <c r="GR89" s="91" t="s">
         <v>719</v>
       </c>
-      <c r="GS89" s="99" t="s">
+      <c r="GS89" s="93" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="90" spans="1:201" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>129</v>
       </c>
@@ -33539,11 +33557,11 @@
       <c r="AI90" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AJ90" s="57"/>
-      <c r="AK90" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL90" s="54" t="s">
+      <c r="AJ90" s="55"/>
+      <c r="AK90" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL90" s="52" t="s">
         <v>356</v>
       </c>
       <c r="AM90" s="12" t="s">
@@ -33736,15 +33754,15 @@
       <c r="GN90" s="12"/>
       <c r="GO90" s="19"/>
       <c r="GP90" s="19"/>
-      <c r="GQ90" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="GR90" s="93" t="s">
+      <c r="GQ90" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="GR90" s="87" t="s">
         <v>389</v>
       </c>
       <c r="GS90" s="38"/>
     </row>
-    <row r="91" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="49"/>
       <c r="B91" s="49"/>
       <c r="C91" s="46"/>
@@ -33777,10 +33795,10 @@
       <c r="V91" s="45"/>
       <c r="W91" s="45"/>
       <c r="X91" s="45"/>
-      <c r="Y91" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z91" s="64"/>
+      <c r="Y91" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z91" s="61"/>
       <c r="AA91" s="46"/>
       <c r="AB91" s="46"/>
       <c r="AC91" s="46"/>
@@ -33790,9 +33808,9 @@
       <c r="AG91" s="45"/>
       <c r="AH91" s="45"/>
       <c r="AI91" s="45"/>
-      <c r="AJ91" s="58"/>
-      <c r="AK91" s="58"/>
-      <c r="AL91" s="58"/>
+      <c r="AJ91" s="56"/>
+      <c r="AK91" s="56"/>
+      <c r="AL91" s="56"/>
       <c r="AM91" s="45"/>
       <c r="AN91" s="45"/>
       <c r="AO91" s="45"/>
@@ -33954,10 +33972,10 @@
       <c r="GO91" s="49"/>
       <c r="GP91" s="49"/>
       <c r="GQ91" s="49"/>
-      <c r="GR91" s="94"/>
+      <c r="GR91" s="88"/>
       <c r="GS91" s="46"/>
     </row>
-    <row r="92" spans="1:201" ht="26.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>62</v>
       </c>
@@ -34000,7 +34018,7 @@
       <c r="X92" s="13"/>
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
-      <c r="AA92" s="72" t="s">
+      <c r="AA92" s="69" t="s">
         <v>25</v>
       </c>
       <c r="AB92" s="38"/>
@@ -34017,9 +34035,9 @@
         <v>25</v>
       </c>
       <c r="AI92" s="13"/>
-      <c r="AJ92" s="57"/>
-      <c r="AK92" s="57"/>
-      <c r="AL92" s="54" t="s">
+      <c r="AJ92" s="55"/>
+      <c r="AK92" s="55"/>
+      <c r="AL92" s="52" t="s">
         <v>355</v>
       </c>
       <c r="AM92" s="12" t="s">
@@ -34213,12 +34231,12 @@
       </c>
       <c r="GP92" s="19"/>
       <c r="GQ92" s="19"/>
-      <c r="GR92" s="96"/>
+      <c r="GR92" s="90"/>
       <c r="GS92" s="15" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="93" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
         <v>140</v>
       </c>
@@ -34270,9 +34288,9 @@
       <c r="AG93" s="31"/>
       <c r="AH93" s="31"/>
       <c r="AI93" s="13"/>
-      <c r="AJ93" s="57"/>
-      <c r="AK93" s="57"/>
-      <c r="AL93" s="57"/>
+      <c r="AJ93" s="55"/>
+      <c r="AK93" s="55"/>
+      <c r="AL93" s="55"/>
       <c r="AM93" s="12" t="s">
         <v>25</v>
       </c>
@@ -34458,10 +34476,10 @@
       <c r="GO93" s="19"/>
       <c r="GP93" s="19"/>
       <c r="GQ93" s="19"/>
-      <c r="GR93" s="96"/>
+      <c r="GR93" s="90"/>
       <c r="GS93" s="38"/>
     </row>
-    <row r="94" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
         <v>222</v>
       </c>
@@ -34509,9 +34527,9 @@
       <c r="AG94" s="31"/>
       <c r="AH94" s="31"/>
       <c r="AI94" s="13"/>
-      <c r="AJ94" s="57"/>
-      <c r="AK94" s="57"/>
-      <c r="AL94" s="57"/>
+      <c r="AJ94" s="55"/>
+      <c r="AK94" s="55"/>
+      <c r="AL94" s="55"/>
       <c r="AM94" s="12" t="s">
         <v>25</v>
       </c>
@@ -34693,10 +34711,10 @@
       <c r="GO94" s="19"/>
       <c r="GP94" s="19"/>
       <c r="GQ94" s="19"/>
-      <c r="GR94" s="96"/>
+      <c r="GR94" s="90"/>
       <c r="GS94" s="38"/>
     </row>
-    <row r="95" spans="1:201" ht="189" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:201" ht="189" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>696</v>
       </c>
@@ -34752,8 +34770,8 @@
       <c r="AG95" s="13"/>
       <c r="AH95" s="13"/>
       <c r="AI95" s="13"/>
-      <c r="AJ95" s="57"/>
-      <c r="AK95" s="57"/>
+      <c r="AJ95" s="55"/>
+      <c r="AK95" s="55"/>
       <c r="AL95" s="30" t="s">
         <v>348</v>
       </c>
@@ -34950,12 +34968,12 @@
         <v>25</v>
       </c>
       <c r="GQ95" s="19"/>
-      <c r="GR95" s="87" t="s">
+      <c r="GR95" s="81" t="s">
         <v>786</v>
       </c>
       <c r="GS95" s="38"/>
     </row>
-    <row r="96" spans="1:201" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:201" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="15" t="s">
         <v>378</v>
       </c>
@@ -35000,7 +35018,7 @@
       <c r="Z96" s="19"/>
       <c r="AA96" s="38"/>
       <c r="AB96" s="38"/>
-      <c r="AC96" s="72" t="s">
+      <c r="AC96" s="69" t="s">
         <v>25</v>
       </c>
       <c r="AD96" s="38"/>
@@ -35013,8 +35031,8 @@
         <v>25</v>
       </c>
       <c r="AI96" s="13"/>
-      <c r="AJ96" s="57"/>
-      <c r="AK96" s="57"/>
+      <c r="AJ96" s="55"/>
+      <c r="AK96" s="55"/>
       <c r="AL96" s="30" t="s">
         <v>675</v>
       </c>
@@ -35209,12 +35227,12 @@
       </c>
       <c r="GP96" s="19"/>
       <c r="GQ96" s="19"/>
-      <c r="GR96" s="96"/>
-      <c r="GS96" s="99" t="s">
+      <c r="GR96" s="90"/>
+      <c r="GS96" s="93" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="97" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="49" t="s">
         <v>143</v>
       </c>
@@ -35268,9 +35286,9 @@
       <c r="AG97" s="45"/>
       <c r="AH97" s="45"/>
       <c r="AI97" s="45"/>
-      <c r="AJ97" s="58"/>
-      <c r="AK97" s="58"/>
-      <c r="AL97" s="58"/>
+      <c r="AJ97" s="56"/>
+      <c r="AK97" s="56"/>
+      <c r="AL97" s="56"/>
       <c r="AM97" s="45" t="s">
         <v>25</v>
       </c>
@@ -35444,10 +35462,10 @@
       <c r="GO97" s="49"/>
       <c r="GP97" s="49"/>
       <c r="GQ97" s="49"/>
-      <c r="GR97" s="94"/>
+      <c r="GR97" s="88"/>
       <c r="GS97" s="46"/>
     </row>
-    <row r="98" spans="1:201" ht="39.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:201" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
         <v>366</v>
       </c>
@@ -35505,8 +35523,8 @@
         <v>25</v>
       </c>
       <c r="AI98" s="13"/>
-      <c r="AJ98" s="57"/>
-      <c r="AK98" s="57"/>
+      <c r="AJ98" s="55"/>
+      <c r="AK98" s="55"/>
       <c r="AL98" s="13" t="s">
         <v>342</v>
       </c>
@@ -35703,14 +35721,14 @@
       <c r="GQ98" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="GR98" s="95" t="s">
+      <c r="GR98" s="89" t="s">
         <v>613</v>
       </c>
       <c r="GS98" s="10" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="99" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>145</v>
       </c>
@@ -35751,7 +35769,7 @@
       <c r="V99" s="13"/>
       <c r="W99" s="13"/>
       <c r="X99" s="13"/>
-      <c r="Y99" s="53" t="s">
+      <c r="Y99" s="51" t="s">
         <v>25</v>
       </c>
       <c r="Z99" s="14"/>
@@ -35769,7 +35787,7 @@
       <c r="AJ99" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AK99" s="57"/>
+      <c r="AK99" s="55"/>
       <c r="AL99" s="13" t="s">
         <v>697</v>
       </c>
@@ -35952,10 +35970,10 @@
       <c r="GO99" s="12"/>
       <c r="GP99" s="12"/>
       <c r="GQ99" s="12"/>
-      <c r="GR99" s="87"/>
+      <c r="GR99" s="81"/>
       <c r="GS99" s="38"/>
     </row>
-    <row r="100" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>32</v>
       </c>
@@ -35980,7 +35998,7 @@
       <c r="J100" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="K100" s="72" t="s">
+      <c r="K100" s="69" t="s">
         <v>25</v>
       </c>
       <c r="L100" s="38"/>
@@ -36209,10 +36227,10 @@
       <c r="GO100" s="19"/>
       <c r="GP100" s="38"/>
       <c r="GQ100" s="38"/>
-      <c r="GR100" s="96"/>
+      <c r="GR100" s="90"/>
       <c r="GS100" s="38"/>
     </row>
-    <row r="101" spans="1:201" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:201" ht="97.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>314</v>
       </c>
@@ -36474,12 +36492,12 @@
       <c r="GO101" s="19"/>
       <c r="GP101" s="38"/>
       <c r="GQ101" s="38"/>
-      <c r="GR101" s="87" t="s">
+      <c r="GR101" s="81" t="s">
         <v>615</v>
       </c>
       <c r="GS101" s="38"/>
     </row>
-    <row r="102" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>105</v>
       </c>
@@ -36735,12 +36753,12 @@
       <c r="GO102" s="19"/>
       <c r="GP102" s="38"/>
       <c r="GQ102" s="38"/>
-      <c r="GR102" s="87" t="s">
+      <c r="GR102" s="81" t="s">
         <v>783</v>
       </c>
       <c r="GS102" s="38"/>
     </row>
-    <row r="103" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>87</v>
       </c>
@@ -36774,7 +36792,7 @@
       <c r="O103" s="38"/>
       <c r="P103" s="38"/>
       <c r="Q103" s="38"/>
-      <c r="R103" s="65"/>
+      <c r="R103" s="62"/>
       <c r="S103" s="13"/>
       <c r="T103" s="13"/>
       <c r="U103" s="13"/>
@@ -36988,12 +37006,12 @@
       <c r="GO103" s="19"/>
       <c r="GP103" s="38"/>
       <c r="GQ103" s="38"/>
-      <c r="GR103" s="88" t="s">
+      <c r="GR103" s="82" t="s">
         <v>614</v>
       </c>
       <c r="GS103" s="38"/>
     </row>
-    <row r="104" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>62</v>
       </c>
@@ -37245,10 +37263,10 @@
       <c r="GO104" s="19"/>
       <c r="GP104" s="38"/>
       <c r="GQ104" s="38"/>
-      <c r="GR104" s="88"/>
+      <c r="GR104" s="82"/>
       <c r="GS104" s="38"/>
     </row>
-    <row r="105" spans="1:201" ht="26.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>326</v>
       </c>
@@ -37498,14 +37516,14 @@
       <c r="GO105" s="19"/>
       <c r="GP105" s="38"/>
       <c r="GQ105" s="38"/>
-      <c r="GR105" s="88" t="s">
+      <c r="GR105" s="82" t="s">
         <v>625</v>
       </c>
       <c r="GS105" s="15" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="106" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>46</v>
       </c>
@@ -37562,7 +37580,7 @@
         <v>25</v>
       </c>
       <c r="AH106" s="31"/>
-      <c r="AI106" s="66"/>
+      <c r="AI106" s="63"/>
       <c r="AJ106" s="36"/>
       <c r="AK106" s="22"/>
       <c r="AL106" s="30"/>
@@ -37751,10 +37769,10 @@
       <c r="GO106" s="19"/>
       <c r="GP106" s="38"/>
       <c r="GQ106" s="38"/>
-      <c r="GR106" s="88"/>
+      <c r="GR106" s="82"/>
       <c r="GS106" s="38"/>
     </row>
-    <row r="107" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>105</v>
       </c>
@@ -37998,12 +38016,12 @@
       <c r="GO107" s="19"/>
       <c r="GP107" s="38"/>
       <c r="GQ107" s="38"/>
-      <c r="GR107" s="88" t="s">
+      <c r="GR107" s="82" t="s">
         <v>425</v>
       </c>
       <c r="GS107" s="38"/>
     </row>
-    <row r="108" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>62</v>
       </c>
@@ -38253,12 +38271,12 @@
       <c r="GO108" s="19"/>
       <c r="GP108" s="38"/>
       <c r="GQ108" s="38"/>
-      <c r="GR108" s="88" t="s">
+      <c r="GR108" s="82" t="s">
         <v>424</v>
       </c>
       <c r="GS108" s="38"/>
     </row>
-    <row r="109" spans="1:201" ht="52.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:201" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>408</v>
       </c>
@@ -38508,14 +38526,14 @@
       <c r="GO109" s="19"/>
       <c r="GP109" s="38"/>
       <c r="GQ109" s="38"/>
-      <c r="GR109" s="87" t="s">
+      <c r="GR109" s="81" t="s">
         <v>787</v>
       </c>
-      <c r="GS109" s="100" t="s">
+      <c r="GS109" s="94" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="110" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>62</v>
       </c>
@@ -38755,12 +38773,12 @@
       <c r="GO110" s="19"/>
       <c r="GP110" s="38"/>
       <c r="GQ110" s="38"/>
-      <c r="GR110" s="88" t="s">
+      <c r="GR110" s="82" t="s">
         <v>633</v>
       </c>
       <c r="GS110" s="38"/>
     </row>
-    <row r="111" spans="1:201" ht="39.299999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>491</v>
       </c>
@@ -38812,7 +38830,7 @@
       <c r="AK111" s="22"/>
       <c r="AL111" s="30"/>
       <c r="AM111" s="12"/>
-      <c r="AN111" s="72" t="s">
+      <c r="AN111" s="69" t="s">
         <v>25</v>
       </c>
       <c r="AO111" s="38"/>
@@ -38992,12 +39010,12 @@
       <c r="GQ111" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="GR111" s="87" t="s">
+      <c r="GR111" s="81" t="s">
         <v>492</v>
       </c>
       <c r="GS111" s="38"/>
     </row>
-    <row r="112" spans="1:201" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>338</v>
       </c>
@@ -39247,1237 +39265,1224 @@
       </c>
       <c r="GP112" s="38"/>
       <c r="GQ112" s="38"/>
-      <c r="GR112" s="88" t="s">
+      <c r="GR112" s="82" t="s">
         <v>345</v>
       </c>
       <c r="GS112" s="10" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="113" spans="1:197" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="AE113" s="67"/>
-      <c r="AF113" s="67"/>
-      <c r="AG113" s="67"/>
-      <c r="AH113" s="67"/>
-      <c r="AI113" s="67"/>
-      <c r="AJ113" s="67"/>
-      <c r="AX113" s="67"/>
-      <c r="AY113" s="67"/>
-      <c r="AZ113" s="67"/>
-      <c r="BA113" s="67"/>
-      <c r="BB113" s="67"/>
-      <c r="BC113" s="67"/>
-      <c r="BD113" s="67"/>
-      <c r="BE113" s="67"/>
-      <c r="BF113" s="67"/>
-      <c r="BG113" s="67"/>
-      <c r="BH113" s="67"/>
-      <c r="BI113" s="67"/>
-      <c r="BJ113" s="67"/>
-      <c r="BK113" s="67"/>
-      <c r="BL113" s="67"/>
-      <c r="BM113" s="67"/>
-      <c r="BN113" s="67"/>
-      <c r="BO113" s="67"/>
-      <c r="BP113" s="67"/>
-      <c r="BQ113" s="67"/>
-      <c r="BR113" s="67"/>
-      <c r="BS113" s="67"/>
-      <c r="BT113" s="67"/>
-      <c r="BU113" s="67"/>
-      <c r="BV113" s="67"/>
-      <c r="BW113" s="67"/>
-      <c r="BX113" s="67"/>
-      <c r="BY113" s="67"/>
-      <c r="BZ113" s="67"/>
-      <c r="CA113" s="68"/>
-      <c r="CB113" s="68"/>
-      <c r="CC113" s="68"/>
-      <c r="CD113" s="68"/>
-      <c r="CE113" s="68"/>
-      <c r="CF113" s="68"/>
-      <c r="CG113" s="68"/>
-      <c r="CH113" s="68"/>
-      <c r="CI113" s="68"/>
-      <c r="CJ113" s="68"/>
-      <c r="CK113" s="68"/>
-      <c r="CL113" s="68"/>
-      <c r="CM113" s="68"/>
-      <c r="CN113" s="68"/>
-      <c r="CO113" s="68"/>
-      <c r="CP113" s="68"/>
-      <c r="CQ113" s="68"/>
-      <c r="CR113" s="68"/>
-      <c r="CS113" s="68"/>
-      <c r="CT113" s="68"/>
-      <c r="CU113" s="68"/>
-      <c r="CV113" s="68"/>
-      <c r="CW113" s="68"/>
-      <c r="CX113" s="68"/>
-      <c r="CY113" s="68"/>
-      <c r="CZ113" s="68"/>
-      <c r="DA113" s="68"/>
-      <c r="DB113" s="68"/>
-      <c r="DC113" s="68"/>
-      <c r="DD113" s="68"/>
-      <c r="DE113" s="68"/>
-      <c r="DF113" s="68"/>
-      <c r="DG113" s="68"/>
-      <c r="DH113" s="68"/>
-      <c r="DI113" s="68"/>
-      <c r="DJ113" s="68"/>
-      <c r="DK113" s="68"/>
-      <c r="DL113" s="68"/>
-      <c r="DM113" s="68"/>
-      <c r="DN113" s="68"/>
-      <c r="DO113" s="68"/>
-      <c r="DP113" s="68"/>
-      <c r="DQ113" s="68"/>
-      <c r="DR113" s="68"/>
-      <c r="DS113" s="68"/>
-      <c r="DT113" s="68"/>
-      <c r="DU113" s="68"/>
-      <c r="DV113" s="68"/>
-      <c r="DW113" s="68"/>
-      <c r="DX113" s="68"/>
-      <c r="DY113" s="68"/>
-      <c r="DZ113" s="68"/>
-      <c r="EA113" s="68"/>
-      <c r="EB113" s="68"/>
-      <c r="EC113" s="68"/>
-      <c r="ED113" s="68"/>
-      <c r="EE113" s="68"/>
-      <c r="EF113" s="68"/>
-      <c r="EG113" s="68"/>
-      <c r="EH113" s="68"/>
-      <c r="EI113" s="68"/>
-      <c r="EJ113" s="68"/>
-      <c r="EK113" s="68"/>
-      <c r="EL113" s="68"/>
-      <c r="EM113" s="68"/>
-      <c r="EN113" s="68"/>
-      <c r="EO113" s="68"/>
-      <c r="EP113" s="68"/>
-      <c r="EQ113" s="68"/>
-      <c r="ER113" s="68"/>
-      <c r="ES113" s="68"/>
-      <c r="ET113" s="68"/>
-      <c r="EU113" s="68"/>
-      <c r="EV113" s="68"/>
-      <c r="EW113" s="68"/>
-      <c r="EX113" s="68"/>
-      <c r="EY113" s="68"/>
-      <c r="EZ113" s="68"/>
-      <c r="FA113" s="68"/>
-      <c r="FB113" s="68"/>
-      <c r="FC113" s="68"/>
-      <c r="FD113" s="68"/>
-      <c r="FE113" s="68"/>
-      <c r="FF113" s="68"/>
-      <c r="FG113" s="68"/>
-      <c r="FH113" s="68"/>
-      <c r="FI113" s="68"/>
-      <c r="FJ113" s="68"/>
-      <c r="FK113" s="68"/>
-      <c r="FL113" s="68"/>
-      <c r="FM113" s="68"/>
-      <c r="FN113" s="68"/>
-      <c r="FO113" s="68"/>
-      <c r="FP113" s="68"/>
-      <c r="FQ113" s="68"/>
-      <c r="FR113" s="68"/>
-      <c r="FS113" s="68"/>
-      <c r="FT113" s="68"/>
-      <c r="FU113" s="68"/>
-      <c r="FV113" s="68"/>
-      <c r="FW113" s="68"/>
-      <c r="FX113" s="68"/>
-      <c r="FY113" s="68"/>
-      <c r="FZ113" s="68"/>
-      <c r="GA113" s="68"/>
-      <c r="GB113" s="68"/>
-      <c r="GC113" s="68"/>
-      <c r="GD113" s="68"/>
-      <c r="GE113" s="68"/>
-      <c r="GF113" s="68"/>
-      <c r="GG113" s="68"/>
-      <c r="GH113" s="68"/>
-      <c r="GI113" s="68"/>
-      <c r="GJ113" s="68"/>
-      <c r="GK113" s="68"/>
-      <c r="GL113" s="68"/>
-      <c r="GM113" s="68"/>
-      <c r="GN113" s="68"/>
-      <c r="GO113" s="67"/>
+    <row r="113" spans="1:197" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AE113" s="64"/>
+      <c r="AF113" s="64"/>
+      <c r="AG113" s="64"/>
+      <c r="AH113" s="64"/>
+      <c r="AI113" s="64"/>
+      <c r="AJ113" s="64"/>
+      <c r="AX113" s="64"/>
+      <c r="AY113" s="64"/>
+      <c r="AZ113" s="64"/>
+      <c r="BA113" s="64"/>
+      <c r="BB113" s="64"/>
+      <c r="BC113" s="64"/>
+      <c r="BD113" s="64"/>
+      <c r="BE113" s="64"/>
+      <c r="BF113" s="64"/>
+      <c r="BG113" s="64"/>
+      <c r="BH113" s="64"/>
+      <c r="BI113" s="64"/>
+      <c r="BJ113" s="64"/>
+      <c r="BK113" s="64"/>
+      <c r="BL113" s="64"/>
+      <c r="BM113" s="64"/>
+      <c r="BN113" s="64"/>
+      <c r="BO113" s="64"/>
+      <c r="BP113" s="64"/>
+      <c r="BQ113" s="64"/>
+      <c r="BR113" s="64"/>
+      <c r="BS113" s="64"/>
+      <c r="BT113" s="64"/>
+      <c r="BU113" s="64"/>
+      <c r="BV113" s="64"/>
+      <c r="BW113" s="64"/>
+      <c r="BX113" s="64"/>
+      <c r="BY113" s="64"/>
+      <c r="BZ113" s="64"/>
+      <c r="CA113" s="65"/>
+      <c r="CB113" s="65"/>
+      <c r="CC113" s="65"/>
+      <c r="CD113" s="65"/>
+      <c r="CE113" s="65"/>
+      <c r="CF113" s="65"/>
+      <c r="CG113" s="65"/>
+      <c r="CH113" s="65"/>
+      <c r="CI113" s="65"/>
+      <c r="CJ113" s="65"/>
+      <c r="CK113" s="65"/>
+      <c r="CL113" s="65"/>
+      <c r="CM113" s="65"/>
+      <c r="CN113" s="65"/>
+      <c r="CO113" s="65"/>
+      <c r="CP113" s="65"/>
+      <c r="CQ113" s="65"/>
+      <c r="CR113" s="65"/>
+      <c r="CS113" s="65"/>
+      <c r="CT113" s="65"/>
+      <c r="CU113" s="65"/>
+      <c r="CV113" s="65"/>
+      <c r="CW113" s="65"/>
+      <c r="CX113" s="65"/>
+      <c r="CY113" s="65"/>
+      <c r="CZ113" s="65"/>
+      <c r="DA113" s="65"/>
+      <c r="DB113" s="65"/>
+      <c r="DC113" s="65"/>
+      <c r="DD113" s="65"/>
+      <c r="DE113" s="65"/>
+      <c r="DF113" s="65"/>
+      <c r="DG113" s="65"/>
+      <c r="DH113" s="65"/>
+      <c r="DI113" s="65"/>
+      <c r="DJ113" s="65"/>
+      <c r="DK113" s="65"/>
+      <c r="DL113" s="65"/>
+      <c r="DM113" s="65"/>
+      <c r="DN113" s="65"/>
+      <c r="DO113" s="65"/>
+      <c r="DP113" s="65"/>
+      <c r="DQ113" s="65"/>
+      <c r="DR113" s="65"/>
+      <c r="DS113" s="65"/>
+      <c r="DT113" s="65"/>
+      <c r="DU113" s="65"/>
+      <c r="DV113" s="65"/>
+      <c r="DW113" s="65"/>
+      <c r="DX113" s="65"/>
+      <c r="DY113" s="65"/>
+      <c r="DZ113" s="65"/>
+      <c r="EA113" s="65"/>
+      <c r="EB113" s="65"/>
+      <c r="EC113" s="65"/>
+      <c r="ED113" s="65"/>
+      <c r="EE113" s="65"/>
+      <c r="EF113" s="65"/>
+      <c r="EG113" s="65"/>
+      <c r="EH113" s="65"/>
+      <c r="EI113" s="65"/>
+      <c r="EJ113" s="65"/>
+      <c r="EK113" s="65"/>
+      <c r="EL113" s="65"/>
+      <c r="EM113" s="65"/>
+      <c r="EN113" s="65"/>
+      <c r="EO113" s="65"/>
+      <c r="EP113" s="65"/>
+      <c r="EQ113" s="65"/>
+      <c r="ER113" s="65"/>
+      <c r="ES113" s="65"/>
+      <c r="ET113" s="65"/>
+      <c r="EU113" s="65"/>
+      <c r="EV113" s="65"/>
+      <c r="EW113" s="65"/>
+      <c r="EX113" s="65"/>
+      <c r="EY113" s="65"/>
+      <c r="EZ113" s="65"/>
+      <c r="FA113" s="65"/>
+      <c r="FB113" s="65"/>
+      <c r="FC113" s="65"/>
+      <c r="FD113" s="65"/>
+      <c r="FE113" s="65"/>
+      <c r="FF113" s="65"/>
+      <c r="FG113" s="65"/>
+      <c r="FH113" s="65"/>
+      <c r="FI113" s="65"/>
+      <c r="FJ113" s="65"/>
+      <c r="FK113" s="65"/>
+      <c r="FL113" s="65"/>
+      <c r="FM113" s="65"/>
+      <c r="FN113" s="65"/>
+      <c r="FO113" s="65"/>
+      <c r="FP113" s="65"/>
+      <c r="FQ113" s="65"/>
+      <c r="FR113" s="65"/>
+      <c r="FS113" s="65"/>
+      <c r="FT113" s="65"/>
+      <c r="FU113" s="65"/>
+      <c r="FV113" s="65"/>
+      <c r="FW113" s="65"/>
+      <c r="FX113" s="65"/>
+      <c r="FY113" s="65"/>
+      <c r="FZ113" s="65"/>
+      <c r="GA113" s="65"/>
+      <c r="GB113" s="65"/>
+      <c r="GC113" s="65"/>
+      <c r="GD113" s="65"/>
+      <c r="GE113" s="65"/>
+      <c r="GF113" s="65"/>
+      <c r="GG113" s="65"/>
+      <c r="GH113" s="65"/>
+      <c r="GI113" s="65"/>
+      <c r="GJ113" s="65"/>
+      <c r="GK113" s="65"/>
+      <c r="GL113" s="65"/>
+      <c r="GM113" s="65"/>
+      <c r="GN113" s="65"/>
+      <c r="GO113" s="64"/>
     </row>
-    <row r="114" spans="1:197" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="69" t="s">
+    <row r="114" spans="1:197" x14ac:dyDescent="0.3">
+      <c r="A114" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="AX114" s="67"/>
-      <c r="AY114" s="67"/>
-      <c r="AZ114" s="67"/>
-      <c r="BA114" s="67"/>
-      <c r="BB114" s="67"/>
-      <c r="BC114" s="67"/>
-      <c r="BD114" s="67"/>
-      <c r="BE114" s="67"/>
-      <c r="BF114" s="67"/>
-      <c r="BG114" s="67"/>
-      <c r="BH114" s="67"/>
-      <c r="BI114" s="67"/>
-      <c r="BJ114" s="67"/>
-      <c r="BK114" s="67"/>
-      <c r="BL114" s="67"/>
-      <c r="BM114" s="67"/>
-      <c r="BN114" s="67"/>
-      <c r="BO114" s="67"/>
-      <c r="BP114" s="67"/>
-      <c r="BQ114" s="67"/>
-      <c r="BR114" s="67"/>
-      <c r="BS114" s="67"/>
-      <c r="BT114" s="67"/>
-      <c r="BU114" s="67"/>
-      <c r="BV114" s="67"/>
-      <c r="BW114" s="67"/>
-      <c r="BX114" s="67"/>
-      <c r="BY114" s="67"/>
-      <c r="BZ114" s="67"/>
-      <c r="CA114" s="68"/>
-      <c r="CB114" s="68"/>
-      <c r="CC114" s="68"/>
-      <c r="CD114" s="68"/>
-      <c r="CE114" s="68"/>
-      <c r="CF114" s="68"/>
-      <c r="CG114" s="68"/>
-      <c r="CH114" s="68"/>
-      <c r="CI114" s="68"/>
-      <c r="CJ114" s="68"/>
-      <c r="CK114" s="68"/>
-      <c r="CL114" s="68"/>
-      <c r="CM114" s="68"/>
-      <c r="CN114" s="68"/>
-      <c r="CO114" s="68"/>
-      <c r="CP114" s="68"/>
-      <c r="CQ114" s="68"/>
-      <c r="CR114" s="68"/>
-      <c r="CS114" s="68"/>
-      <c r="CT114" s="68"/>
-      <c r="CU114" s="68"/>
-      <c r="CV114" s="68"/>
-      <c r="CW114" s="68"/>
-      <c r="CX114" s="68"/>
-      <c r="CY114" s="68"/>
-      <c r="CZ114" s="68"/>
-      <c r="DA114" s="68"/>
-      <c r="DB114" s="68"/>
-      <c r="DC114" s="68"/>
-      <c r="DD114" s="68"/>
-      <c r="DE114" s="68"/>
-      <c r="DF114" s="68"/>
-      <c r="DG114" s="68"/>
-      <c r="DH114" s="68"/>
-      <c r="DI114" s="68"/>
-      <c r="DJ114" s="68"/>
-      <c r="DK114" s="68"/>
-      <c r="DL114" s="68"/>
-      <c r="DM114" s="68"/>
-      <c r="DN114" s="68"/>
-      <c r="DO114" s="68"/>
-      <c r="DP114" s="68"/>
-      <c r="DQ114" s="68"/>
-      <c r="DR114" s="68"/>
-      <c r="DS114" s="68"/>
-      <c r="DT114" s="68"/>
-      <c r="DU114" s="68"/>
-      <c r="DV114" s="68"/>
-      <c r="DW114" s="68"/>
-      <c r="DX114" s="68"/>
-      <c r="DY114" s="68"/>
-      <c r="DZ114" s="68"/>
-      <c r="EA114" s="68"/>
-      <c r="EB114" s="68"/>
-      <c r="EC114" s="68"/>
-      <c r="ED114" s="68"/>
-      <c r="EE114" s="68"/>
-      <c r="EF114" s="68"/>
-      <c r="EG114" s="68"/>
-      <c r="EH114" s="68"/>
-      <c r="EI114" s="68"/>
-      <c r="EJ114" s="68"/>
-      <c r="EK114" s="68"/>
-      <c r="EL114" s="68"/>
-      <c r="EM114" s="68"/>
-      <c r="EN114" s="68"/>
-      <c r="EO114" s="68"/>
-      <c r="EP114" s="68"/>
-      <c r="EQ114" s="68"/>
-      <c r="ER114" s="68"/>
-      <c r="ES114" s="68"/>
-      <c r="ET114" s="68"/>
-      <c r="EU114" s="68"/>
-      <c r="EV114" s="68"/>
-      <c r="EW114" s="68"/>
-      <c r="EX114" s="68"/>
-      <c r="EY114" s="68"/>
-      <c r="EZ114" s="68"/>
-      <c r="FA114" s="68"/>
-      <c r="FB114" s="68"/>
-      <c r="FC114" s="68"/>
-      <c r="FD114" s="68"/>
-      <c r="FE114" s="68"/>
-      <c r="FF114" s="68"/>
-      <c r="FG114" s="68"/>
-      <c r="FH114" s="68"/>
-      <c r="FI114" s="68"/>
-      <c r="FJ114" s="68"/>
-      <c r="FK114" s="68"/>
-      <c r="FL114" s="68"/>
-      <c r="FM114" s="68"/>
-      <c r="FN114" s="68"/>
-      <c r="FO114" s="68"/>
-      <c r="FP114" s="68"/>
-      <c r="FQ114" s="68"/>
-      <c r="FR114" s="68"/>
-      <c r="FS114" s="68"/>
-      <c r="FT114" s="68"/>
-      <c r="FU114" s="68"/>
-      <c r="FV114" s="68"/>
-      <c r="FW114" s="68"/>
-      <c r="FX114" s="68"/>
-      <c r="FY114" s="68"/>
-      <c r="FZ114" s="68"/>
-      <c r="GA114" s="68"/>
-      <c r="GB114" s="68"/>
-      <c r="GC114" s="68"/>
-      <c r="GD114" s="68"/>
-      <c r="GE114" s="68"/>
-      <c r="GF114" s="68"/>
-      <c r="GG114" s="68"/>
-      <c r="GH114" s="68"/>
-      <c r="GI114" s="68"/>
-      <c r="GJ114" s="68"/>
-      <c r="GK114" s="68"/>
-      <c r="GL114" s="68"/>
-      <c r="GM114" s="68"/>
-      <c r="GN114" s="68"/>
-      <c r="GO114" s="67"/>
+      <c r="AX114" s="64"/>
+      <c r="AY114" s="64"/>
+      <c r="AZ114" s="64"/>
+      <c r="BA114" s="64"/>
+      <c r="BB114" s="64"/>
+      <c r="BC114" s="64"/>
+      <c r="BD114" s="64"/>
+      <c r="BE114" s="64"/>
+      <c r="BF114" s="64"/>
+      <c r="BG114" s="64"/>
+      <c r="BH114" s="64"/>
+      <c r="BI114" s="64"/>
+      <c r="BJ114" s="64"/>
+      <c r="BK114" s="64"/>
+      <c r="BL114" s="64"/>
+      <c r="BM114" s="64"/>
+      <c r="BN114" s="64"/>
+      <c r="BO114" s="64"/>
+      <c r="BP114" s="64"/>
+      <c r="BQ114" s="64"/>
+      <c r="BR114" s="64"/>
+      <c r="BS114" s="64"/>
+      <c r="BT114" s="64"/>
+      <c r="BU114" s="64"/>
+      <c r="BV114" s="64"/>
+      <c r="BW114" s="64"/>
+      <c r="BX114" s="64"/>
+      <c r="BY114" s="64"/>
+      <c r="BZ114" s="64"/>
+      <c r="CA114" s="65"/>
+      <c r="CB114" s="65"/>
+      <c r="CC114" s="65"/>
+      <c r="CD114" s="65"/>
+      <c r="CE114" s="65"/>
+      <c r="CF114" s="65"/>
+      <c r="CG114" s="65"/>
+      <c r="CH114" s="65"/>
+      <c r="CI114" s="65"/>
+      <c r="CJ114" s="65"/>
+      <c r="CK114" s="65"/>
+      <c r="CL114" s="65"/>
+      <c r="CM114" s="65"/>
+      <c r="CN114" s="65"/>
+      <c r="CO114" s="65"/>
+      <c r="CP114" s="65"/>
+      <c r="CQ114" s="65"/>
+      <c r="CR114" s="65"/>
+      <c r="CS114" s="65"/>
+      <c r="CT114" s="65"/>
+      <c r="CU114" s="65"/>
+      <c r="CV114" s="65"/>
+      <c r="CW114" s="65"/>
+      <c r="CX114" s="65"/>
+      <c r="CY114" s="65"/>
+      <c r="CZ114" s="65"/>
+      <c r="DA114" s="65"/>
+      <c r="DB114" s="65"/>
+      <c r="DC114" s="65"/>
+      <c r="DD114" s="65"/>
+      <c r="DE114" s="65"/>
+      <c r="DF114" s="65"/>
+      <c r="DG114" s="65"/>
+      <c r="DH114" s="65"/>
+      <c r="DI114" s="65"/>
+      <c r="DJ114" s="65"/>
+      <c r="DK114" s="65"/>
+      <c r="DL114" s="65"/>
+      <c r="DM114" s="65"/>
+      <c r="DN114" s="65"/>
+      <c r="DO114" s="65"/>
+      <c r="DP114" s="65"/>
+      <c r="DQ114" s="65"/>
+      <c r="DR114" s="65"/>
+      <c r="DS114" s="65"/>
+      <c r="DT114" s="65"/>
+      <c r="DU114" s="65"/>
+      <c r="DV114" s="65"/>
+      <c r="DW114" s="65"/>
+      <c r="DX114" s="65"/>
+      <c r="DY114" s="65"/>
+      <c r="DZ114" s="65"/>
+      <c r="EA114" s="65"/>
+      <c r="EB114" s="65"/>
+      <c r="EC114" s="65"/>
+      <c r="ED114" s="65"/>
+      <c r="EE114" s="65"/>
+      <c r="EF114" s="65"/>
+      <c r="EG114" s="65"/>
+      <c r="EH114" s="65"/>
+      <c r="EI114" s="65"/>
+      <c r="EJ114" s="65"/>
+      <c r="EK114" s="65"/>
+      <c r="EL114" s="65"/>
+      <c r="EM114" s="65"/>
+      <c r="EN114" s="65"/>
+      <c r="EO114" s="65"/>
+      <c r="EP114" s="65"/>
+      <c r="EQ114" s="65"/>
+      <c r="ER114" s="65"/>
+      <c r="ES114" s="65"/>
+      <c r="ET114" s="65"/>
+      <c r="EU114" s="65"/>
+      <c r="EV114" s="65"/>
+      <c r="EW114" s="65"/>
+      <c r="EX114" s="65"/>
+      <c r="EY114" s="65"/>
+      <c r="EZ114" s="65"/>
+      <c r="FA114" s="65"/>
+      <c r="FB114" s="65"/>
+      <c r="FC114" s="65"/>
+      <c r="FD114" s="65"/>
+      <c r="FE114" s="65"/>
+      <c r="FF114" s="65"/>
+      <c r="FG114" s="65"/>
+      <c r="FH114" s="65"/>
+      <c r="FI114" s="65"/>
+      <c r="FJ114" s="65"/>
+      <c r="FK114" s="65"/>
+      <c r="FL114" s="65"/>
+      <c r="FM114" s="65"/>
+      <c r="FN114" s="65"/>
+      <c r="FO114" s="65"/>
+      <c r="FP114" s="65"/>
+      <c r="FQ114" s="65"/>
+      <c r="FR114" s="65"/>
+      <c r="FS114" s="65"/>
+      <c r="FT114" s="65"/>
+      <c r="FU114" s="65"/>
+      <c r="FV114" s="65"/>
+      <c r="FW114" s="65"/>
+      <c r="FX114" s="65"/>
+      <c r="FY114" s="65"/>
+      <c r="FZ114" s="65"/>
+      <c r="GA114" s="65"/>
+      <c r="GB114" s="65"/>
+      <c r="GC114" s="65"/>
+      <c r="GD114" s="65"/>
+      <c r="GE114" s="65"/>
+      <c r="GF114" s="65"/>
+      <c r="GG114" s="65"/>
+      <c r="GH114" s="65"/>
+      <c r="GI114" s="65"/>
+      <c r="GJ114" s="65"/>
+      <c r="GK114" s="65"/>
+      <c r="GL114" s="65"/>
+      <c r="GM114" s="65"/>
+      <c r="GN114" s="65"/>
+      <c r="GO114" s="64"/>
     </row>
-    <row r="115" spans="1:197" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX115" s="67"/>
-      <c r="AY115" s="67"/>
-      <c r="AZ115" s="67"/>
-      <c r="BA115" s="67"/>
-      <c r="BB115" s="67"/>
-      <c r="BC115" s="67"/>
-      <c r="BD115" s="67"/>
-      <c r="BE115" s="67"/>
-      <c r="BF115" s="67"/>
-      <c r="BG115" s="67"/>
-      <c r="BH115" s="67"/>
-      <c r="BI115" s="67"/>
-      <c r="BJ115" s="67"/>
-      <c r="BK115" s="67"/>
-      <c r="BL115" s="67"/>
-      <c r="BM115" s="67"/>
-      <c r="BN115" s="67"/>
-      <c r="BO115" s="67"/>
-      <c r="BP115" s="67"/>
-      <c r="BQ115" s="67"/>
-      <c r="BR115" s="67"/>
-      <c r="BS115" s="67"/>
-      <c r="BT115" s="67"/>
-      <c r="BU115" s="67"/>
-      <c r="BV115" s="67"/>
-      <c r="BW115" s="67"/>
-      <c r="BX115" s="67"/>
-      <c r="BY115" s="67"/>
-      <c r="BZ115" s="67"/>
-      <c r="CA115" s="68"/>
-      <c r="CB115" s="68"/>
-      <c r="CC115" s="68"/>
-      <c r="CD115" s="68"/>
-      <c r="CE115" s="68"/>
-      <c r="CF115" s="68"/>
-      <c r="CG115" s="68"/>
-      <c r="CH115" s="68"/>
-      <c r="CI115" s="68"/>
-      <c r="CJ115" s="68"/>
-      <c r="CK115" s="68"/>
-      <c r="CL115" s="68"/>
-      <c r="CM115" s="68"/>
-      <c r="CN115" s="68"/>
-      <c r="CO115" s="68"/>
-      <c r="CP115" s="68"/>
-      <c r="CQ115" s="68"/>
-      <c r="CR115" s="68"/>
-      <c r="CS115" s="68"/>
-      <c r="CT115" s="68"/>
-      <c r="CU115" s="68"/>
-      <c r="CV115" s="68"/>
-      <c r="CW115" s="68"/>
-      <c r="CX115" s="68"/>
-      <c r="CY115" s="68"/>
-      <c r="CZ115" s="68"/>
-      <c r="DA115" s="68"/>
-      <c r="DB115" s="68"/>
-      <c r="DC115" s="68"/>
-      <c r="DD115" s="68"/>
-      <c r="DE115" s="68"/>
-      <c r="DF115" s="68"/>
-      <c r="DG115" s="68"/>
-      <c r="DH115" s="68"/>
-      <c r="DI115" s="68"/>
-      <c r="DJ115" s="68"/>
-      <c r="DK115" s="68"/>
-      <c r="DL115" s="68"/>
-      <c r="DM115" s="68"/>
-      <c r="DN115" s="68"/>
-      <c r="DO115" s="68"/>
-      <c r="DP115" s="68"/>
-      <c r="DQ115" s="68"/>
-      <c r="DR115" s="68"/>
-      <c r="DS115" s="68"/>
-      <c r="DT115" s="68"/>
-      <c r="DU115" s="68"/>
-      <c r="DV115" s="68"/>
-      <c r="DW115" s="68"/>
-      <c r="DX115" s="68"/>
-      <c r="DY115" s="68"/>
-      <c r="DZ115" s="68"/>
-      <c r="EA115" s="68"/>
-      <c r="EB115" s="68"/>
-      <c r="EC115" s="68"/>
-      <c r="ED115" s="68"/>
-      <c r="EE115" s="68"/>
-      <c r="EF115" s="68"/>
-      <c r="EG115" s="68"/>
-      <c r="EH115" s="68"/>
-      <c r="EI115" s="68"/>
-      <c r="EJ115" s="68"/>
-      <c r="EK115" s="68"/>
-      <c r="EL115" s="68"/>
-      <c r="EM115" s="68"/>
-      <c r="EN115" s="68"/>
-      <c r="EO115" s="68"/>
-      <c r="EP115" s="68"/>
-      <c r="EQ115" s="68"/>
-      <c r="ER115" s="68"/>
-      <c r="ES115" s="68"/>
-      <c r="ET115" s="68"/>
-      <c r="EU115" s="68"/>
-      <c r="EV115" s="68"/>
-      <c r="EW115" s="68"/>
-      <c r="EX115" s="68"/>
-      <c r="EY115" s="68"/>
-      <c r="EZ115" s="68"/>
-      <c r="FA115" s="68"/>
-      <c r="FB115" s="68"/>
-      <c r="FC115" s="68"/>
-      <c r="FD115" s="68"/>
-      <c r="FE115" s="68"/>
-      <c r="FF115" s="68"/>
-      <c r="FG115" s="68"/>
-      <c r="FH115" s="68"/>
-      <c r="FI115" s="68"/>
-      <c r="FJ115" s="68"/>
-      <c r="FK115" s="68"/>
-      <c r="FL115" s="68"/>
-      <c r="FM115" s="68"/>
-      <c r="FN115" s="68"/>
-      <c r="FO115" s="68"/>
-      <c r="FP115" s="68"/>
-      <c r="FQ115" s="68"/>
-      <c r="FR115" s="68"/>
-      <c r="FS115" s="68"/>
-      <c r="FT115" s="68"/>
-      <c r="FU115" s="68"/>
-      <c r="FV115" s="68"/>
-      <c r="FW115" s="68"/>
-      <c r="FX115" s="68"/>
-      <c r="FY115" s="68"/>
-      <c r="FZ115" s="68"/>
-      <c r="GA115" s="68"/>
-      <c r="GB115" s="68"/>
-      <c r="GC115" s="68"/>
-      <c r="GD115" s="68"/>
-      <c r="GE115" s="68"/>
-      <c r="GF115" s="68"/>
-      <c r="GG115" s="68"/>
-      <c r="GH115" s="68"/>
-      <c r="GI115" s="68"/>
-      <c r="GJ115" s="68"/>
-      <c r="GK115" s="68"/>
-      <c r="GL115" s="68"/>
-      <c r="GM115" s="68"/>
-      <c r="GN115" s="68"/>
-      <c r="GO115" s="67"/>
+    <row r="115" spans="1:197" x14ac:dyDescent="0.3">
+      <c r="AX115" s="64"/>
+      <c r="AY115" s="64"/>
+      <c r="AZ115" s="64"/>
+      <c r="BA115" s="64"/>
+      <c r="BB115" s="64"/>
+      <c r="BC115" s="64"/>
+      <c r="BD115" s="64"/>
+      <c r="BE115" s="64"/>
+      <c r="BF115" s="64"/>
+      <c r="BG115" s="64"/>
+      <c r="BH115" s="64"/>
+      <c r="BI115" s="64"/>
+      <c r="BJ115" s="64"/>
+      <c r="BK115" s="64"/>
+      <c r="BL115" s="64"/>
+      <c r="BM115" s="64"/>
+      <c r="BN115" s="64"/>
+      <c r="BO115" s="64"/>
+      <c r="BP115" s="64"/>
+      <c r="BQ115" s="64"/>
+      <c r="BR115" s="64"/>
+      <c r="BS115" s="64"/>
+      <c r="BT115" s="64"/>
+      <c r="BU115" s="64"/>
+      <c r="BV115" s="64"/>
+      <c r="BW115" s="64"/>
+      <c r="BX115" s="64"/>
+      <c r="BY115" s="64"/>
+      <c r="BZ115" s="64"/>
+      <c r="CA115" s="65"/>
+      <c r="CB115" s="65"/>
+      <c r="CC115" s="65"/>
+      <c r="CD115" s="65"/>
+      <c r="CE115" s="65"/>
+      <c r="CF115" s="65"/>
+      <c r="CG115" s="65"/>
+      <c r="CH115" s="65"/>
+      <c r="CI115" s="65"/>
+      <c r="CJ115" s="65"/>
+      <c r="CK115" s="65"/>
+      <c r="CL115" s="65"/>
+      <c r="CM115" s="65"/>
+      <c r="CN115" s="65"/>
+      <c r="CO115" s="65"/>
+      <c r="CP115" s="65"/>
+      <c r="CQ115" s="65"/>
+      <c r="CR115" s="65"/>
+      <c r="CS115" s="65"/>
+      <c r="CT115" s="65"/>
+      <c r="CU115" s="65"/>
+      <c r="CV115" s="65"/>
+      <c r="CW115" s="65"/>
+      <c r="CX115" s="65"/>
+      <c r="CY115" s="65"/>
+      <c r="CZ115" s="65"/>
+      <c r="DA115" s="65"/>
+      <c r="DB115" s="65"/>
+      <c r="DC115" s="65"/>
+      <c r="DD115" s="65"/>
+      <c r="DE115" s="65"/>
+      <c r="DF115" s="65"/>
+      <c r="DG115" s="65"/>
+      <c r="DH115" s="65"/>
+      <c r="DI115" s="65"/>
+      <c r="DJ115" s="65"/>
+      <c r="DK115" s="65"/>
+      <c r="DL115" s="65"/>
+      <c r="DM115" s="65"/>
+      <c r="DN115" s="65"/>
+      <c r="DO115" s="65"/>
+      <c r="DP115" s="65"/>
+      <c r="DQ115" s="65"/>
+      <c r="DR115" s="65"/>
+      <c r="DS115" s="65"/>
+      <c r="DT115" s="65"/>
+      <c r="DU115" s="65"/>
+      <c r="DV115" s="65"/>
+      <c r="DW115" s="65"/>
+      <c r="DX115" s="65"/>
+      <c r="DY115" s="65"/>
+      <c r="DZ115" s="65"/>
+      <c r="EA115" s="65"/>
+      <c r="EB115" s="65"/>
+      <c r="EC115" s="65"/>
+      <c r="ED115" s="65"/>
+      <c r="EE115" s="65"/>
+      <c r="EF115" s="65"/>
+      <c r="EG115" s="65"/>
+      <c r="EH115" s="65"/>
+      <c r="EI115" s="65"/>
+      <c r="EJ115" s="65"/>
+      <c r="EK115" s="65"/>
+      <c r="EL115" s="65"/>
+      <c r="EM115" s="65"/>
+      <c r="EN115" s="65"/>
+      <c r="EO115" s="65"/>
+      <c r="EP115" s="65"/>
+      <c r="EQ115" s="65"/>
+      <c r="ER115" s="65"/>
+      <c r="ES115" s="65"/>
+      <c r="ET115" s="65"/>
+      <c r="EU115" s="65"/>
+      <c r="EV115" s="65"/>
+      <c r="EW115" s="65"/>
+      <c r="EX115" s="65"/>
+      <c r="EY115" s="65"/>
+      <c r="EZ115" s="65"/>
+      <c r="FA115" s="65"/>
+      <c r="FB115" s="65"/>
+      <c r="FC115" s="65"/>
+      <c r="FD115" s="65"/>
+      <c r="FE115" s="65"/>
+      <c r="FF115" s="65"/>
+      <c r="FG115" s="65"/>
+      <c r="FH115" s="65"/>
+      <c r="FI115" s="65"/>
+      <c r="FJ115" s="65"/>
+      <c r="FK115" s="65"/>
+      <c r="FL115" s="65"/>
+      <c r="FM115" s="65"/>
+      <c r="FN115" s="65"/>
+      <c r="FO115" s="65"/>
+      <c r="FP115" s="65"/>
+      <c r="FQ115" s="65"/>
+      <c r="FR115" s="65"/>
+      <c r="FS115" s="65"/>
+      <c r="FT115" s="65"/>
+      <c r="FU115" s="65"/>
+      <c r="FV115" s="65"/>
+      <c r="FW115" s="65"/>
+      <c r="FX115" s="65"/>
+      <c r="FY115" s="65"/>
+      <c r="FZ115" s="65"/>
+      <c r="GA115" s="65"/>
+      <c r="GB115" s="65"/>
+      <c r="GC115" s="65"/>
+      <c r="GD115" s="65"/>
+      <c r="GE115" s="65"/>
+      <c r="GF115" s="65"/>
+      <c r="GG115" s="65"/>
+      <c r="GH115" s="65"/>
+      <c r="GI115" s="65"/>
+      <c r="GJ115" s="65"/>
+      <c r="GK115" s="65"/>
+      <c r="GL115" s="65"/>
+      <c r="GM115" s="65"/>
+      <c r="GN115" s="65"/>
+      <c r="GO115" s="64"/>
     </row>
-    <row r="116" spans="1:197" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX116" s="67"/>
-      <c r="AY116" s="67"/>
-      <c r="AZ116" s="67"/>
-      <c r="BA116" s="67"/>
-      <c r="BB116" s="67"/>
-      <c r="BC116" s="67"/>
-      <c r="BD116" s="67"/>
-      <c r="BE116" s="67"/>
-      <c r="BF116" s="67"/>
-      <c r="BG116" s="67"/>
-      <c r="BH116" s="67"/>
-      <c r="BI116" s="67"/>
-      <c r="BJ116" s="67"/>
-      <c r="BK116" s="67"/>
-      <c r="BL116" s="67"/>
-      <c r="BM116" s="67"/>
-      <c r="BN116" s="67"/>
-      <c r="BO116" s="67"/>
-      <c r="BP116" s="67"/>
-      <c r="BQ116" s="67"/>
-      <c r="BR116" s="67"/>
-      <c r="BS116" s="67"/>
-      <c r="BT116" s="67"/>
-      <c r="BU116" s="67"/>
-      <c r="BV116" s="67"/>
-      <c r="BW116" s="67"/>
-      <c r="BX116" s="67"/>
-      <c r="BY116" s="67"/>
-      <c r="BZ116" s="67"/>
-      <c r="CA116" s="68"/>
-      <c r="CB116" s="68"/>
-      <c r="CC116" s="68"/>
-      <c r="CD116" s="68"/>
-      <c r="CE116" s="68"/>
-      <c r="CF116" s="68"/>
-      <c r="CG116" s="68"/>
-      <c r="CH116" s="68"/>
-      <c r="CI116" s="68"/>
-      <c r="CJ116" s="68"/>
-      <c r="CK116" s="68"/>
-      <c r="CL116" s="68"/>
-      <c r="CM116" s="68"/>
-      <c r="CN116" s="68"/>
-      <c r="CO116" s="68"/>
-      <c r="CP116" s="68"/>
-      <c r="CQ116" s="68"/>
-      <c r="CR116" s="68"/>
-      <c r="CS116" s="68"/>
-      <c r="CT116" s="68"/>
-      <c r="CU116" s="68"/>
-      <c r="CV116" s="68"/>
-      <c r="CW116" s="68"/>
-      <c r="CX116" s="68"/>
-      <c r="CY116" s="68"/>
-      <c r="CZ116" s="68"/>
-      <c r="DA116" s="68"/>
-      <c r="DB116" s="68"/>
-      <c r="DC116" s="68"/>
-      <c r="DD116" s="68"/>
-      <c r="DE116" s="68"/>
-      <c r="DF116" s="68"/>
-      <c r="DG116" s="68"/>
-      <c r="DH116" s="68"/>
-      <c r="DI116" s="68"/>
-      <c r="DJ116" s="68"/>
-      <c r="DK116" s="68"/>
-      <c r="DL116" s="68"/>
-      <c r="DM116" s="68"/>
-      <c r="DN116" s="68"/>
-      <c r="DO116" s="68"/>
-      <c r="DP116" s="68"/>
-      <c r="DQ116" s="68"/>
-      <c r="DR116" s="68"/>
-      <c r="DS116" s="68"/>
-      <c r="DT116" s="68"/>
-      <c r="DU116" s="68"/>
-      <c r="DV116" s="68"/>
-      <c r="DW116" s="68"/>
-      <c r="DX116" s="68"/>
-      <c r="DY116" s="68"/>
-      <c r="DZ116" s="68"/>
-      <c r="EA116" s="68"/>
-      <c r="EB116" s="68"/>
-      <c r="EC116" s="68"/>
-      <c r="ED116" s="68"/>
-      <c r="EE116" s="68"/>
-      <c r="EF116" s="68"/>
-      <c r="EG116" s="68"/>
-      <c r="EH116" s="68"/>
-      <c r="EI116" s="68"/>
-      <c r="EJ116" s="68"/>
-      <c r="EK116" s="68"/>
-      <c r="EL116" s="68"/>
-      <c r="EM116" s="68"/>
-      <c r="EN116" s="68"/>
-      <c r="EO116" s="68"/>
-      <c r="EP116" s="68"/>
-      <c r="EQ116" s="68"/>
-      <c r="ER116" s="68"/>
-      <c r="ES116" s="68"/>
-      <c r="ET116" s="68"/>
-      <c r="EU116" s="68"/>
-      <c r="EV116" s="68"/>
-      <c r="EW116" s="68"/>
-      <c r="EX116" s="68"/>
-      <c r="EY116" s="68"/>
-      <c r="EZ116" s="68"/>
-      <c r="FA116" s="68"/>
-      <c r="FB116" s="68"/>
-      <c r="FC116" s="68"/>
-      <c r="FD116" s="68"/>
-      <c r="FE116" s="68"/>
-      <c r="FF116" s="68"/>
-      <c r="FG116" s="68"/>
-      <c r="FH116" s="68"/>
-      <c r="FI116" s="68"/>
-      <c r="FJ116" s="68"/>
-      <c r="FK116" s="68"/>
-      <c r="FL116" s="68"/>
-      <c r="FM116" s="68"/>
-      <c r="FN116" s="68"/>
-      <c r="FO116" s="68"/>
-      <c r="FP116" s="68"/>
-      <c r="FQ116" s="68"/>
-      <c r="FR116" s="68"/>
-      <c r="FS116" s="68"/>
-      <c r="FT116" s="68"/>
-      <c r="FU116" s="68"/>
-      <c r="FV116" s="68"/>
-      <c r="FW116" s="68"/>
-      <c r="FX116" s="68"/>
-      <c r="FY116" s="68"/>
-      <c r="FZ116" s="68"/>
-      <c r="GA116" s="68"/>
-      <c r="GB116" s="68"/>
-      <c r="GC116" s="68"/>
-      <c r="GD116" s="68"/>
-      <c r="GE116" s="68"/>
-      <c r="GF116" s="68"/>
-      <c r="GG116" s="68"/>
-      <c r="GH116" s="68"/>
-      <c r="GI116" s="68"/>
-      <c r="GJ116" s="68"/>
-      <c r="GK116" s="68"/>
-      <c r="GL116" s="68"/>
-      <c r="GM116" s="68"/>
-      <c r="GN116" s="68"/>
+    <row r="116" spans="1:197" x14ac:dyDescent="0.3">
+      <c r="AX116" s="64"/>
+      <c r="AY116" s="64"/>
+      <c r="AZ116" s="64"/>
+      <c r="BA116" s="64"/>
+      <c r="BB116" s="64"/>
+      <c r="BC116" s="64"/>
+      <c r="BD116" s="64"/>
+      <c r="BE116" s="64"/>
+      <c r="BF116" s="64"/>
+      <c r="BG116" s="64"/>
+      <c r="BH116" s="64"/>
+      <c r="BI116" s="64"/>
+      <c r="BJ116" s="64"/>
+      <c r="BK116" s="64"/>
+      <c r="BL116" s="64"/>
+      <c r="BM116" s="64"/>
+      <c r="BN116" s="64"/>
+      <c r="BO116" s="64"/>
+      <c r="BP116" s="64"/>
+      <c r="BQ116" s="64"/>
+      <c r="BR116" s="64"/>
+      <c r="BS116" s="64"/>
+      <c r="BT116" s="64"/>
+      <c r="BU116" s="64"/>
+      <c r="BV116" s="64"/>
+      <c r="BW116" s="64"/>
+      <c r="BX116" s="64"/>
+      <c r="BY116" s="64"/>
+      <c r="BZ116" s="64"/>
+      <c r="CA116" s="65"/>
+      <c r="CB116" s="65"/>
+      <c r="CC116" s="65"/>
+      <c r="CD116" s="65"/>
+      <c r="CE116" s="65"/>
+      <c r="CF116" s="65"/>
+      <c r="CG116" s="65"/>
+      <c r="CH116" s="65"/>
+      <c r="CI116" s="65"/>
+      <c r="CJ116" s="65"/>
+      <c r="CK116" s="65"/>
+      <c r="CL116" s="65"/>
+      <c r="CM116" s="65"/>
+      <c r="CN116" s="65"/>
+      <c r="CO116" s="65"/>
+      <c r="CP116" s="65"/>
+      <c r="CQ116" s="65"/>
+      <c r="CR116" s="65"/>
+      <c r="CS116" s="65"/>
+      <c r="CT116" s="65"/>
+      <c r="CU116" s="65"/>
+      <c r="CV116" s="65"/>
+      <c r="CW116" s="65"/>
+      <c r="CX116" s="65"/>
+      <c r="CY116" s="65"/>
+      <c r="CZ116" s="65"/>
+      <c r="DA116" s="65"/>
+      <c r="DB116" s="65"/>
+      <c r="DC116" s="65"/>
+      <c r="DD116" s="65"/>
+      <c r="DE116" s="65"/>
+      <c r="DF116" s="65"/>
+      <c r="DG116" s="65"/>
+      <c r="DH116" s="65"/>
+      <c r="DI116" s="65"/>
+      <c r="DJ116" s="65"/>
+      <c r="DK116" s="65"/>
+      <c r="DL116" s="65"/>
+      <c r="DM116" s="65"/>
+      <c r="DN116" s="65"/>
+      <c r="DO116" s="65"/>
+      <c r="DP116" s="65"/>
+      <c r="DQ116" s="65"/>
+      <c r="DR116" s="65"/>
+      <c r="DS116" s="65"/>
+      <c r="DT116" s="65"/>
+      <c r="DU116" s="65"/>
+      <c r="DV116" s="65"/>
+      <c r="DW116" s="65"/>
+      <c r="DX116" s="65"/>
+      <c r="DY116" s="65"/>
+      <c r="DZ116" s="65"/>
+      <c r="EA116" s="65"/>
+      <c r="EB116" s="65"/>
+      <c r="EC116" s="65"/>
+      <c r="ED116" s="65"/>
+      <c r="EE116" s="65"/>
+      <c r="EF116" s="65"/>
+      <c r="EG116" s="65"/>
+      <c r="EH116" s="65"/>
+      <c r="EI116" s="65"/>
+      <c r="EJ116" s="65"/>
+      <c r="EK116" s="65"/>
+      <c r="EL116" s="65"/>
+      <c r="EM116" s="65"/>
+      <c r="EN116" s="65"/>
+      <c r="EO116" s="65"/>
+      <c r="EP116" s="65"/>
+      <c r="EQ116" s="65"/>
+      <c r="ER116" s="65"/>
+      <c r="ES116" s="65"/>
+      <c r="ET116" s="65"/>
+      <c r="EU116" s="65"/>
+      <c r="EV116" s="65"/>
+      <c r="EW116" s="65"/>
+      <c r="EX116" s="65"/>
+      <c r="EY116" s="65"/>
+      <c r="EZ116" s="65"/>
+      <c r="FA116" s="65"/>
+      <c r="FB116" s="65"/>
+      <c r="FC116" s="65"/>
+      <c r="FD116" s="65"/>
+      <c r="FE116" s="65"/>
+      <c r="FF116" s="65"/>
+      <c r="FG116" s="65"/>
+      <c r="FH116" s="65"/>
+      <c r="FI116" s="65"/>
+      <c r="FJ116" s="65"/>
+      <c r="FK116" s="65"/>
+      <c r="FL116" s="65"/>
+      <c r="FM116" s="65"/>
+      <c r="FN116" s="65"/>
+      <c r="FO116" s="65"/>
+      <c r="FP116" s="65"/>
+      <c r="FQ116" s="65"/>
+      <c r="FR116" s="65"/>
+      <c r="FS116" s="65"/>
+      <c r="FT116" s="65"/>
+      <c r="FU116" s="65"/>
+      <c r="FV116" s="65"/>
+      <c r="FW116" s="65"/>
+      <c r="FX116" s="65"/>
+      <c r="FY116" s="65"/>
+      <c r="FZ116" s="65"/>
+      <c r="GA116" s="65"/>
+      <c r="GB116" s="65"/>
+      <c r="GC116" s="65"/>
+      <c r="GD116" s="65"/>
+      <c r="GE116" s="65"/>
+      <c r="GF116" s="65"/>
+      <c r="GG116" s="65"/>
+      <c r="GH116" s="65"/>
+      <c r="GI116" s="65"/>
+      <c r="GJ116" s="65"/>
+      <c r="GK116" s="65"/>
+      <c r="GL116" s="65"/>
+      <c r="GM116" s="65"/>
+      <c r="GN116" s="65"/>
     </row>
-    <row r="117" spans="1:197" x14ac:dyDescent="0.55000000000000004">
-      <c r="CA117" s="68"/>
-      <c r="CB117" s="68"/>
-      <c r="CC117" s="68"/>
-      <c r="CD117" s="68"/>
-      <c r="CE117" s="68"/>
-      <c r="CF117" s="68"/>
-      <c r="CG117" s="68"/>
-      <c r="CH117" s="68"/>
-      <c r="CI117" s="68"/>
-      <c r="CJ117" s="68"/>
-      <c r="CK117" s="68"/>
-      <c r="CL117" s="68"/>
-      <c r="CM117" s="68"/>
-      <c r="CN117" s="68"/>
-      <c r="CO117" s="68"/>
-      <c r="CP117" s="68"/>
-      <c r="CQ117" s="68"/>
-      <c r="CR117" s="68"/>
-      <c r="CS117" s="68"/>
-      <c r="CT117" s="68"/>
-      <c r="CU117" s="68"/>
-      <c r="CV117" s="68"/>
-      <c r="CW117" s="68"/>
-      <c r="CX117" s="68"/>
-      <c r="CY117" s="68"/>
-      <c r="CZ117" s="68"/>
-      <c r="DA117" s="68"/>
-      <c r="DB117" s="68"/>
-      <c r="DC117" s="68"/>
-      <c r="DD117" s="68"/>
-      <c r="DE117" s="68"/>
-      <c r="DF117" s="68"/>
-      <c r="DG117" s="68"/>
-      <c r="DH117" s="68"/>
-      <c r="DI117" s="68"/>
-      <c r="DJ117" s="68"/>
-      <c r="DK117" s="68"/>
-      <c r="DL117" s="68"/>
-      <c r="DM117" s="68"/>
-      <c r="DN117" s="68"/>
-      <c r="DO117" s="68"/>
-      <c r="DP117" s="68"/>
-      <c r="DQ117" s="68"/>
-      <c r="DR117" s="68"/>
-      <c r="DS117" s="68"/>
-      <c r="DT117" s="68"/>
-      <c r="DU117" s="68"/>
-      <c r="DV117" s="68"/>
-      <c r="DW117" s="68"/>
-      <c r="DX117" s="68"/>
-      <c r="DY117" s="68"/>
-      <c r="DZ117" s="68"/>
-      <c r="EA117" s="68"/>
-      <c r="EB117" s="68"/>
-      <c r="EC117" s="68"/>
-      <c r="ED117" s="68"/>
-      <c r="EE117" s="68"/>
-      <c r="EF117" s="68"/>
-      <c r="EG117" s="68"/>
-      <c r="EH117" s="68"/>
-      <c r="EI117" s="68"/>
-      <c r="EJ117" s="68"/>
-      <c r="EK117" s="68"/>
-      <c r="EL117" s="68"/>
-      <c r="EM117" s="68"/>
-      <c r="EN117" s="68"/>
-      <c r="EO117" s="68"/>
-      <c r="EP117" s="68"/>
-      <c r="EQ117" s="68"/>
-      <c r="ER117" s="68"/>
-      <c r="ES117" s="68"/>
-      <c r="ET117" s="68"/>
-      <c r="EU117" s="68"/>
-      <c r="EV117" s="68"/>
-      <c r="EW117" s="68"/>
-      <c r="EX117" s="68"/>
-      <c r="EY117" s="68"/>
-      <c r="EZ117" s="68"/>
-      <c r="FA117" s="68"/>
-      <c r="FB117" s="68"/>
-      <c r="FC117" s="68"/>
-      <c r="FD117" s="68"/>
-      <c r="FE117" s="68"/>
-      <c r="FF117" s="68"/>
-      <c r="FG117" s="68"/>
-      <c r="FH117" s="68"/>
-      <c r="FI117" s="68"/>
-      <c r="FJ117" s="68"/>
-      <c r="FK117" s="68"/>
-      <c r="FL117" s="68"/>
-      <c r="FM117" s="68"/>
-      <c r="FN117" s="68"/>
-      <c r="FO117" s="68"/>
-      <c r="FP117" s="68"/>
-      <c r="FQ117" s="68"/>
-      <c r="FR117" s="68"/>
-      <c r="FS117" s="68"/>
-      <c r="FT117" s="68"/>
-      <c r="FU117" s="68"/>
-      <c r="FV117" s="68"/>
-      <c r="FW117" s="68"/>
-      <c r="FX117" s="68"/>
-      <c r="FY117" s="68"/>
-      <c r="FZ117" s="68"/>
-      <c r="GA117" s="68"/>
-      <c r="GB117" s="68"/>
-      <c r="GC117" s="68"/>
-      <c r="GD117" s="68"/>
-      <c r="GE117" s="68"/>
-      <c r="GF117" s="68"/>
-      <c r="GG117" s="68"/>
-      <c r="GH117" s="68"/>
-      <c r="GI117" s="68"/>
-      <c r="GJ117" s="68"/>
-      <c r="GK117" s="68"/>
-      <c r="GL117" s="68"/>
-      <c r="GM117" s="68"/>
-      <c r="GN117" s="68"/>
+    <row r="117" spans="1:197" x14ac:dyDescent="0.3">
+      <c r="CA117" s="65"/>
+      <c r="CB117" s="65"/>
+      <c r="CC117" s="65"/>
+      <c r="CD117" s="65"/>
+      <c r="CE117" s="65"/>
+      <c r="CF117" s="65"/>
+      <c r="CG117" s="65"/>
+      <c r="CH117" s="65"/>
+      <c r="CI117" s="65"/>
+      <c r="CJ117" s="65"/>
+      <c r="CK117" s="65"/>
+      <c r="CL117" s="65"/>
+      <c r="CM117" s="65"/>
+      <c r="CN117" s="65"/>
+      <c r="CO117" s="65"/>
+      <c r="CP117" s="65"/>
+      <c r="CQ117" s="65"/>
+      <c r="CR117" s="65"/>
+      <c r="CS117" s="65"/>
+      <c r="CT117" s="65"/>
+      <c r="CU117" s="65"/>
+      <c r="CV117" s="65"/>
+      <c r="CW117" s="65"/>
+      <c r="CX117" s="65"/>
+      <c r="CY117" s="65"/>
+      <c r="CZ117" s="65"/>
+      <c r="DA117" s="65"/>
+      <c r="DB117" s="65"/>
+      <c r="DC117" s="65"/>
+      <c r="DD117" s="65"/>
+      <c r="DE117" s="65"/>
+      <c r="DF117" s="65"/>
+      <c r="DG117" s="65"/>
+      <c r="DH117" s="65"/>
+      <c r="DI117" s="65"/>
+      <c r="DJ117" s="65"/>
+      <c r="DK117" s="65"/>
+      <c r="DL117" s="65"/>
+      <c r="DM117" s="65"/>
+      <c r="DN117" s="65"/>
+      <c r="DO117" s="65"/>
+      <c r="DP117" s="65"/>
+      <c r="DQ117" s="65"/>
+      <c r="DR117" s="65"/>
+      <c r="DS117" s="65"/>
+      <c r="DT117" s="65"/>
+      <c r="DU117" s="65"/>
+      <c r="DV117" s="65"/>
+      <c r="DW117" s="65"/>
+      <c r="DX117" s="65"/>
+      <c r="DY117" s="65"/>
+      <c r="DZ117" s="65"/>
+      <c r="EA117" s="65"/>
+      <c r="EB117" s="65"/>
+      <c r="EC117" s="65"/>
+      <c r="ED117" s="65"/>
+      <c r="EE117" s="65"/>
+      <c r="EF117" s="65"/>
+      <c r="EG117" s="65"/>
+      <c r="EH117" s="65"/>
+      <c r="EI117" s="65"/>
+      <c r="EJ117" s="65"/>
+      <c r="EK117" s="65"/>
+      <c r="EL117" s="65"/>
+      <c r="EM117" s="65"/>
+      <c r="EN117" s="65"/>
+      <c r="EO117" s="65"/>
+      <c r="EP117" s="65"/>
+      <c r="EQ117" s="65"/>
+      <c r="ER117" s="65"/>
+      <c r="ES117" s="65"/>
+      <c r="ET117" s="65"/>
+      <c r="EU117" s="65"/>
+      <c r="EV117" s="65"/>
+      <c r="EW117" s="65"/>
+      <c r="EX117" s="65"/>
+      <c r="EY117" s="65"/>
+      <c r="EZ117" s="65"/>
+      <c r="FA117" s="65"/>
+      <c r="FB117" s="65"/>
+      <c r="FC117" s="65"/>
+      <c r="FD117" s="65"/>
+      <c r="FE117" s="65"/>
+      <c r="FF117" s="65"/>
+      <c r="FG117" s="65"/>
+      <c r="FH117" s="65"/>
+      <c r="FI117" s="65"/>
+      <c r="FJ117" s="65"/>
+      <c r="FK117" s="65"/>
+      <c r="FL117" s="65"/>
+      <c r="FM117" s="65"/>
+      <c r="FN117" s="65"/>
+      <c r="FO117" s="65"/>
+      <c r="FP117" s="65"/>
+      <c r="FQ117" s="65"/>
+      <c r="FR117" s="65"/>
+      <c r="FS117" s="65"/>
+      <c r="FT117" s="65"/>
+      <c r="FU117" s="65"/>
+      <c r="FV117" s="65"/>
+      <c r="FW117" s="65"/>
+      <c r="FX117" s="65"/>
+      <c r="FY117" s="65"/>
+      <c r="FZ117" s="65"/>
+      <c r="GA117" s="65"/>
+      <c r="GB117" s="65"/>
+      <c r="GC117" s="65"/>
+      <c r="GD117" s="65"/>
+      <c r="GE117" s="65"/>
+      <c r="GF117" s="65"/>
+      <c r="GG117" s="65"/>
+      <c r="GH117" s="65"/>
+      <c r="GI117" s="65"/>
+      <c r="GJ117" s="65"/>
+      <c r="GK117" s="65"/>
+      <c r="GL117" s="65"/>
+      <c r="GM117" s="65"/>
+      <c r="GN117" s="65"/>
     </row>
-    <row r="118" spans="1:197" x14ac:dyDescent="0.55000000000000004">
-      <c r="CA118" s="68"/>
-      <c r="CB118" s="68"/>
-      <c r="CC118" s="68"/>
-      <c r="CD118" s="68"/>
-      <c r="CE118" s="68"/>
-      <c r="CF118" s="68"/>
-      <c r="CG118" s="68"/>
-      <c r="CH118" s="68"/>
-      <c r="CI118" s="68"/>
-      <c r="CJ118" s="68"/>
-      <c r="CK118" s="68"/>
-      <c r="CL118" s="68"/>
-      <c r="CM118" s="68"/>
-      <c r="CN118" s="68"/>
-      <c r="CO118" s="68"/>
-      <c r="CP118" s="68"/>
-      <c r="CQ118" s="68"/>
-      <c r="CR118" s="68"/>
-      <c r="CS118" s="68"/>
-      <c r="CT118" s="68"/>
-      <c r="CU118" s="68"/>
-      <c r="CV118" s="68"/>
-      <c r="CW118" s="68"/>
-      <c r="CX118" s="68"/>
-      <c r="CY118" s="68"/>
-      <c r="CZ118" s="68"/>
-      <c r="DA118" s="68"/>
-      <c r="DB118" s="68"/>
-      <c r="DC118" s="68"/>
-      <c r="DD118" s="68"/>
-      <c r="DE118" s="68"/>
-      <c r="DF118" s="68"/>
-      <c r="DG118" s="68"/>
-      <c r="DH118" s="68"/>
-      <c r="DI118" s="68"/>
-      <c r="DJ118" s="68"/>
-      <c r="DK118" s="68"/>
-      <c r="DL118" s="68"/>
-      <c r="DM118" s="68"/>
-      <c r="DN118" s="68"/>
-      <c r="DO118" s="68"/>
-      <c r="DP118" s="68"/>
-      <c r="DQ118" s="68"/>
-      <c r="DR118" s="68"/>
-      <c r="DS118" s="68"/>
-      <c r="DT118" s="68"/>
-      <c r="DU118" s="68"/>
-      <c r="DV118" s="68"/>
-      <c r="DW118" s="68"/>
-      <c r="DX118" s="68"/>
-      <c r="DY118" s="68"/>
-      <c r="DZ118" s="68"/>
-      <c r="EA118" s="68"/>
-      <c r="EB118" s="68"/>
-      <c r="EC118" s="68"/>
-      <c r="ED118" s="68"/>
-      <c r="EE118" s="68"/>
-      <c r="EF118" s="68"/>
-      <c r="EG118" s="68"/>
-      <c r="EH118" s="68"/>
-      <c r="EI118" s="68"/>
-      <c r="EJ118" s="68"/>
-      <c r="EK118" s="68"/>
-      <c r="EL118" s="68"/>
-      <c r="EM118" s="68"/>
-      <c r="EN118" s="68"/>
-      <c r="EO118" s="68"/>
-      <c r="EP118" s="68"/>
-      <c r="EQ118" s="68"/>
-      <c r="ER118" s="68"/>
-      <c r="ES118" s="68"/>
-      <c r="ET118" s="68"/>
-      <c r="EU118" s="68"/>
-      <c r="EV118" s="68"/>
-      <c r="EW118" s="68"/>
-      <c r="EX118" s="68"/>
-      <c r="EY118" s="68"/>
-      <c r="EZ118" s="68"/>
-      <c r="FA118" s="68"/>
-      <c r="FB118" s="68"/>
-      <c r="FC118" s="68"/>
-      <c r="FD118" s="68"/>
-      <c r="FE118" s="68"/>
-      <c r="FF118" s="68"/>
-      <c r="FG118" s="68"/>
-      <c r="FH118" s="68"/>
-      <c r="FI118" s="68"/>
-      <c r="FJ118" s="68"/>
-      <c r="FK118" s="68"/>
-      <c r="FL118" s="68"/>
-      <c r="FM118" s="68"/>
-      <c r="FN118" s="68"/>
-      <c r="FO118" s="68"/>
-      <c r="FP118" s="68"/>
-      <c r="FQ118" s="68"/>
-      <c r="FR118" s="68"/>
-      <c r="FS118" s="68"/>
-      <c r="FT118" s="68"/>
-      <c r="FU118" s="68"/>
-      <c r="FV118" s="68"/>
-      <c r="FW118" s="68"/>
-      <c r="FX118" s="68"/>
-      <c r="FY118" s="68"/>
-      <c r="FZ118" s="68"/>
-      <c r="GA118" s="68"/>
-      <c r="GB118" s="68"/>
-      <c r="GC118" s="68"/>
-      <c r="GD118" s="68"/>
-      <c r="GE118" s="68"/>
-      <c r="GF118" s="68"/>
-      <c r="GG118" s="68"/>
-      <c r="GH118" s="68"/>
-      <c r="GI118" s="68"/>
-      <c r="GJ118" s="68"/>
-      <c r="GK118" s="68"/>
-      <c r="GL118" s="68"/>
-      <c r="GM118" s="68"/>
-      <c r="GN118" s="68"/>
+    <row r="118" spans="1:197" x14ac:dyDescent="0.3">
+      <c r="CA118" s="65"/>
+      <c r="CB118" s="65"/>
+      <c r="CC118" s="65"/>
+      <c r="CD118" s="65"/>
+      <c r="CE118" s="65"/>
+      <c r="CF118" s="65"/>
+      <c r="CG118" s="65"/>
+      <c r="CH118" s="65"/>
+      <c r="CI118" s="65"/>
+      <c r="CJ118" s="65"/>
+      <c r="CK118" s="65"/>
+      <c r="CL118" s="65"/>
+      <c r="CM118" s="65"/>
+      <c r="CN118" s="65"/>
+      <c r="CO118" s="65"/>
+      <c r="CP118" s="65"/>
+      <c r="CQ118" s="65"/>
+      <c r="CR118" s="65"/>
+      <c r="CS118" s="65"/>
+      <c r="CT118" s="65"/>
+      <c r="CU118" s="65"/>
+      <c r="CV118" s="65"/>
+      <c r="CW118" s="65"/>
+      <c r="CX118" s="65"/>
+      <c r="CY118" s="65"/>
+      <c r="CZ118" s="65"/>
+      <c r="DA118" s="65"/>
+      <c r="DB118" s="65"/>
+      <c r="DC118" s="65"/>
+      <c r="DD118" s="65"/>
+      <c r="DE118" s="65"/>
+      <c r="DF118" s="65"/>
+      <c r="DG118" s="65"/>
+      <c r="DH118" s="65"/>
+      <c r="DI118" s="65"/>
+      <c r="DJ118" s="65"/>
+      <c r="DK118" s="65"/>
+      <c r="DL118" s="65"/>
+      <c r="DM118" s="65"/>
+      <c r="DN118" s="65"/>
+      <c r="DO118" s="65"/>
+      <c r="DP118" s="65"/>
+      <c r="DQ118" s="65"/>
+      <c r="DR118" s="65"/>
+      <c r="DS118" s="65"/>
+      <c r="DT118" s="65"/>
+      <c r="DU118" s="65"/>
+      <c r="DV118" s="65"/>
+      <c r="DW118" s="65"/>
+      <c r="DX118" s="65"/>
+      <c r="DY118" s="65"/>
+      <c r="DZ118" s="65"/>
+      <c r="EA118" s="65"/>
+      <c r="EB118" s="65"/>
+      <c r="EC118" s="65"/>
+      <c r="ED118" s="65"/>
+      <c r="EE118" s="65"/>
+      <c r="EF118" s="65"/>
+      <c r="EG118" s="65"/>
+      <c r="EH118" s="65"/>
+      <c r="EI118" s="65"/>
+      <c r="EJ118" s="65"/>
+      <c r="EK118" s="65"/>
+      <c r="EL118" s="65"/>
+      <c r="EM118" s="65"/>
+      <c r="EN118" s="65"/>
+      <c r="EO118" s="65"/>
+      <c r="EP118" s="65"/>
+      <c r="EQ118" s="65"/>
+      <c r="ER118" s="65"/>
+      <c r="ES118" s="65"/>
+      <c r="ET118" s="65"/>
+      <c r="EU118" s="65"/>
+      <c r="EV118" s="65"/>
+      <c r="EW118" s="65"/>
+      <c r="EX118" s="65"/>
+      <c r="EY118" s="65"/>
+      <c r="EZ118" s="65"/>
+      <c r="FA118" s="65"/>
+      <c r="FB118" s="65"/>
+      <c r="FC118" s="65"/>
+      <c r="FD118" s="65"/>
+      <c r="FE118" s="65"/>
+      <c r="FF118" s="65"/>
+      <c r="FG118" s="65"/>
+      <c r="FH118" s="65"/>
+      <c r="FI118" s="65"/>
+      <c r="FJ118" s="65"/>
+      <c r="FK118" s="65"/>
+      <c r="FL118" s="65"/>
+      <c r="FM118" s="65"/>
+      <c r="FN118" s="65"/>
+      <c r="FO118" s="65"/>
+      <c r="FP118" s="65"/>
+      <c r="FQ118" s="65"/>
+      <c r="FR118" s="65"/>
+      <c r="FS118" s="65"/>
+      <c r="FT118" s="65"/>
+      <c r="FU118" s="65"/>
+      <c r="FV118" s="65"/>
+      <c r="FW118" s="65"/>
+      <c r="FX118" s="65"/>
+      <c r="FY118" s="65"/>
+      <c r="FZ118" s="65"/>
+      <c r="GA118" s="65"/>
+      <c r="GB118" s="65"/>
+      <c r="GC118" s="65"/>
+      <c r="GD118" s="65"/>
+      <c r="GE118" s="65"/>
+      <c r="GF118" s="65"/>
+      <c r="GG118" s="65"/>
+      <c r="GH118" s="65"/>
+      <c r="GI118" s="65"/>
+      <c r="GJ118" s="65"/>
+      <c r="GK118" s="65"/>
+      <c r="GL118" s="65"/>
+      <c r="GM118" s="65"/>
+      <c r="GN118" s="65"/>
     </row>
-    <row r="119" spans="1:197" x14ac:dyDescent="0.55000000000000004">
-      <c r="CA119" s="68"/>
-      <c r="CB119" s="68"/>
-      <c r="CC119" s="68"/>
-      <c r="CD119" s="68"/>
-      <c r="CE119" s="68"/>
-      <c r="CF119" s="68"/>
-      <c r="CG119" s="68"/>
-      <c r="CH119" s="68"/>
-      <c r="CI119" s="68"/>
-      <c r="CJ119" s="68"/>
-      <c r="CK119" s="68"/>
-      <c r="CL119" s="68"/>
-      <c r="CM119" s="68"/>
-      <c r="CN119" s="68"/>
-      <c r="CO119" s="68"/>
-      <c r="CP119" s="68"/>
-      <c r="CQ119" s="68"/>
-      <c r="CR119" s="68"/>
-      <c r="CS119" s="68"/>
-      <c r="CT119" s="68"/>
-      <c r="CU119" s="68"/>
-      <c r="CV119" s="68"/>
-      <c r="CW119" s="68"/>
-      <c r="CX119" s="68"/>
-      <c r="CY119" s="68"/>
-      <c r="CZ119" s="68"/>
-      <c r="DA119" s="68"/>
-      <c r="DB119" s="68"/>
-      <c r="DC119" s="68"/>
-      <c r="DD119" s="68"/>
-      <c r="DE119" s="68"/>
-      <c r="DF119" s="68"/>
-      <c r="DG119" s="68"/>
-      <c r="DH119" s="68"/>
-      <c r="DI119" s="68"/>
-      <c r="DJ119" s="68"/>
-      <c r="DK119" s="68"/>
-      <c r="DL119" s="68"/>
-      <c r="DM119" s="68"/>
-      <c r="DN119" s="68"/>
-      <c r="DO119" s="68"/>
-      <c r="DP119" s="68"/>
-      <c r="DQ119" s="68"/>
-      <c r="DR119" s="68"/>
-      <c r="DS119" s="68"/>
-      <c r="DT119" s="68"/>
-      <c r="DU119" s="68"/>
-      <c r="DV119" s="68"/>
-      <c r="DW119" s="68"/>
-      <c r="DX119" s="68"/>
-      <c r="DY119" s="68"/>
-      <c r="DZ119" s="68"/>
-      <c r="EA119" s="68"/>
-      <c r="EB119" s="68"/>
-      <c r="EC119" s="68"/>
-      <c r="ED119" s="68"/>
-      <c r="EE119" s="68"/>
-      <c r="EF119" s="68"/>
-      <c r="EG119" s="68"/>
-      <c r="EH119" s="68"/>
-      <c r="EI119" s="68"/>
-      <c r="EJ119" s="68"/>
-      <c r="EK119" s="68"/>
-      <c r="EL119" s="68"/>
-      <c r="EM119" s="68"/>
-      <c r="EN119" s="68"/>
-      <c r="EO119" s="68"/>
-      <c r="EP119" s="68"/>
-      <c r="EQ119" s="68"/>
-      <c r="ER119" s="68"/>
-      <c r="ES119" s="68"/>
-      <c r="ET119" s="68"/>
-      <c r="EU119" s="68"/>
-      <c r="EV119" s="68"/>
-      <c r="EW119" s="68"/>
-      <c r="EX119" s="68"/>
-      <c r="EY119" s="68"/>
-      <c r="EZ119" s="68"/>
-      <c r="FA119" s="68"/>
-      <c r="FB119" s="68"/>
-      <c r="FC119" s="68"/>
-      <c r="FD119" s="68"/>
-      <c r="FE119" s="68"/>
-      <c r="FF119" s="68"/>
-      <c r="FG119" s="68"/>
-      <c r="FH119" s="68"/>
-      <c r="FI119" s="68"/>
-      <c r="FJ119" s="68"/>
-      <c r="FK119" s="68"/>
-      <c r="FL119" s="68"/>
-      <c r="FM119" s="68"/>
-      <c r="FN119" s="68"/>
-      <c r="FO119" s="68"/>
-      <c r="FP119" s="68"/>
-      <c r="FQ119" s="68"/>
-      <c r="FR119" s="68"/>
-      <c r="FS119" s="68"/>
-      <c r="FT119" s="68"/>
-      <c r="FU119" s="68"/>
-      <c r="FV119" s="68"/>
-      <c r="FW119" s="68"/>
-      <c r="FX119" s="68"/>
-      <c r="FY119" s="68"/>
-      <c r="FZ119" s="68"/>
-      <c r="GA119" s="68"/>
-      <c r="GB119" s="68"/>
-      <c r="GC119" s="68"/>
-      <c r="GD119" s="68"/>
-      <c r="GE119" s="68"/>
-      <c r="GF119" s="68"/>
-      <c r="GG119" s="68"/>
-      <c r="GH119" s="68"/>
-      <c r="GI119" s="68"/>
-      <c r="GJ119" s="68"/>
-      <c r="GK119" s="68"/>
-      <c r="GL119" s="68"/>
-      <c r="GM119" s="68"/>
-      <c r="GN119" s="68"/>
+    <row r="119" spans="1:197" x14ac:dyDescent="0.3">
+      <c r="CA119" s="65"/>
+      <c r="CB119" s="65"/>
+      <c r="CC119" s="65"/>
+      <c r="CD119" s="65"/>
+      <c r="CE119" s="65"/>
+      <c r="CF119" s="65"/>
+      <c r="CG119" s="65"/>
+      <c r="CH119" s="65"/>
+      <c r="CI119" s="65"/>
+      <c r="CJ119" s="65"/>
+      <c r="CK119" s="65"/>
+      <c r="CL119" s="65"/>
+      <c r="CM119" s="65"/>
+      <c r="CN119" s="65"/>
+      <c r="CO119" s="65"/>
+      <c r="CP119" s="65"/>
+      <c r="CQ119" s="65"/>
+      <c r="CR119" s="65"/>
+      <c r="CS119" s="65"/>
+      <c r="CT119" s="65"/>
+      <c r="CU119" s="65"/>
+      <c r="CV119" s="65"/>
+      <c r="CW119" s="65"/>
+      <c r="CX119" s="65"/>
+      <c r="CY119" s="65"/>
+      <c r="CZ119" s="65"/>
+      <c r="DA119" s="65"/>
+      <c r="DB119" s="65"/>
+      <c r="DC119" s="65"/>
+      <c r="DD119" s="65"/>
+      <c r="DE119" s="65"/>
+      <c r="DF119" s="65"/>
+      <c r="DG119" s="65"/>
+      <c r="DH119" s="65"/>
+      <c r="DI119" s="65"/>
+      <c r="DJ119" s="65"/>
+      <c r="DK119" s="65"/>
+      <c r="DL119" s="65"/>
+      <c r="DM119" s="65"/>
+      <c r="DN119" s="65"/>
+      <c r="DO119" s="65"/>
+      <c r="DP119" s="65"/>
+      <c r="DQ119" s="65"/>
+      <c r="DR119" s="65"/>
+      <c r="DS119" s="65"/>
+      <c r="DT119" s="65"/>
+      <c r="DU119" s="65"/>
+      <c r="DV119" s="65"/>
+      <c r="DW119" s="65"/>
+      <c r="DX119" s="65"/>
+      <c r="DY119" s="65"/>
+      <c r="DZ119" s="65"/>
+      <c r="EA119" s="65"/>
+      <c r="EB119" s="65"/>
+      <c r="EC119" s="65"/>
+      <c r="ED119" s="65"/>
+      <c r="EE119" s="65"/>
+      <c r="EF119" s="65"/>
+      <c r="EG119" s="65"/>
+      <c r="EH119" s="65"/>
+      <c r="EI119" s="65"/>
+      <c r="EJ119" s="65"/>
+      <c r="EK119" s="65"/>
+      <c r="EL119" s="65"/>
+      <c r="EM119" s="65"/>
+      <c r="EN119" s="65"/>
+      <c r="EO119" s="65"/>
+      <c r="EP119" s="65"/>
+      <c r="EQ119" s="65"/>
+      <c r="ER119" s="65"/>
+      <c r="ES119" s="65"/>
+      <c r="ET119" s="65"/>
+      <c r="EU119" s="65"/>
+      <c r="EV119" s="65"/>
+      <c r="EW119" s="65"/>
+      <c r="EX119" s="65"/>
+      <c r="EY119" s="65"/>
+      <c r="EZ119" s="65"/>
+      <c r="FA119" s="65"/>
+      <c r="FB119" s="65"/>
+      <c r="FC119" s="65"/>
+      <c r="FD119" s="65"/>
+      <c r="FE119" s="65"/>
+      <c r="FF119" s="65"/>
+      <c r="FG119" s="65"/>
+      <c r="FH119" s="65"/>
+      <c r="FI119" s="65"/>
+      <c r="FJ119" s="65"/>
+      <c r="FK119" s="65"/>
+      <c r="FL119" s="65"/>
+      <c r="FM119" s="65"/>
+      <c r="FN119" s="65"/>
+      <c r="FO119" s="65"/>
+      <c r="FP119" s="65"/>
+      <c r="FQ119" s="65"/>
+      <c r="FR119" s="65"/>
+      <c r="FS119" s="65"/>
+      <c r="FT119" s="65"/>
+      <c r="FU119" s="65"/>
+      <c r="FV119" s="65"/>
+      <c r="FW119" s="65"/>
+      <c r="FX119" s="65"/>
+      <c r="FY119" s="65"/>
+      <c r="FZ119" s="65"/>
+      <c r="GA119" s="65"/>
+      <c r="GB119" s="65"/>
+      <c r="GC119" s="65"/>
+      <c r="GD119" s="65"/>
+      <c r="GE119" s="65"/>
+      <c r="GF119" s="65"/>
+      <c r="GG119" s="65"/>
+      <c r="GH119" s="65"/>
+      <c r="GI119" s="65"/>
+      <c r="GJ119" s="65"/>
+      <c r="GK119" s="65"/>
+      <c r="GL119" s="65"/>
+      <c r="GM119" s="65"/>
+      <c r="GN119" s="65"/>
     </row>
-    <row r="120" spans="1:197" x14ac:dyDescent="0.55000000000000004">
-      <c r="CA120" s="68"/>
-      <c r="CB120" s="68"/>
-      <c r="CC120" s="68"/>
-      <c r="CD120" s="68"/>
-      <c r="CE120" s="68"/>
-      <c r="CF120" s="68"/>
-      <c r="CG120" s="68"/>
-      <c r="CH120" s="68"/>
-      <c r="CI120" s="68"/>
-      <c r="CJ120" s="68"/>
-      <c r="CK120" s="68"/>
-      <c r="CL120" s="68"/>
-      <c r="CM120" s="68"/>
-      <c r="CN120" s="68"/>
-      <c r="CO120" s="68"/>
-      <c r="CP120" s="68"/>
-      <c r="CQ120" s="68"/>
-      <c r="CR120" s="68"/>
-      <c r="CS120" s="68"/>
-      <c r="CT120" s="68"/>
-      <c r="CU120" s="68"/>
-      <c r="CV120" s="68"/>
-      <c r="CW120" s="68"/>
-      <c r="CX120" s="68"/>
-      <c r="CY120" s="68"/>
-      <c r="CZ120" s="68"/>
-      <c r="DA120" s="68"/>
-      <c r="DB120" s="68"/>
-      <c r="DC120" s="68"/>
-      <c r="DD120" s="68"/>
-      <c r="DE120" s="68"/>
-      <c r="DF120" s="68"/>
-      <c r="DG120" s="68"/>
-      <c r="DH120" s="68"/>
-      <c r="DI120" s="68"/>
-      <c r="DJ120" s="68"/>
-      <c r="DK120" s="68"/>
-      <c r="DL120" s="68"/>
-      <c r="DM120" s="68"/>
-      <c r="DN120" s="68"/>
-      <c r="DO120" s="68"/>
-      <c r="DP120" s="68"/>
-      <c r="DQ120" s="68"/>
-      <c r="DR120" s="68"/>
-      <c r="DS120" s="68"/>
-      <c r="DT120" s="68"/>
-      <c r="DU120" s="68"/>
-      <c r="DV120" s="68"/>
-      <c r="DW120" s="68"/>
-      <c r="DX120" s="68"/>
-      <c r="DY120" s="68"/>
-      <c r="DZ120" s="68"/>
-      <c r="EA120" s="68"/>
-      <c r="EB120" s="68"/>
-      <c r="EC120" s="68"/>
-      <c r="ED120" s="68"/>
-      <c r="EE120" s="68"/>
-      <c r="EF120" s="68"/>
-      <c r="EG120" s="68"/>
-      <c r="EH120" s="68"/>
-      <c r="EI120" s="68"/>
-      <c r="EJ120" s="68"/>
-      <c r="EK120" s="68"/>
-      <c r="EL120" s="68"/>
-      <c r="EM120" s="68"/>
-      <c r="EN120" s="68"/>
-      <c r="EO120" s="68"/>
-      <c r="EP120" s="68"/>
-      <c r="EQ120" s="68"/>
-      <c r="ER120" s="68"/>
-      <c r="ES120" s="68"/>
-      <c r="ET120" s="68"/>
-      <c r="EU120" s="68"/>
-      <c r="EV120" s="68"/>
-      <c r="EW120" s="68"/>
-      <c r="EX120" s="68"/>
-      <c r="EY120" s="68"/>
-      <c r="EZ120" s="68"/>
-      <c r="FA120" s="68"/>
-      <c r="FB120" s="68"/>
-      <c r="FC120" s="68"/>
-      <c r="FD120" s="68"/>
-      <c r="FE120" s="68"/>
-      <c r="FF120" s="68"/>
-      <c r="FG120" s="68"/>
-      <c r="FH120" s="68"/>
-      <c r="FI120" s="68"/>
-      <c r="FJ120" s="68"/>
-      <c r="FK120" s="68"/>
-      <c r="FL120" s="68"/>
-      <c r="FM120" s="68"/>
-      <c r="FN120" s="68"/>
-      <c r="FO120" s="68"/>
-      <c r="FP120" s="68"/>
-      <c r="FQ120" s="68"/>
-      <c r="FR120" s="68"/>
-      <c r="FS120" s="68"/>
-      <c r="FT120" s="68"/>
-      <c r="FU120" s="68"/>
-      <c r="FV120" s="68"/>
-      <c r="FW120" s="68"/>
-      <c r="FX120" s="68"/>
-      <c r="FY120" s="68"/>
-      <c r="FZ120" s="68"/>
-      <c r="GA120" s="68"/>
-      <c r="GB120" s="68"/>
-      <c r="GC120" s="68"/>
-      <c r="GD120" s="68"/>
-      <c r="GE120" s="68"/>
-      <c r="GF120" s="68"/>
-      <c r="GG120" s="68"/>
-      <c r="GH120" s="68"/>
-      <c r="GI120" s="68"/>
-      <c r="GJ120" s="68"/>
-      <c r="GK120" s="68"/>
-      <c r="GL120" s="68"/>
-      <c r="GM120" s="68"/>
-      <c r="GN120" s="68"/>
+    <row r="120" spans="1:197" x14ac:dyDescent="0.3">
+      <c r="CA120" s="65"/>
+      <c r="CB120" s="65"/>
+      <c r="CC120" s="65"/>
+      <c r="CD120" s="65"/>
+      <c r="CE120" s="65"/>
+      <c r="CF120" s="65"/>
+      <c r="CG120" s="65"/>
+      <c r="CH120" s="65"/>
+      <c r="CI120" s="65"/>
+      <c r="CJ120" s="65"/>
+      <c r="CK120" s="65"/>
+      <c r="CL120" s="65"/>
+      <c r="CM120" s="65"/>
+      <c r="CN120" s="65"/>
+      <c r="CO120" s="65"/>
+      <c r="CP120" s="65"/>
+      <c r="CQ120" s="65"/>
+      <c r="CR120" s="65"/>
+      <c r="CS120" s="65"/>
+      <c r="CT120" s="65"/>
+      <c r="CU120" s="65"/>
+      <c r="CV120" s="65"/>
+      <c r="CW120" s="65"/>
+      <c r="CX120" s="65"/>
+      <c r="CY120" s="65"/>
+      <c r="CZ120" s="65"/>
+      <c r="DA120" s="65"/>
+      <c r="DB120" s="65"/>
+      <c r="DC120" s="65"/>
+      <c r="DD120" s="65"/>
+      <c r="DE120" s="65"/>
+      <c r="DF120" s="65"/>
+      <c r="DG120" s="65"/>
+      <c r="DH120" s="65"/>
+      <c r="DI120" s="65"/>
+      <c r="DJ120" s="65"/>
+      <c r="DK120" s="65"/>
+      <c r="DL120" s="65"/>
+      <c r="DM120" s="65"/>
+      <c r="DN120" s="65"/>
+      <c r="DO120" s="65"/>
+      <c r="DP120" s="65"/>
+      <c r="DQ120" s="65"/>
+      <c r="DR120" s="65"/>
+      <c r="DS120" s="65"/>
+      <c r="DT120" s="65"/>
+      <c r="DU120" s="65"/>
+      <c r="DV120" s="65"/>
+      <c r="DW120" s="65"/>
+      <c r="DX120" s="65"/>
+      <c r="DY120" s="65"/>
+      <c r="DZ120" s="65"/>
+      <c r="EA120" s="65"/>
+      <c r="EB120" s="65"/>
+      <c r="EC120" s="65"/>
+      <c r="ED120" s="65"/>
+      <c r="EE120" s="65"/>
+      <c r="EF120" s="65"/>
+      <c r="EG120" s="65"/>
+      <c r="EH120" s="65"/>
+      <c r="EI120" s="65"/>
+      <c r="EJ120" s="65"/>
+      <c r="EK120" s="65"/>
+      <c r="EL120" s="65"/>
+      <c r="EM120" s="65"/>
+      <c r="EN120" s="65"/>
+      <c r="EO120" s="65"/>
+      <c r="EP120" s="65"/>
+      <c r="EQ120" s="65"/>
+      <c r="ER120" s="65"/>
+      <c r="ES120" s="65"/>
+      <c r="ET120" s="65"/>
+      <c r="EU120" s="65"/>
+      <c r="EV120" s="65"/>
+      <c r="EW120" s="65"/>
+      <c r="EX120" s="65"/>
+      <c r="EY120" s="65"/>
+      <c r="EZ120" s="65"/>
+      <c r="FA120" s="65"/>
+      <c r="FB120" s="65"/>
+      <c r="FC120" s="65"/>
+      <c r="FD120" s="65"/>
+      <c r="FE120" s="65"/>
+      <c r="FF120" s="65"/>
+      <c r="FG120" s="65"/>
+      <c r="FH120" s="65"/>
+      <c r="FI120" s="65"/>
+      <c r="FJ120" s="65"/>
+      <c r="FK120" s="65"/>
+      <c r="FL120" s="65"/>
+      <c r="FM120" s="65"/>
+      <c r="FN120" s="65"/>
+      <c r="FO120" s="65"/>
+      <c r="FP120" s="65"/>
+      <c r="FQ120" s="65"/>
+      <c r="FR120" s="65"/>
+      <c r="FS120" s="65"/>
+      <c r="FT120" s="65"/>
+      <c r="FU120" s="65"/>
+      <c r="FV120" s="65"/>
+      <c r="FW120" s="65"/>
+      <c r="FX120" s="65"/>
+      <c r="FY120" s="65"/>
+      <c r="FZ120" s="65"/>
+      <c r="GA120" s="65"/>
+      <c r="GB120" s="65"/>
+      <c r="GC120" s="65"/>
+      <c r="GD120" s="65"/>
+      <c r="GE120" s="65"/>
+      <c r="GF120" s="65"/>
+      <c r="GG120" s="65"/>
+      <c r="GH120" s="65"/>
+      <c r="GI120" s="65"/>
+      <c r="GJ120" s="65"/>
+      <c r="GK120" s="65"/>
+      <c r="GL120" s="65"/>
+      <c r="GM120" s="65"/>
+      <c r="GN120" s="65"/>
     </row>
-    <row r="121" spans="1:197" x14ac:dyDescent="0.55000000000000004">
-      <c r="CA121" s="68"/>
-      <c r="CB121" s="68"/>
-      <c r="CC121" s="68"/>
-      <c r="CD121" s="68"/>
-      <c r="CE121" s="68"/>
-      <c r="CF121" s="68"/>
-      <c r="CG121" s="68"/>
-      <c r="CH121" s="68"/>
-      <c r="CI121" s="68"/>
-      <c r="CJ121" s="68"/>
-      <c r="CK121" s="68"/>
-      <c r="CL121" s="68"/>
-      <c r="CM121" s="68"/>
-      <c r="CN121" s="68"/>
-      <c r="CO121" s="68"/>
-      <c r="CP121" s="68"/>
-      <c r="CQ121" s="68"/>
-      <c r="CR121" s="68"/>
-      <c r="CS121" s="68"/>
-      <c r="CT121" s="68"/>
-      <c r="CU121" s="68"/>
-      <c r="CV121" s="68"/>
-      <c r="CW121" s="68"/>
-      <c r="CX121" s="68"/>
-      <c r="CY121" s="68"/>
-      <c r="CZ121" s="68"/>
-      <c r="DA121" s="68"/>
-      <c r="DB121" s="68"/>
-      <c r="DC121" s="68"/>
-      <c r="DD121" s="68"/>
-      <c r="DE121" s="68"/>
-      <c r="DF121" s="68"/>
-      <c r="DG121" s="68"/>
-      <c r="DH121" s="68"/>
-      <c r="DI121" s="68"/>
-      <c r="DJ121" s="68"/>
-      <c r="DK121" s="68"/>
-      <c r="DL121" s="68"/>
-      <c r="DM121" s="68"/>
-      <c r="DN121" s="68"/>
-      <c r="DO121" s="68"/>
-      <c r="DP121" s="68"/>
-      <c r="DQ121" s="68"/>
-      <c r="DR121" s="68"/>
-      <c r="DS121" s="68"/>
-      <c r="DT121" s="68"/>
-      <c r="DU121" s="68"/>
-      <c r="DV121" s="68"/>
-      <c r="DW121" s="68"/>
-      <c r="DX121" s="68"/>
-      <c r="DY121" s="68"/>
-      <c r="DZ121" s="68"/>
-      <c r="EA121" s="68"/>
-      <c r="EB121" s="68"/>
-      <c r="EC121" s="68"/>
-      <c r="ED121" s="68"/>
-      <c r="EE121" s="68"/>
-      <c r="EF121" s="68"/>
-      <c r="EG121" s="68"/>
-      <c r="EH121" s="68"/>
-      <c r="EI121" s="68"/>
-      <c r="EJ121" s="68"/>
-      <c r="EK121" s="68"/>
-      <c r="EL121" s="68"/>
-      <c r="EM121" s="68"/>
-      <c r="EN121" s="68"/>
-      <c r="EO121" s="68"/>
-      <c r="EP121" s="68"/>
-      <c r="EQ121" s="68"/>
-      <c r="ER121" s="68"/>
-      <c r="ES121" s="68"/>
-      <c r="ET121" s="68"/>
-      <c r="EU121" s="68"/>
-      <c r="EV121" s="68"/>
-      <c r="EW121" s="68"/>
-      <c r="EX121" s="68"/>
-      <c r="EY121" s="68"/>
-      <c r="EZ121" s="68"/>
-      <c r="FA121" s="68"/>
-      <c r="FB121" s="68"/>
-      <c r="FC121" s="68"/>
-      <c r="FD121" s="68"/>
-      <c r="FE121" s="68"/>
-      <c r="FF121" s="68"/>
-      <c r="FG121" s="68"/>
-      <c r="FH121" s="68"/>
-      <c r="FI121" s="68"/>
-      <c r="FJ121" s="68"/>
-      <c r="FK121" s="68"/>
-      <c r="FL121" s="68"/>
-      <c r="FM121" s="68"/>
-      <c r="FN121" s="68"/>
-      <c r="FO121" s="68"/>
-      <c r="FP121" s="68"/>
-      <c r="FQ121" s="68"/>
-      <c r="FR121" s="68"/>
-      <c r="FS121" s="68"/>
-      <c r="FT121" s="68"/>
-      <c r="FU121" s="68"/>
-      <c r="FV121" s="68"/>
-      <c r="FW121" s="68"/>
-      <c r="FX121" s="68"/>
-      <c r="FY121" s="68"/>
-      <c r="FZ121" s="68"/>
-      <c r="GA121" s="68"/>
-      <c r="GB121" s="68"/>
-      <c r="GC121" s="68"/>
-      <c r="GD121" s="68"/>
-      <c r="GE121" s="68"/>
-      <c r="GF121" s="68"/>
-      <c r="GG121" s="68"/>
-      <c r="GH121" s="68"/>
-      <c r="GI121" s="68"/>
-      <c r="GJ121" s="68"/>
-      <c r="GK121" s="68"/>
-      <c r="GL121" s="68"/>
-      <c r="GM121" s="68"/>
-      <c r="GN121" s="68"/>
+    <row r="121" spans="1:197" x14ac:dyDescent="0.3">
+      <c r="CA121" s="65"/>
+      <c r="CB121" s="65"/>
+      <c r="CC121" s="65"/>
+      <c r="CD121" s="65"/>
+      <c r="CE121" s="65"/>
+      <c r="CF121" s="65"/>
+      <c r="CG121" s="65"/>
+      <c r="CH121" s="65"/>
+      <c r="CI121" s="65"/>
+      <c r="CJ121" s="65"/>
+      <c r="CK121" s="65"/>
+      <c r="CL121" s="65"/>
+      <c r="CM121" s="65"/>
+      <c r="CN121" s="65"/>
+      <c r="CO121" s="65"/>
+      <c r="CP121" s="65"/>
+      <c r="CQ121" s="65"/>
+      <c r="CR121" s="65"/>
+      <c r="CS121" s="65"/>
+      <c r="CT121" s="65"/>
+      <c r="CU121" s="65"/>
+      <c r="CV121" s="65"/>
+      <c r="CW121" s="65"/>
+      <c r="CX121" s="65"/>
+      <c r="CY121" s="65"/>
+      <c r="CZ121" s="65"/>
+      <c r="DA121" s="65"/>
+      <c r="DB121" s="65"/>
+      <c r="DC121" s="65"/>
+      <c r="DD121" s="65"/>
+      <c r="DE121" s="65"/>
+      <c r="DF121" s="65"/>
+      <c r="DG121" s="65"/>
+      <c r="DH121" s="65"/>
+      <c r="DI121" s="65"/>
+      <c r="DJ121" s="65"/>
+      <c r="DK121" s="65"/>
+      <c r="DL121" s="65"/>
+      <c r="DM121" s="65"/>
+      <c r="DN121" s="65"/>
+      <c r="DO121" s="65"/>
+      <c r="DP121" s="65"/>
+      <c r="DQ121" s="65"/>
+      <c r="DR121" s="65"/>
+      <c r="DS121" s="65"/>
+      <c r="DT121" s="65"/>
+      <c r="DU121" s="65"/>
+      <c r="DV121" s="65"/>
+      <c r="DW121" s="65"/>
+      <c r="DX121" s="65"/>
+      <c r="DY121" s="65"/>
+      <c r="DZ121" s="65"/>
+      <c r="EA121" s="65"/>
+      <c r="EB121" s="65"/>
+      <c r="EC121" s="65"/>
+      <c r="ED121" s="65"/>
+      <c r="EE121" s="65"/>
+      <c r="EF121" s="65"/>
+      <c r="EG121" s="65"/>
+      <c r="EH121" s="65"/>
+      <c r="EI121" s="65"/>
+      <c r="EJ121" s="65"/>
+      <c r="EK121" s="65"/>
+      <c r="EL121" s="65"/>
+      <c r="EM121" s="65"/>
+      <c r="EN121" s="65"/>
+      <c r="EO121" s="65"/>
+      <c r="EP121" s="65"/>
+      <c r="EQ121" s="65"/>
+      <c r="ER121" s="65"/>
+      <c r="ES121" s="65"/>
+      <c r="ET121" s="65"/>
+      <c r="EU121" s="65"/>
+      <c r="EV121" s="65"/>
+      <c r="EW121" s="65"/>
+      <c r="EX121" s="65"/>
+      <c r="EY121" s="65"/>
+      <c r="EZ121" s="65"/>
+      <c r="FA121" s="65"/>
+      <c r="FB121" s="65"/>
+      <c r="FC121" s="65"/>
+      <c r="FD121" s="65"/>
+      <c r="FE121" s="65"/>
+      <c r="FF121" s="65"/>
+      <c r="FG121" s="65"/>
+      <c r="FH121" s="65"/>
+      <c r="FI121" s="65"/>
+      <c r="FJ121" s="65"/>
+      <c r="FK121" s="65"/>
+      <c r="FL121" s="65"/>
+      <c r="FM121" s="65"/>
+      <c r="FN121" s="65"/>
+      <c r="FO121" s="65"/>
+      <c r="FP121" s="65"/>
+      <c r="FQ121" s="65"/>
+      <c r="FR121" s="65"/>
+      <c r="FS121" s="65"/>
+      <c r="FT121" s="65"/>
+      <c r="FU121" s="65"/>
+      <c r="FV121" s="65"/>
+      <c r="FW121" s="65"/>
+      <c r="FX121" s="65"/>
+      <c r="FY121" s="65"/>
+      <c r="FZ121" s="65"/>
+      <c r="GA121" s="65"/>
+      <c r="GB121" s="65"/>
+      <c r="GC121" s="65"/>
+      <c r="GD121" s="65"/>
+      <c r="GE121" s="65"/>
+      <c r="GF121" s="65"/>
+      <c r="GG121" s="65"/>
+      <c r="GH121" s="65"/>
+      <c r="GI121" s="65"/>
+      <c r="GJ121" s="65"/>
+      <c r="GK121" s="65"/>
+      <c r="GL121" s="65"/>
+      <c r="GM121" s="65"/>
+      <c r="GN121" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="FY1:GD1"/>
-    <mergeCell ref="BY1:BZ1"/>
-    <mergeCell ref="GE1:GI1"/>
-    <mergeCell ref="ER1:FI1"/>
-    <mergeCell ref="FJ1:FS1"/>
-    <mergeCell ref="DR1:EQ1"/>
-    <mergeCell ref="CA1:DL1"/>
-    <mergeCell ref="DM1:DQ1"/>
-    <mergeCell ref="FT1:FX1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="AZ1:BU1"/>
+  <mergeCells count="31">
+    <mergeCell ref="GT1:GT2"/>
     <mergeCell ref="GS1:GS2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -40494,6 +40499,20 @@
     <mergeCell ref="AP1:AP2"/>
     <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="AZ1:BU1"/>
+    <mergeCell ref="FY1:GD1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="GE1:GI1"/>
+    <mergeCell ref="ER1:FI1"/>
+    <mergeCell ref="FJ1:FS1"/>
+    <mergeCell ref="DR1:EQ1"/>
+    <mergeCell ref="CA1:DL1"/>
+    <mergeCell ref="DM1:DQ1"/>
+    <mergeCell ref="FT1:FX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40509,17 +40528,17 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -40527,7 +40546,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>736</v>
       </c>
@@ -40547,7 +40566,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -40561,7 +40580,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>703</v>
       </c>
@@ -40575,12 +40594,12 @@
         <v>743</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>706</v>
       </c>
@@ -40588,7 +40607,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>707</v>
       </c>
@@ -40596,7 +40615,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>708</v>
       </c>
@@ -40604,7 +40623,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>739</v>
       </c>
@@ -40612,7 +40631,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>332</v>
       </c>
@@ -40620,7 +40639,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>749</v>
       </c>
@@ -40628,27 +40647,27 @@
         <v>750</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>759</v>
       </c>
@@ -40667,31 +40686,31 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.47265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="119" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="113" t="s">
         <v>586</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="83" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="78" t="s">
         <v>223</v>
       </c>
       <c r="I3" t="s">
@@ -40701,37 +40720,37 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="120" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="114" t="s">
         <v>587</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="83" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="78" t="s">
         <v>583</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="78" t="s">
         <v>369</v>
       </c>
       <c r="I4" t="s">
         <v>383</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="77" t="s">
         <v>205</v>
       </c>
       <c r="L4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>589</v>
       </c>
@@ -40742,32 +40761,32 @@
         <v>588</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N14" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>722</v>
       </c>
@@ -40775,7 +40794,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>724</v>
       </c>
@@ -40783,7 +40802,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -40791,12 +40810,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -40804,7 +40823,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>501</v>
       </c>
@@ -40812,17 +40831,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -40830,27 +40849,27 @@
         <v>728</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -40858,7 +40877,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>429</v>
       </c>
@@ -40866,7 +40885,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>332</v>
       </c>
@@ -40874,67 +40893,67 @@
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N32" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N33" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N36" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N37" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N38" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N39" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N40" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N41" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N42" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N43" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N44" t="s">
         <v>605</v>
       </c>
@@ -40958,9 +40977,9 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -40968,23 +40987,23 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>187</v>
       </c>
       <c r="C3" t="s">
         <v>518</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="72" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>511</v>
       </c>
@@ -40992,7 +41011,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>445</v>
       </c>
@@ -41000,7 +41019,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>513</v>
       </c>
@@ -41008,7 +41027,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>514</v>
       </c>
@@ -41016,7 +41035,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -41024,7 +41043,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -41032,7 +41051,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -41040,7 +41059,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>221</v>
       </c>
@@ -41048,7 +41067,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -41056,7 +41075,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>607</v>
       </c>
@@ -41075,14 +41094,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>499</v>
       </c>
@@ -41090,7 +41109,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>500</v>
       </c>
@@ -41098,7 +41117,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>501</v>
       </c>
@@ -41106,7 +41125,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>502</v>
       </c>
@@ -41114,7 +41133,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -41122,7 +41141,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -41130,7 +41149,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>503</v>
       </c>
@@ -41138,7 +41157,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>504</v>
       </c>
@@ -41146,7 +41165,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>322</v>
       </c>
@@ -41154,29 +41173,29 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="72" t="s">
         <v>568</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="77" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="72" t="s">
         <v>569</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41192,9 +41211,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -41202,7 +41221,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>383</v>
       </c>
@@ -41210,7 +41229,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>507</v>
       </c>
@@ -41221,12 +41240,12 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>508</v>
       </c>
@@ -41234,12 +41253,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -41247,7 +41266,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -41255,7 +41274,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -41263,7 +41282,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>313</v>
       </c>
@@ -41271,7 +41290,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -41279,7 +41298,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>540</v>
       </c>
@@ -41287,7 +41306,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>542</v>
       </c>
@@ -41305,9 +41324,9 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>469</v>
       </c>
@@ -41315,42 +41334,42 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>477</v>
       </c>
@@ -41368,187 +41387,187 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64" t="s">
         <v>453</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="K2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="O3" s="67"/>
+      <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="67" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="74" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="75" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67" t="s">
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="75" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="75" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
       <c r="D11" t="s">
         <v>465</v>
       </c>
@@ -41556,171 +41575,171 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="75" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="75" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="75" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="75" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64" t="s">
         <v>455</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="75" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67" t="s">
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="75" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64" t="s">
         <v>467</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="75" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="75" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="75" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datosexcel.xlsx
+++ b/datosexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52999\Desktop\Dspace6UploadScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906D2F99-A5D3-48FF-9AE2-3D269EDCE61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9F53D8-5911-4D4B-9E75-F2ACFFB93C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4856,7 +4856,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="791">
   <si>
     <t>Pertenece a:</t>
   </si>
@@ -9432,6 +9432,9 @@
   </si>
   <si>
     <t>Ex convento de San Antonio de Padua-Izamal</t>
+  </si>
+  <si>
+    <t>San Luis Obispo de Tolosa-Calkiní</t>
   </si>
 </sst>
 </file>
@@ -10020,43 +10023,31 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10071,14 +10062,26 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10505,8 +10508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GZ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GR2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="GT4" sqref="GT4"/>
+    <sheetView tabSelected="1" topLeftCell="GR96" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="GT102" sqref="GT102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10622,61 +10625,61 @@
     <col min="192" max="199" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="125.44140625" style="1" customWidth="1"/>
     <col min="201" max="201" width="81.6640625" style="1" customWidth="1"/>
-    <col min="202" max="202" width="3.5546875" style="1" customWidth="1"/>
+    <col min="202" max="202" width="40.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="203" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:208" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="101" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="96" t="s">
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="98" t="s">
         <v>194</v>
       </c>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="97" t="s">
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="99" t="s">
         <v>620</v>
       </c>
       <c r="AG1" s="100"/>
@@ -10684,113 +10687,113 @@
       <c r="AI1" s="100"/>
       <c r="AJ1" s="100"/>
       <c r="AK1" s="100"/>
-      <c r="AL1" s="106" t="s">
+      <c r="AL1" s="110" t="s">
         <v>657</v>
       </c>
-      <c r="AM1" s="99" t="s">
+      <c r="AM1" s="111" t="s">
         <v>179</v>
       </c>
       <c r="AN1" s="100"/>
-      <c r="AO1" s="98"/>
-      <c r="AP1" s="96" t="s">
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="110" t="s">
+      <c r="AQ1" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="109" t="s">
+      <c r="AR1" s="105" t="s">
         <v>434</v>
       </c>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96" t="s">
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="97" t="s">
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="BA1" s="104"/>
-      <c r="BB1" s="104"/>
-      <c r="BC1" s="104"/>
-      <c r="BD1" s="104"/>
-      <c r="BE1" s="104"/>
-      <c r="BF1" s="104"/>
-      <c r="BG1" s="104"/>
-      <c r="BH1" s="104"/>
-      <c r="BI1" s="104"/>
-      <c r="BJ1" s="104"/>
-      <c r="BK1" s="104"/>
-      <c r="BL1" s="104"/>
-      <c r="BM1" s="104"/>
-      <c r="BN1" s="104"/>
-      <c r="BO1" s="104"/>
-      <c r="BP1" s="104"/>
-      <c r="BQ1" s="104"/>
-      <c r="BR1" s="104"/>
-      <c r="BS1" s="104"/>
-      <c r="BT1" s="104"/>
-      <c r="BU1" s="105"/>
-      <c r="BV1" s="96" t="s">
+      <c r="BA1" s="112"/>
+      <c r="BB1" s="112"/>
+      <c r="BC1" s="112"/>
+      <c r="BD1" s="112"/>
+      <c r="BE1" s="112"/>
+      <c r="BF1" s="112"/>
+      <c r="BG1" s="112"/>
+      <c r="BH1" s="112"/>
+      <c r="BI1" s="112"/>
+      <c r="BJ1" s="112"/>
+      <c r="BK1" s="112"/>
+      <c r="BL1" s="112"/>
+      <c r="BM1" s="112"/>
+      <c r="BN1" s="112"/>
+      <c r="BO1" s="112"/>
+      <c r="BP1" s="112"/>
+      <c r="BQ1" s="112"/>
+      <c r="BR1" s="112"/>
+      <c r="BS1" s="112"/>
+      <c r="BT1" s="112"/>
+      <c r="BU1" s="113"/>
+      <c r="BV1" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="BW1" s="96"/>
-      <c r="BX1" s="96"/>
-      <c r="BY1" s="97" t="s">
+      <c r="BW1" s="98"/>
+      <c r="BX1" s="98"/>
+      <c r="BY1" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="BZ1" s="98"/>
-      <c r="CA1" s="101" t="s">
+      <c r="BZ1" s="101"/>
+      <c r="CA1" s="103" t="s">
         <v>441</v>
       </c>
-      <c r="CB1" s="102"/>
-      <c r="CC1" s="102"/>
-      <c r="CD1" s="102"/>
-      <c r="CE1" s="102"/>
-      <c r="CF1" s="102"/>
-      <c r="CG1" s="102"/>
-      <c r="CH1" s="102"/>
-      <c r="CI1" s="102"/>
-      <c r="CJ1" s="102"/>
-      <c r="CK1" s="102"/>
-      <c r="CL1" s="102"/>
-      <c r="CM1" s="102"/>
-      <c r="CN1" s="102"/>
-      <c r="CO1" s="102"/>
-      <c r="CP1" s="102"/>
-      <c r="CQ1" s="102"/>
-      <c r="CR1" s="102"/>
-      <c r="CS1" s="102"/>
-      <c r="CT1" s="102"/>
-      <c r="CU1" s="102"/>
-      <c r="CV1" s="102"/>
-      <c r="CW1" s="102"/>
-      <c r="CX1" s="102"/>
-      <c r="CY1" s="102"/>
-      <c r="CZ1" s="102"/>
-      <c r="DA1" s="102"/>
-      <c r="DB1" s="102"/>
-      <c r="DC1" s="102"/>
-      <c r="DD1" s="102"/>
-      <c r="DE1" s="102"/>
-      <c r="DF1" s="102"/>
-      <c r="DG1" s="102"/>
-      <c r="DH1" s="102"/>
-      <c r="DI1" s="102"/>
-      <c r="DJ1" s="102"/>
-      <c r="DK1" s="102"/>
-      <c r="DL1" s="103"/>
-      <c r="DM1" s="104" t="s">
+      <c r="CB1" s="104"/>
+      <c r="CC1" s="104"/>
+      <c r="CD1" s="104"/>
+      <c r="CE1" s="104"/>
+      <c r="CF1" s="104"/>
+      <c r="CG1" s="104"/>
+      <c r="CH1" s="104"/>
+      <c r="CI1" s="104"/>
+      <c r="CJ1" s="104"/>
+      <c r="CK1" s="104"/>
+      <c r="CL1" s="104"/>
+      <c r="CM1" s="104"/>
+      <c r="CN1" s="104"/>
+      <c r="CO1" s="104"/>
+      <c r="CP1" s="104"/>
+      <c r="CQ1" s="104"/>
+      <c r="CR1" s="104"/>
+      <c r="CS1" s="104"/>
+      <c r="CT1" s="104"/>
+      <c r="CU1" s="104"/>
+      <c r="CV1" s="104"/>
+      <c r="CW1" s="104"/>
+      <c r="CX1" s="104"/>
+      <c r="CY1" s="104"/>
+      <c r="CZ1" s="104"/>
+      <c r="DA1" s="104"/>
+      <c r="DB1" s="104"/>
+      <c r="DC1" s="104"/>
+      <c r="DD1" s="104"/>
+      <c r="DE1" s="104"/>
+      <c r="DF1" s="104"/>
+      <c r="DG1" s="104"/>
+      <c r="DH1" s="104"/>
+      <c r="DI1" s="104"/>
+      <c r="DJ1" s="104"/>
+      <c r="DK1" s="104"/>
+      <c r="DL1" s="109"/>
+      <c r="DM1" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="DN1" s="104"/>
-      <c r="DO1" s="104"/>
-      <c r="DP1" s="104"/>
-      <c r="DQ1" s="105"/>
-      <c r="DR1" s="99" t="s">
+      <c r="DN1" s="112"/>
+      <c r="DO1" s="112"/>
+      <c r="DP1" s="112"/>
+      <c r="DQ1" s="113"/>
+      <c r="DR1" s="111" t="s">
         <v>439</v>
       </c>
       <c r="DS1" s="100"/>
@@ -10817,8 +10820,8 @@
       <c r="EN1" s="100"/>
       <c r="EO1" s="100"/>
       <c r="EP1" s="100"/>
-      <c r="EQ1" s="98"/>
-      <c r="ER1" s="99" t="s">
+      <c r="EQ1" s="101"/>
+      <c r="ER1" s="111" t="s">
         <v>440</v>
       </c>
       <c r="ES1" s="100"/>
@@ -10837,8 +10840,8 @@
       <c r="FF1" s="100"/>
       <c r="FG1" s="100"/>
       <c r="FH1" s="100"/>
-      <c r="FI1" s="98"/>
-      <c r="FJ1" s="99" t="s">
+      <c r="FI1" s="101"/>
+      <c r="FJ1" s="111" t="s">
         <v>12</v>
       </c>
       <c r="FK1" s="100"/>
@@ -10849,30 +10852,30 @@
       <c r="FP1" s="100"/>
       <c r="FQ1" s="100"/>
       <c r="FR1" s="100"/>
-      <c r="FS1" s="98"/>
-      <c r="FT1" s="96" t="s">
+      <c r="FS1" s="101"/>
+      <c r="FT1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="FU1" s="96"/>
-      <c r="FV1" s="96"/>
-      <c r="FW1" s="96"/>
-      <c r="FX1" s="96"/>
-      <c r="FY1" s="96" t="s">
+      <c r="FU1" s="98"/>
+      <c r="FV1" s="98"/>
+      <c r="FW1" s="98"/>
+      <c r="FX1" s="98"/>
+      <c r="FY1" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="FZ1" s="96"/>
-      <c r="GA1" s="96"/>
-      <c r="GB1" s="96"/>
-      <c r="GC1" s="96"/>
-      <c r="GD1" s="96"/>
-      <c r="GE1" s="99" t="s">
+      <c r="FZ1" s="98"/>
+      <c r="GA1" s="98"/>
+      <c r="GB1" s="98"/>
+      <c r="GC1" s="98"/>
+      <c r="GD1" s="98"/>
+      <c r="GE1" s="111" t="s">
         <v>293</v>
       </c>
       <c r="GF1" s="100"/>
       <c r="GG1" s="100"/>
       <c r="GH1" s="100"/>
-      <c r="GI1" s="98"/>
-      <c r="GJ1" s="97" t="s">
+      <c r="GI1" s="101"/>
+      <c r="GJ1" s="99" t="s">
         <v>14</v>
       </c>
       <c r="GK1" s="100"/>
@@ -10881,20 +10884,20 @@
       <c r="GN1" s="100"/>
       <c r="GO1" s="100"/>
       <c r="GP1" s="100"/>
-      <c r="GQ1" s="98"/>
-      <c r="GR1" s="108" t="s">
+      <c r="GQ1" s="101"/>
+      <c r="GR1" s="102" t="s">
         <v>438</v>
       </c>
-      <c r="GS1" s="107" t="s">
+      <c r="GS1" s="97" t="s">
         <v>631</v>
       </c>
-      <c r="GT1" s="115" t="s">
+      <c r="GT1" s="96" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:208" ht="388.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
@@ -10910,9 +10913,9 @@
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
       <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
@@ -10994,7 +10997,7 @@
       <c r="AK2" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AL2" s="106"/>
+      <c r="AL2" s="110"/>
       <c r="AM2" s="2" t="s">
         <v>180</v>
       </c>
@@ -11004,8 +11007,8 @@
       <c r="AO2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="110"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="106"/>
       <c r="AR2" s="7" t="s">
         <v>15</v>
       </c>
@@ -11474,9 +11477,9 @@
       <c r="GQ2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="GR2" s="101"/>
-      <c r="GS2" s="107"/>
-      <c r="GT2" s="115"/>
+      <c r="GR2" s="103"/>
+      <c r="GS2" s="97"/>
+      <c r="GT2" s="96"/>
     </row>
     <row r="3" spans="1:208" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -11733,9 +11736,6 @@
       <c r="GR3" s="80"/>
       <c r="GS3" s="93" t="s">
         <v>689</v>
-      </c>
-      <c r="GT3" s="1" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:208" ht="97.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15094,7 +15094,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="17" spans="1:201" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:202" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>69</v>
       </c>
@@ -15366,8 +15366,11 @@
         <v>608</v>
       </c>
       <c r="GS17" s="38"/>
+      <c r="GT17" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
-    <row r="18" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:202" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>286</v>
       </c>
@@ -15618,7 +15621,7 @@
       </c>
       <c r="GS18" s="38"/>
     </row>
-    <row r="19" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
         <v>72</v>
       </c>
@@ -15857,7 +15860,7 @@
       </c>
       <c r="GS19" s="46"/>
     </row>
-    <row r="20" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>379</v>
       </c>
@@ -16102,7 +16105,7 @@
       <c r="GR20" s="80"/>
       <c r="GS20" s="38"/>
     </row>
-    <row r="21" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>74</v>
       </c>
@@ -16347,7 +16350,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="22" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="29" t="s">
         <v>76</v>
       </c>
@@ -16598,7 +16601,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="23" spans="1:201" ht="113.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:202" ht="113.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>192</v>
       </c>
@@ -16859,7 +16862,7 @@
       </c>
       <c r="GS23" s="38"/>
     </row>
-    <row r="24" spans="1:201" ht="208.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:202" ht="208.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>193</v>
       </c>
@@ -17126,7 +17129,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="25" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>195</v>
       </c>
@@ -17381,7 +17384,7 @@
       </c>
       <c r="GS25" s="38"/>
     </row>
-    <row r="26" spans="1:201" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:202" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>196</v>
       </c>
@@ -17646,7 +17649,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="27" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>372</v>
       </c>
@@ -17891,7 +17894,7 @@
       <c r="GR27" s="81"/>
       <c r="GS27" s="38"/>
     </row>
-    <row r="28" spans="1:201" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:202" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>366</v>
       </c>
@@ -18150,7 +18153,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="29" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>371</v>
       </c>
@@ -18397,7 +18400,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="30" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49" t="s">
         <v>46</v>
       </c>
@@ -18634,7 +18637,7 @@
       <c r="GR30" s="85"/>
       <c r="GS30" s="46"/>
     </row>
-    <row r="31" spans="1:201" ht="194.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:202" ht="194.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>197</v>
       </c>
@@ -18905,7 +18908,7 @@
       </c>
       <c r="GS31" s="38"/>
     </row>
-    <row r="32" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:202" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>406</v>
       </c>
@@ -35232,7 +35235,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="97" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="49" t="s">
         <v>143</v>
       </c>
@@ -35465,7 +35468,7 @@
       <c r="GR97" s="88"/>
       <c r="GS97" s="46"/>
     </row>
-    <row r="98" spans="1:201" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:202" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
         <v>366</v>
       </c>
@@ -35728,7 +35731,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="99" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>145</v>
       </c>
@@ -35973,7 +35976,7 @@
       <c r="GR99" s="81"/>
       <c r="GS99" s="38"/>
     </row>
-    <row r="100" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>32</v>
       </c>
@@ -36230,7 +36233,7 @@
       <c r="GR100" s="90"/>
       <c r="GS100" s="38"/>
     </row>
-    <row r="101" spans="1:201" ht="97.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:202" ht="97.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>314</v>
       </c>
@@ -36496,8 +36499,11 @@
         <v>615</v>
       </c>
       <c r="GS101" s="38"/>
+      <c r="GT101" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
-    <row r="102" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:202" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>105</v>
       </c>
@@ -36758,7 +36764,7 @@
       </c>
       <c r="GS102" s="38"/>
     </row>
-    <row r="103" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>87</v>
       </c>
@@ -37011,7 +37017,7 @@
       </c>
       <c r="GS103" s="38"/>
     </row>
-    <row r="104" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>62</v>
       </c>
@@ -37266,7 +37272,7 @@
       <c r="GR104" s="82"/>
       <c r="GS104" s="38"/>
     </row>
-    <row r="105" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:202" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>326</v>
       </c>
@@ -37523,7 +37529,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="106" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>46</v>
       </c>
@@ -37772,7 +37778,7 @@
       <c r="GR106" s="82"/>
       <c r="GS106" s="38"/>
     </row>
-    <row r="107" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>105</v>
       </c>
@@ -38021,7 +38027,7 @@
       </c>
       <c r="GS107" s="38"/>
     </row>
-    <row r="108" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>62</v>
       </c>
@@ -38276,7 +38282,7 @@
       </c>
       <c r="GS108" s="38"/>
     </row>
-    <row r="109" spans="1:201" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:202" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>408</v>
       </c>
@@ -38533,7 +38539,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="110" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>62</v>
       </c>
@@ -38778,7 +38784,7 @@
       </c>
       <c r="GS110" s="38"/>
     </row>
-    <row r="111" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:202" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>491</v>
       </c>
@@ -39015,7 +39021,7 @@
       </c>
       <c r="GS111" s="38"/>
     </row>
-    <row r="112" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>338</v>
       </c>
@@ -40482,6 +40488,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="FY1:GD1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="GE1:GI1"/>
+    <mergeCell ref="ER1:FI1"/>
+    <mergeCell ref="FJ1:FS1"/>
+    <mergeCell ref="DR1:EQ1"/>
+    <mergeCell ref="CA1:DL1"/>
+    <mergeCell ref="DM1:DQ1"/>
+    <mergeCell ref="FT1:FX1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="AZ1:BU1"/>
     <mergeCell ref="GT1:GT2"/>
     <mergeCell ref="GS1:GS2"/>
     <mergeCell ref="A1:A2"/>
@@ -40498,21 +40519,6 @@
     <mergeCell ref="AQ1:AQ2"/>
     <mergeCell ref="AP1:AP2"/>
     <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="AZ1:BU1"/>
-    <mergeCell ref="FY1:GD1"/>
-    <mergeCell ref="BY1:BZ1"/>
-    <mergeCell ref="GE1:GI1"/>
-    <mergeCell ref="ER1:FI1"/>
-    <mergeCell ref="FJ1:FS1"/>
-    <mergeCell ref="DR1:EQ1"/>
-    <mergeCell ref="CA1:DL1"/>
-    <mergeCell ref="DM1:DQ1"/>
-    <mergeCell ref="FT1:FX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40699,14 +40705,14 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
       <c r="G3" s="78" t="s">
         <v>36</v>
       </c>
@@ -40721,14 +40727,14 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>587</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
       <c r="G4" s="78" t="s">
         <v>583</v>
       </c>

--- a/datosexcel.xlsx
+++ b/datosexcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52999\Desktop\Dspace6UploadScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilberth\Desktop\Dspace6ScriptUADY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9F53D8-5911-4D4B-9E75-F2ACFFB93C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509A40F-7E62-4870-8704-CA4304A9222A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLA" sheetId="1" r:id="rId1"/>
@@ -4856,7 +4856,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="793">
   <si>
     <t>Pertenece a:</t>
   </si>
@@ -9435,6 +9435,12 @@
   </si>
   <si>
     <t>San Luis Obispo de Tolosa-Calkiní</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Latitud</t>
   </si>
 </sst>
 </file>
@@ -10023,31 +10029,49 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10058,24 +10082,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -10508,178 +10514,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GZ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GR96" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="GT102" sqref="GT102"/>
+    <sheetView tabSelected="1" topLeftCell="GS85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="GX101" sqref="GX101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="2.6640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="2.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="2.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="2.7109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="2.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="3" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5546875" style="1" customWidth="1"/>
-    <col min="20" max="21" width="2.77734375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="2.88671875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.77734375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="2.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="2.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" style="1" customWidth="1"/>
     <col min="25" max="25" width="3" style="1" customWidth="1"/>
-    <col min="26" max="26" width="2.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="2.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="2.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="2.7109375" style="1" customWidth="1"/>
     <col min="28" max="28" width="3" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.5546875" style="1" customWidth="1"/>
-    <col min="30" max="32" width="2.77734375" style="1" customWidth="1"/>
-    <col min="33" max="34" width="2.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="2.5546875" style="1" customWidth="1"/>
-    <col min="36" max="37" width="2.77734375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="36.77734375" style="1" customWidth="1"/>
-    <col min="39" max="41" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29.44140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.5703125" style="1" customWidth="1"/>
+    <col min="30" max="34" width="2.7109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5703125" style="1" customWidth="1"/>
+    <col min="36" max="37" width="2.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="36.7109375" style="1" customWidth="1"/>
+    <col min="39" max="41" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29.42578125" style="1" customWidth="1"/>
     <col min="43" max="43" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="3.6640625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.21875" style="1" customWidth="1"/>
-    <col min="56" max="56" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="73" width="3.21875" style="1" customWidth="1"/>
-    <col min="74" max="75" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="4.6640625" style="1" customWidth="1"/>
-    <col min="79" max="79" width="2.6640625" style="1" customWidth="1"/>
-    <col min="80" max="80" width="2.77734375" style="1" customWidth="1"/>
-    <col min="81" max="83" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="87" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="2.6640625" style="1" customWidth="1"/>
-    <col min="91" max="91" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="2.6640625" style="1" customWidth="1"/>
+    <col min="44" max="46" width="3.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.28515625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="73" width="3.28515625" style="1" customWidth="1"/>
+    <col min="74" max="75" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="4.7109375" style="1" customWidth="1"/>
+    <col min="79" max="80" width="2.7109375" style="1" customWidth="1"/>
+    <col min="81" max="83" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="87" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="2.7109375" style="1" customWidth="1"/>
+    <col min="91" max="91" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="2.7109375" style="1" customWidth="1"/>
     <col min="95" max="95" width="5" style="1" customWidth="1"/>
-    <col min="96" max="97" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="99" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="103" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="4.77734375" style="1" customWidth="1"/>
-    <col min="106" max="106" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="2.88671875" style="1" customWidth="1"/>
-    <col min="108" max="108" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="111" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="115" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="117" max="118" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="4.77734375" style="1" customWidth="1"/>
-    <col min="120" max="122" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="2.6640625" style="1" customWidth="1"/>
-    <col min="124" max="124" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="126" width="2.6640625" style="1" customWidth="1"/>
-    <col min="127" max="127" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="129" width="2.6640625" style="1" customWidth="1"/>
-    <col min="130" max="130" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="133" width="2.6640625" style="1" customWidth="1"/>
-    <col min="134" max="136" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="4.77734375" style="1" customWidth="1"/>
-    <col min="139" max="141" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="2.6640625" style="1" customWidth="1"/>
-    <col min="143" max="143" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="145" max="146" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="2.6640625" style="1" customWidth="1"/>
-    <col min="148" max="148" width="2.77734375" style="1" customWidth="1"/>
-    <col min="149" max="150" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="154" width="2.6640625" style="1" customWidth="1"/>
-    <col min="155" max="157" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="161" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="162" max="175" width="2.6640625" style="1" customWidth="1"/>
-    <col min="176" max="177" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="3.5546875" style="1" customWidth="1"/>
-    <col min="179" max="180" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="181" max="182" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="184" max="185" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="2.88671875" style="1" customWidth="1"/>
-    <col min="190" max="190" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="2.77734375" style="1" customWidth="1"/>
-    <col min="192" max="199" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="125.44140625" style="1" customWidth="1"/>
-    <col min="201" max="201" width="81.6640625" style="1" customWidth="1"/>
-    <col min="202" max="202" width="40.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="103" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="4.7109375" style="1" customWidth="1"/>
+    <col min="106" max="106" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="2.85546875" style="1" customWidth="1"/>
+    <col min="108" max="108" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="111" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="115" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="118" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="4.7109375" style="1" customWidth="1"/>
+    <col min="120" max="122" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="2.7109375" style="1" customWidth="1"/>
+    <col min="124" max="124" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="126" width="2.7109375" style="1" customWidth="1"/>
+    <col min="127" max="127" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="2.7109375" style="1" customWidth="1"/>
+    <col min="130" max="130" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="133" width="2.7109375" style="1" customWidth="1"/>
+    <col min="134" max="136" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="4.7109375" style="1" customWidth="1"/>
+    <col min="139" max="141" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="2.7109375" style="1" customWidth="1"/>
+    <col min="143" max="143" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="146" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="2.7109375" style="1" customWidth="1"/>
+    <col min="149" max="150" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="154" width="2.7109375" style="1" customWidth="1"/>
+    <col min="155" max="157" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="161" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="162" max="175" width="2.7109375" style="1" customWidth="1"/>
+    <col min="176" max="177" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="3.5703125" style="1" customWidth="1"/>
+    <col min="179" max="180" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="181" max="182" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="184" max="185" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="2.85546875" style="1" customWidth="1"/>
+    <col min="190" max="190" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="2.7109375" style="1" customWidth="1"/>
+    <col min="192" max="199" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="125.42578125" style="1" customWidth="1"/>
+    <col min="201" max="201" width="81.7109375" style="1" customWidth="1"/>
+    <col min="202" max="202" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="203" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:208" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:208" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98" t="s">
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="108" t="s">
+      <c r="K1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="103" t="s">
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="98" t="s">
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
-      <c r="AB1" s="98"/>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="98"/>
-      <c r="AE1" s="98"/>
-      <c r="AF1" s="99" t="s">
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="97" t="s">
         <v>620</v>
       </c>
       <c r="AG1" s="100"/>
@@ -10687,113 +10690,113 @@
       <c r="AI1" s="100"/>
       <c r="AJ1" s="100"/>
       <c r="AK1" s="100"/>
-      <c r="AL1" s="110" t="s">
+      <c r="AL1" s="107" t="s">
         <v>657</v>
       </c>
-      <c r="AM1" s="111" t="s">
+      <c r="AM1" s="99" t="s">
         <v>179</v>
       </c>
       <c r="AN1" s="100"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="98" t="s">
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="106" t="s">
+      <c r="AQ1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="105" t="s">
+      <c r="AR1" s="111" t="s">
         <v>434</v>
       </c>
-      <c r="AS1" s="98"/>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="98" t="s">
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98"/>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="99" t="s">
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="BA1" s="112"/>
-      <c r="BB1" s="112"/>
-      <c r="BC1" s="112"/>
-      <c r="BD1" s="112"/>
-      <c r="BE1" s="112"/>
-      <c r="BF1" s="112"/>
-      <c r="BG1" s="112"/>
-      <c r="BH1" s="112"/>
-      <c r="BI1" s="112"/>
-      <c r="BJ1" s="112"/>
-      <c r="BK1" s="112"/>
-      <c r="BL1" s="112"/>
-      <c r="BM1" s="112"/>
-      <c r="BN1" s="112"/>
-      <c r="BO1" s="112"/>
-      <c r="BP1" s="112"/>
-      <c r="BQ1" s="112"/>
-      <c r="BR1" s="112"/>
-      <c r="BS1" s="112"/>
-      <c r="BT1" s="112"/>
-      <c r="BU1" s="113"/>
-      <c r="BV1" s="98" t="s">
+      <c r="BA1" s="104"/>
+      <c r="BB1" s="104"/>
+      <c r="BC1" s="104"/>
+      <c r="BD1" s="104"/>
+      <c r="BE1" s="104"/>
+      <c r="BF1" s="104"/>
+      <c r="BG1" s="104"/>
+      <c r="BH1" s="104"/>
+      <c r="BI1" s="104"/>
+      <c r="BJ1" s="104"/>
+      <c r="BK1" s="104"/>
+      <c r="BL1" s="104"/>
+      <c r="BM1" s="104"/>
+      <c r="BN1" s="104"/>
+      <c r="BO1" s="104"/>
+      <c r="BP1" s="104"/>
+      <c r="BQ1" s="104"/>
+      <c r="BR1" s="104"/>
+      <c r="BS1" s="104"/>
+      <c r="BT1" s="104"/>
+      <c r="BU1" s="105"/>
+      <c r="BV1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="BW1" s="98"/>
-      <c r="BX1" s="98"/>
-      <c r="BY1" s="99" t="s">
+      <c r="BW1" s="96"/>
+      <c r="BX1" s="96"/>
+      <c r="BY1" s="97" t="s">
         <v>702</v>
       </c>
-      <c r="BZ1" s="101"/>
-      <c r="CA1" s="103" t="s">
+      <c r="BZ1" s="98"/>
+      <c r="CA1" s="101" t="s">
         <v>441</v>
       </c>
-      <c r="CB1" s="104"/>
-      <c r="CC1" s="104"/>
-      <c r="CD1" s="104"/>
-      <c r="CE1" s="104"/>
-      <c r="CF1" s="104"/>
-      <c r="CG1" s="104"/>
-      <c r="CH1" s="104"/>
-      <c r="CI1" s="104"/>
-      <c r="CJ1" s="104"/>
-      <c r="CK1" s="104"/>
-      <c r="CL1" s="104"/>
-      <c r="CM1" s="104"/>
-      <c r="CN1" s="104"/>
-      <c r="CO1" s="104"/>
-      <c r="CP1" s="104"/>
-      <c r="CQ1" s="104"/>
-      <c r="CR1" s="104"/>
-      <c r="CS1" s="104"/>
-      <c r="CT1" s="104"/>
-      <c r="CU1" s="104"/>
-      <c r="CV1" s="104"/>
-      <c r="CW1" s="104"/>
-      <c r="CX1" s="104"/>
-      <c r="CY1" s="104"/>
-      <c r="CZ1" s="104"/>
-      <c r="DA1" s="104"/>
-      <c r="DB1" s="104"/>
-      <c r="DC1" s="104"/>
-      <c r="DD1" s="104"/>
-      <c r="DE1" s="104"/>
-      <c r="DF1" s="104"/>
-      <c r="DG1" s="104"/>
-      <c r="DH1" s="104"/>
-      <c r="DI1" s="104"/>
-      <c r="DJ1" s="104"/>
-      <c r="DK1" s="104"/>
-      <c r="DL1" s="109"/>
-      <c r="DM1" s="112" t="s">
+      <c r="CB1" s="102"/>
+      <c r="CC1" s="102"/>
+      <c r="CD1" s="102"/>
+      <c r="CE1" s="102"/>
+      <c r="CF1" s="102"/>
+      <c r="CG1" s="102"/>
+      <c r="CH1" s="102"/>
+      <c r="CI1" s="102"/>
+      <c r="CJ1" s="102"/>
+      <c r="CK1" s="102"/>
+      <c r="CL1" s="102"/>
+      <c r="CM1" s="102"/>
+      <c r="CN1" s="102"/>
+      <c r="CO1" s="102"/>
+      <c r="CP1" s="102"/>
+      <c r="CQ1" s="102"/>
+      <c r="CR1" s="102"/>
+      <c r="CS1" s="102"/>
+      <c r="CT1" s="102"/>
+      <c r="CU1" s="102"/>
+      <c r="CV1" s="102"/>
+      <c r="CW1" s="102"/>
+      <c r="CX1" s="102"/>
+      <c r="CY1" s="102"/>
+      <c r="CZ1" s="102"/>
+      <c r="DA1" s="102"/>
+      <c r="DB1" s="102"/>
+      <c r="DC1" s="102"/>
+      <c r="DD1" s="102"/>
+      <c r="DE1" s="102"/>
+      <c r="DF1" s="102"/>
+      <c r="DG1" s="102"/>
+      <c r="DH1" s="102"/>
+      <c r="DI1" s="102"/>
+      <c r="DJ1" s="102"/>
+      <c r="DK1" s="102"/>
+      <c r="DL1" s="103"/>
+      <c r="DM1" s="104" t="s">
         <v>442</v>
       </c>
-      <c r="DN1" s="112"/>
-      <c r="DO1" s="112"/>
-      <c r="DP1" s="112"/>
-      <c r="DQ1" s="113"/>
-      <c r="DR1" s="111" t="s">
+      <c r="DN1" s="104"/>
+      <c r="DO1" s="104"/>
+      <c r="DP1" s="104"/>
+      <c r="DQ1" s="105"/>
+      <c r="DR1" s="99" t="s">
         <v>439</v>
       </c>
       <c r="DS1" s="100"/>
@@ -10820,8 +10823,8 @@
       <c r="EN1" s="100"/>
       <c r="EO1" s="100"/>
       <c r="EP1" s="100"/>
-      <c r="EQ1" s="101"/>
-      <c r="ER1" s="111" t="s">
+      <c r="EQ1" s="98"/>
+      <c r="ER1" s="99" t="s">
         <v>440</v>
       </c>
       <c r="ES1" s="100"/>
@@ -10840,8 +10843,8 @@
       <c r="FF1" s="100"/>
       <c r="FG1" s="100"/>
       <c r="FH1" s="100"/>
-      <c r="FI1" s="101"/>
-      <c r="FJ1" s="111" t="s">
+      <c r="FI1" s="98"/>
+      <c r="FJ1" s="99" t="s">
         <v>12</v>
       </c>
       <c r="FK1" s="100"/>
@@ -10852,30 +10855,30 @@
       <c r="FP1" s="100"/>
       <c r="FQ1" s="100"/>
       <c r="FR1" s="100"/>
-      <c r="FS1" s="101"/>
-      <c r="FT1" s="98" t="s">
+      <c r="FS1" s="98"/>
+      <c r="FT1" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="FU1" s="98"/>
-      <c r="FV1" s="98"/>
-      <c r="FW1" s="98"/>
-      <c r="FX1" s="98"/>
-      <c r="FY1" s="98" t="s">
+      <c r="FU1" s="96"/>
+      <c r="FV1" s="96"/>
+      <c r="FW1" s="96"/>
+      <c r="FX1" s="96"/>
+      <c r="FY1" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="FZ1" s="98"/>
-      <c r="GA1" s="98"/>
-      <c r="GB1" s="98"/>
-      <c r="GC1" s="98"/>
-      <c r="GD1" s="98"/>
-      <c r="GE1" s="111" t="s">
+      <c r="FZ1" s="96"/>
+      <c r="GA1" s="96"/>
+      <c r="GB1" s="96"/>
+      <c r="GC1" s="96"/>
+      <c r="GD1" s="96"/>
+      <c r="GE1" s="99" t="s">
         <v>293</v>
       </c>
       <c r="GF1" s="100"/>
       <c r="GG1" s="100"/>
       <c r="GH1" s="100"/>
-      <c r="GI1" s="101"/>
-      <c r="GJ1" s="99" t="s">
+      <c r="GI1" s="98"/>
+      <c r="GJ1" s="97" t="s">
         <v>14</v>
       </c>
       <c r="GK1" s="100"/>
@@ -10884,20 +10887,20 @@
       <c r="GN1" s="100"/>
       <c r="GO1" s="100"/>
       <c r="GP1" s="100"/>
-      <c r="GQ1" s="101"/>
-      <c r="GR1" s="102" t="s">
+      <c r="GQ1" s="98"/>
+      <c r="GR1" s="110" t="s">
         <v>438</v>
       </c>
-      <c r="GS1" s="97" t="s">
+      <c r="GS1" s="109" t="s">
         <v>631</v>
       </c>
-      <c r="GT1" s="96" t="s">
+      <c r="GT1" s="108" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:208" ht="388.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
+    <row r="2" spans="1:208" ht="388.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
@@ -10913,9 +10916,9 @@
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
@@ -10997,7 +11000,7 @@
       <c r="AK2" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AL2" s="110"/>
+      <c r="AL2" s="107"/>
       <c r="AM2" s="2" t="s">
         <v>180</v>
       </c>
@@ -11007,8 +11010,8 @@
       <c r="AO2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="106"/>
+      <c r="AP2" s="113"/>
+      <c r="AQ2" s="112"/>
       <c r="AR2" s="7" t="s">
         <v>15</v>
       </c>
@@ -11477,11 +11480,17 @@
       <c r="GQ2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="GR2" s="103"/>
-      <c r="GS2" s="97"/>
-      <c r="GT2" s="96"/>
+      <c r="GR2" s="101"/>
+      <c r="GS2" s="109"/>
+      <c r="GT2" s="108"/>
+      <c r="GU2" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="GV2" s="1" t="s">
+        <v>791</v>
+      </c>
     </row>
-    <row r="3" spans="1:208" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:208" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
@@ -11738,7 +11747,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:208" ht="97.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:208" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>33</v>
       </c>
@@ -11999,7 +12008,7 @@
       </c>
       <c r="GS4" s="38"/>
     </row>
-    <row r="5" spans="1:208" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:208" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>47</v>
       </c>
@@ -12258,7 +12267,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:208" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:208" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>154</v>
       </c>
@@ -12519,7 +12528,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:208" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:208" ht="37.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>34</v>
       </c>
@@ -12770,7 +12779,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="8" spans="1:208" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:208" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
@@ -13023,7 +13032,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="9" spans="1:208" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:208" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
@@ -13278,7 +13287,7 @@
       </c>
       <c r="GS9" s="38"/>
     </row>
-    <row r="10" spans="1:208" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:208" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>58</v>
       </c>
@@ -13547,7 +13556,7 @@
       </c>
       <c r="GS10" s="38"/>
     </row>
-    <row r="11" spans="1:208" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:208" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>55</v>
       </c>
@@ -13808,7 +13817,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="12" spans="1:208" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:208" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>57</v>
       </c>
@@ -14069,7 +14078,7 @@
       <c r="GR12" s="80"/>
       <c r="GS12" s="38"/>
     </row>
-    <row r="13" spans="1:208" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:208" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>58</v>
       </c>
@@ -14330,7 +14339,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:208" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:208" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -14590,7 +14599,7 @@
       <c r="GY14" s="64"/>
       <c r="GZ14" s="64"/>
     </row>
-    <row r="15" spans="1:208" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:208" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -14853,7 +14862,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="16" spans="1:208" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:208" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>154</v>
       </c>
@@ -15094,7 +15103,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="17" spans="1:202" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:204" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>69</v>
       </c>
@@ -15369,8 +15378,14 @@
       <c r="GT17" s="1" t="s">
         <v>789</v>
       </c>
+      <c r="GU17" s="1">
+        <v>20.932645720913801</v>
+      </c>
+      <c r="GV17" s="1">
+        <v>-89.018900974184007</v>
+      </c>
     </row>
-    <row r="18" spans="1:202" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:204" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>286</v>
       </c>
@@ -15621,7 +15636,7 @@
       </c>
       <c r="GS18" s="38"/>
     </row>
-    <row r="19" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>72</v>
       </c>
@@ -15860,7 +15875,7 @@
       </c>
       <c r="GS19" s="46"/>
     </row>
-    <row r="20" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>379</v>
       </c>
@@ -16105,7 +16120,7 @@
       <c r="GR20" s="80"/>
       <c r="GS20" s="38"/>
     </row>
-    <row r="21" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>74</v>
       </c>
@@ -16350,7 +16365,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="22" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>76</v>
       </c>
@@ -16601,7 +16616,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="23" spans="1:202" ht="113.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:204" ht="113.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>192</v>
       </c>
@@ -16862,7 +16877,7 @@
       </c>
       <c r="GS23" s="38"/>
     </row>
-    <row r="24" spans="1:202" ht="208.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:204" ht="192.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>193</v>
       </c>
@@ -17129,7 +17144,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="25" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>195</v>
       </c>
@@ -17384,7 +17399,7 @@
       </c>
       <c r="GS25" s="38"/>
     </row>
-    <row r="26" spans="1:202" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:204" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>196</v>
       </c>
@@ -17649,7 +17664,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="27" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>372</v>
       </c>
@@ -17894,7 +17909,7 @@
       <c r="GR27" s="81"/>
       <c r="GS27" s="38"/>
     </row>
-    <row r="28" spans="1:202" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:204" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>366</v>
       </c>
@@ -18153,7 +18168,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="29" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>371</v>
       </c>
@@ -18400,7 +18415,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="30" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="49" t="s">
         <v>46</v>
       </c>
@@ -18637,7 +18652,7 @@
       <c r="GR30" s="85"/>
       <c r="GS30" s="46"/>
     </row>
-    <row r="31" spans="1:202" ht="194.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:204" ht="180" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>197</v>
       </c>
@@ -18908,7 +18923,7 @@
       </c>
       <c r="GS31" s="38"/>
     </row>
-    <row r="32" spans="1:202" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:204" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>406</v>
       </c>
@@ -19145,7 +19160,7 @@
       <c r="GR32" s="86"/>
       <c r="GS32" s="38"/>
     </row>
-    <row r="33" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:201" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>383</v>
       </c>
@@ -19398,7 +19413,7 @@
       </c>
       <c r="GS33" s="38"/>
     </row>
-    <row r="34" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:201" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>391</v>
       </c>
@@ -19647,7 +19662,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="35" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:201" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>203</v>
       </c>
@@ -19896,7 +19911,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="36" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:201" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>204</v>
       </c>
@@ -20161,7 +20176,7 @@
       </c>
       <c r="GS36" s="38"/>
     </row>
-    <row r="37" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:201" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>252</v>
       </c>
@@ -20422,7 +20437,7 @@
       </c>
       <c r="GS37" s="38"/>
     </row>
-    <row r="38" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:201" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>222</v>
       </c>
@@ -20677,7 +20692,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="39" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
         <v>205</v>
       </c>
@@ -20932,7 +20947,7 @@
       </c>
       <c r="GS39" s="38"/>
     </row>
-    <row r="40" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:201" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>227</v>
       </c>
@@ -21181,7 +21196,7 @@
       <c r="GR40" s="80"/>
       <c r="GS40" s="38"/>
     </row>
-    <row r="41" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:201" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>74</v>
       </c>
@@ -21436,7 +21451,7 @@
       </c>
       <c r="GS41" s="38"/>
     </row>
-    <row r="42" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:201" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>221</v>
       </c>
@@ -21695,7 +21710,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:201" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>77</v>
       </c>
@@ -21954,7 +21969,7 @@
       </c>
       <c r="GS43" s="38"/>
     </row>
-    <row r="44" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="53" t="s">
         <v>228</v>
       </c>
@@ -22205,7 +22220,7 @@
       <c r="GR44" s="80"/>
       <c r="GS44" s="38"/>
     </row>
-    <row r="45" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:201" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>230</v>
       </c>
@@ -22466,7 +22481,7 @@
       </c>
       <c r="GS45" s="38"/>
     </row>
-    <row r="46" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="53" t="s">
         <v>241</v>
       </c>
@@ -22723,7 +22738,7 @@
       <c r="GR46" s="80"/>
       <c r="GS46" s="38"/>
     </row>
-    <row r="47" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:201" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>268</v>
       </c>
@@ -22972,7 +22987,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="48" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:201" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>266</v>
       </c>
@@ -23223,7 +23238,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:201" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>283</v>
       </c>
@@ -23476,7 +23491,7 @@
       </c>
       <c r="GS49" s="38"/>
     </row>
-    <row r="50" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="53" t="s">
         <v>192</v>
       </c>
@@ -23729,7 +23744,7 @@
       </c>
       <c r="GS50" s="38"/>
     </row>
-    <row r="51" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:201" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="54" t="s">
         <v>264</v>
       </c>
@@ -23974,7 +23989,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="52" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="53" t="s">
         <v>260</v>
       </c>
@@ -24217,7 +24232,7 @@
       <c r="GR52" s="80"/>
       <c r="GS52" s="38"/>
     </row>
-    <row r="53" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:201" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>262</v>
       </c>
@@ -24466,7 +24481,7 @@
       <c r="GR53" s="80"/>
       <c r="GS53" s="38"/>
     </row>
-    <row r="54" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:201" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>270</v>
       </c>
@@ -24717,7 +24732,7 @@
       </c>
       <c r="GS54" s="38"/>
     </row>
-    <row r="55" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="53" t="s">
         <v>275</v>
       </c>
@@ -24960,7 +24975,7 @@
       <c r="GR55" s="80"/>
       <c r="GS55" s="38"/>
     </row>
-    <row r="56" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="53" t="s">
         <v>278</v>
       </c>
@@ -25201,7 +25216,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="57" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="53" t="s">
         <v>280</v>
       </c>
@@ -25446,7 +25461,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="58" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:201" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>77</v>
       </c>
@@ -25709,7 +25724,7 @@
       <c r="GR58" s="80"/>
       <c r="GS58" s="38"/>
     </row>
-    <row r="59" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>79</v>
       </c>
@@ -25952,7 +25967,7 @@
       <c r="GR59" s="80"/>
       <c r="GS59" s="38"/>
     </row>
-    <row r="60" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:201" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>80</v>
       </c>
@@ -26219,7 +26234,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="61" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>82</v>
       </c>
@@ -26468,7 +26483,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:201" ht="125.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:201" ht="116.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>58</v>
       </c>
@@ -26737,7 +26752,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="63" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>85</v>
       </c>
@@ -26978,7 +26993,7 @@
       <c r="GR63" s="80"/>
       <c r="GS63" s="38"/>
     </row>
-    <row r="64" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
       <c r="B64" s="36"/>
       <c r="C64" s="12"/>
@@ -27207,7 +27222,7 @@
       <c r="GR64" s="80"/>
       <c r="GS64" s="38"/>
     </row>
-    <row r="65" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:201" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>298</v>
       </c>
@@ -27456,7 +27471,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="66" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>87</v>
       </c>
@@ -27705,7 +27720,7 @@
       <c r="GR66" s="80"/>
       <c r="GS66" s="38"/>
     </row>
-    <row r="67" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>88</v>
       </c>
@@ -27956,7 +27971,7 @@
       </c>
       <c r="GS67" s="38"/>
     </row>
-    <row r="68" spans="1:201" ht="103.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:201" ht="103.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>89</v>
       </c>
@@ -28221,7 +28236,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="69" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="49" t="s">
         <v>91</v>
       </c>
@@ -28462,7 +28477,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="70" spans="1:201" ht="180.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:201" ht="180" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>299</v>
       </c>
@@ -28719,7 +28734,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="71" spans="1:201" ht="129" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:201" ht="129" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>105</v>
       </c>
@@ -28980,7 +28995,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="72" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
         <v>46</v>
       </c>
@@ -29229,7 +29244,7 @@
       <c r="GR72" s="90"/>
       <c r="GS72" s="38"/>
     </row>
-    <row r="73" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:201" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>96</v>
       </c>
@@ -29482,7 +29497,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="74" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
         <v>427</v>
       </c>
@@ -29737,7 +29752,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="75" spans="1:201" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:201" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>98</v>
       </c>
@@ -29998,7 +30013,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="76" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:201" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>100</v>
       </c>
@@ -30245,7 +30260,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="77" spans="1:201" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:201" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>101</v>
       </c>
@@ -30498,7 +30513,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="78" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>103</v>
       </c>
@@ -30749,7 +30764,7 @@
       <c r="GR78" s="90"/>
       <c r="GS78" s="38"/>
     </row>
-    <row r="79" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>105</v>
       </c>
@@ -30992,7 +31007,7 @@
       <c r="GR79" s="90"/>
       <c r="GS79" s="38"/>
     </row>
-    <row r="80" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
         <v>105</v>
       </c>
@@ -31245,7 +31260,7 @@
       </c>
       <c r="GS80" s="38"/>
     </row>
-    <row r="81" spans="1:201" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:201" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>121</v>
       </c>
@@ -31512,7 +31527,7 @@
       <c r="GR81" s="90"/>
       <c r="GS81" s="38"/>
     </row>
-    <row r="82" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:201" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>437</v>
       </c>
@@ -31763,7 +31778,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="83" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
         <v>435</v>
       </c>
@@ -32002,7 +32017,7 @@
       <c r="GR83" s="90"/>
       <c r="GS83" s="38"/>
     </row>
-    <row r="84" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
         <v>433</v>
       </c>
@@ -32239,7 +32254,7 @@
       <c r="GR84" s="90"/>
       <c r="GS84" s="38"/>
     </row>
-    <row r="85" spans="1:201" ht="135.30000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:201" ht="135.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>430</v>
       </c>
@@ -32490,7 +32505,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="86" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
         <v>377</v>
       </c>
@@ -32743,7 +32758,7 @@
       <c r="GR86" s="90"/>
       <c r="GS86" s="38"/>
     </row>
-    <row r="87" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:201" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>125</v>
       </c>
@@ -33000,7 +33015,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="88" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:201" ht="40.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>47</v>
       </c>
@@ -33241,7 +33256,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="89" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:201" ht="40.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>127</v>
       </c>
@@ -33498,7 +33513,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="90" spans="1:201" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:201" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>129</v>
       </c>
@@ -33765,7 +33780,7 @@
       </c>
       <c r="GS90" s="38"/>
     </row>
-    <row r="91" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="49"/>
       <c r="B91" s="49"/>
       <c r="C91" s="46"/>
@@ -33978,7 +33993,7 @@
       <c r="GR91" s="88"/>
       <c r="GS91" s="46"/>
     </row>
-    <row r="92" spans="1:201" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:201" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>62</v>
       </c>
@@ -34239,7 +34254,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="93" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>140</v>
       </c>
@@ -34482,7 +34497,7 @@
       <c r="GR93" s="90"/>
       <c r="GS93" s="38"/>
     </row>
-    <row r="94" spans="1:201" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:201" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>222</v>
       </c>
@@ -34717,7 +34732,7 @@
       <c r="GR94" s="90"/>
       <c r="GS94" s="38"/>
     </row>
-    <row r="95" spans="1:201" ht="189" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:201" ht="189" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>696</v>
       </c>
@@ -34976,7 +34991,7 @@
       </c>
       <c r="GS95" s="38"/>
     </row>
-    <row r="96" spans="1:201" ht="70.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:201" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>378</v>
       </c>
@@ -35235,7 +35250,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="97" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="49" t="s">
         <v>143</v>
       </c>
@@ -35468,7 +35483,7 @@
       <c r="GR97" s="88"/>
       <c r="GS97" s="46"/>
     </row>
-    <row r="98" spans="1:202" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:204" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>366</v>
       </c>
@@ -35731,7 +35746,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="99" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>145</v>
       </c>
@@ -35976,7 +35991,7 @@
       <c r="GR99" s="81"/>
       <c r="GS99" s="38"/>
     </row>
-    <row r="100" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>32</v>
       </c>
@@ -36233,7 +36248,7 @@
       <c r="GR100" s="90"/>
       <c r="GS100" s="38"/>
     </row>
-    <row r="101" spans="1:202" ht="97.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:204" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>314</v>
       </c>
@@ -36502,8 +36517,14 @@
       <c r="GT101" s="1" t="s">
         <v>790</v>
       </c>
+      <c r="GU101" s="1">
+        <v>20.3733299503652</v>
+      </c>
+      <c r="GV101" s="1">
+        <v>-90.057746016684206</v>
+      </c>
     </row>
-    <row r="102" spans="1:202" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:204" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>105</v>
       </c>
@@ -36764,7 +36785,7 @@
       </c>
       <c r="GS102" s="38"/>
     </row>
-    <row r="103" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>87</v>
       </c>
@@ -37017,7 +37038,7 @@
       </c>
       <c r="GS103" s="38"/>
     </row>
-    <row r="104" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>62</v>
       </c>
@@ -37272,7 +37293,7 @@
       <c r="GR104" s="82"/>
       <c r="GS104" s="38"/>
     </row>
-    <row r="105" spans="1:202" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:204" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>326</v>
       </c>
@@ -37529,7 +37550,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="106" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>46</v>
       </c>
@@ -37778,7 +37799,7 @@
       <c r="GR106" s="82"/>
       <c r="GS106" s="38"/>
     </row>
-    <row r="107" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>105</v>
       </c>
@@ -38027,7 +38048,7 @@
       </c>
       <c r="GS107" s="38"/>
     </row>
-    <row r="108" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>62</v>
       </c>
@@ -38282,7 +38303,7 @@
       </c>
       <c r="GS108" s="38"/>
     </row>
-    <row r="109" spans="1:202" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:204" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>408</v>
       </c>
@@ -38539,7 +38560,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="110" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>62</v>
       </c>
@@ -38784,7 +38805,7 @@
       </c>
       <c r="GS110" s="38"/>
     </row>
-    <row r="111" spans="1:202" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:204" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>491</v>
       </c>
@@ -39021,7 +39042,7 @@
       </c>
       <c r="GS111" s="38"/>
     </row>
-    <row r="112" spans="1:202" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:204" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>338</v>
       </c>
@@ -39278,7 +39299,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="113" spans="1:197" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:197" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="AE113" s="64"/>
       <c r="AF113" s="64"/>
       <c r="AG113" s="64"/>
@@ -39434,7 +39455,7 @@
       <c r="GN113" s="65"/>
       <c r="GO113" s="64"/>
     </row>
-    <row r="114" spans="1:197" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:197" x14ac:dyDescent="0.25">
       <c r="A114" s="66" t="s">
         <v>305</v>
       </c>
@@ -39587,7 +39608,7 @@
       <c r="GN114" s="65"/>
       <c r="GO114" s="64"/>
     </row>
-    <row r="115" spans="1:197" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:197" x14ac:dyDescent="0.25">
       <c r="AX115" s="64"/>
       <c r="AY115" s="64"/>
       <c r="AZ115" s="64"/>
@@ -39737,7 +39758,7 @@
       <c r="GN115" s="65"/>
       <c r="GO115" s="64"/>
     </row>
-    <row r="116" spans="1:197" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:197" x14ac:dyDescent="0.25">
       <c r="AX116" s="64"/>
       <c r="AY116" s="64"/>
       <c r="AZ116" s="64"/>
@@ -39886,7 +39907,7 @@
       <c r="GM116" s="65"/>
       <c r="GN116" s="65"/>
     </row>
-    <row r="117" spans="1:197" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:197" x14ac:dyDescent="0.25">
       <c r="CA117" s="65"/>
       <c r="CB117" s="65"/>
       <c r="CC117" s="65"/>
@@ -40006,7 +40027,7 @@
       <c r="GM117" s="65"/>
       <c r="GN117" s="65"/>
     </row>
-    <row r="118" spans="1:197" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:197" x14ac:dyDescent="0.25">
       <c r="CA118" s="65"/>
       <c r="CB118" s="65"/>
       <c r="CC118" s="65"/>
@@ -40126,7 +40147,7 @@
       <c r="GM118" s="65"/>
       <c r="GN118" s="65"/>
     </row>
-    <row r="119" spans="1:197" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:197" x14ac:dyDescent="0.25">
       <c r="CA119" s="65"/>
       <c r="CB119" s="65"/>
       <c r="CC119" s="65"/>
@@ -40246,7 +40267,7 @@
       <c r="GM119" s="65"/>
       <c r="GN119" s="65"/>
     </row>
-    <row r="120" spans="1:197" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:197" x14ac:dyDescent="0.25">
       <c r="CA120" s="65"/>
       <c r="CB120" s="65"/>
       <c r="CC120" s="65"/>
@@ -40366,7 +40387,7 @@
       <c r="GM120" s="65"/>
       <c r="GN120" s="65"/>
     </row>
-    <row r="121" spans="1:197" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:197" x14ac:dyDescent="0.25">
       <c r="CA121" s="65"/>
       <c r="CB121" s="65"/>
       <c r="CC121" s="65"/>
@@ -40488,21 +40509,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="FY1:GD1"/>
-    <mergeCell ref="BY1:BZ1"/>
-    <mergeCell ref="GE1:GI1"/>
-    <mergeCell ref="ER1:FI1"/>
-    <mergeCell ref="FJ1:FS1"/>
-    <mergeCell ref="DR1:EQ1"/>
-    <mergeCell ref="CA1:DL1"/>
-    <mergeCell ref="DM1:DQ1"/>
-    <mergeCell ref="FT1:FX1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="AZ1:BU1"/>
     <mergeCell ref="GT1:GT2"/>
     <mergeCell ref="GS1:GS2"/>
     <mergeCell ref="A1:A2"/>
@@ -40519,6 +40525,21 @@
     <mergeCell ref="AQ1:AQ2"/>
     <mergeCell ref="AP1:AP2"/>
     <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="AZ1:BU1"/>
+    <mergeCell ref="FY1:GD1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="GE1:GI1"/>
+    <mergeCell ref="ER1:FI1"/>
+    <mergeCell ref="FJ1:FS1"/>
+    <mergeCell ref="DR1:EQ1"/>
+    <mergeCell ref="CA1:DL1"/>
+    <mergeCell ref="DM1:DQ1"/>
+    <mergeCell ref="FT1:FX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40534,17 +40555,17 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -40552,7 +40573,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>736</v>
       </c>
@@ -40572,7 +40593,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -40586,7 +40607,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>703</v>
       </c>
@@ -40600,12 +40621,12 @@
         <v>743</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>706</v>
       </c>
@@ -40613,7 +40634,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>707</v>
       </c>
@@ -40621,7 +40642,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>708</v>
       </c>
@@ -40629,7 +40650,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>739</v>
       </c>
@@ -40637,7 +40658,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>332</v>
       </c>
@@ -40645,7 +40666,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>749</v>
       </c>
@@ -40653,27 +40674,27 @@
         <v>750</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>759</v>
       </c>
@@ -40692,19 +40713,19 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="114" t="s">
         <v>586</v>
       </c>
@@ -40726,7 +40747,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="115" t="s">
         <v>587</v>
       </c>
@@ -40751,12 +40772,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>589</v>
       </c>
@@ -40767,32 +40788,32 @@
         <v>588</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>722</v>
       </c>
@@ -40800,7 +40821,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>724</v>
       </c>
@@ -40808,7 +40829,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -40816,12 +40837,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -40829,7 +40850,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>501</v>
       </c>
@@ -40837,17 +40858,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -40855,27 +40876,27 @@
         <v>728</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -40883,7 +40904,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>429</v>
       </c>
@@ -40891,7 +40912,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>332</v>
       </c>
@@ -40899,67 +40920,67 @@
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N33" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N37" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N39" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N40" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N42" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N43" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N44" t="s">
         <v>605</v>
       </c>
@@ -40983,9 +41004,9 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -40993,12 +41014,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -41009,7 +41030,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>511</v>
       </c>
@@ -41017,7 +41038,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>445</v>
       </c>
@@ -41025,7 +41046,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>513</v>
       </c>
@@ -41033,7 +41054,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>514</v>
       </c>
@@ -41041,7 +41062,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -41049,7 +41070,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -41057,7 +41078,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -41065,7 +41086,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>221</v>
       </c>
@@ -41073,7 +41094,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -41081,7 +41102,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>607</v>
       </c>
@@ -41100,14 +41121,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>499</v>
       </c>
@@ -41115,7 +41136,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>500</v>
       </c>
@@ -41123,7 +41144,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>501</v>
       </c>
@@ -41131,7 +41152,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>502</v>
       </c>
@@ -41139,7 +41160,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -41147,7 +41168,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -41155,7 +41176,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>503</v>
       </c>
@@ -41163,7 +41184,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>504</v>
       </c>
@@ -41171,7 +41192,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>322</v>
       </c>
@@ -41179,24 +41200,24 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="72" t="s">
         <v>568</v>
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="72" t="s">
         <v>569</v>
       </c>
@@ -41217,9 +41238,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -41227,7 +41248,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>383</v>
       </c>
@@ -41235,7 +41256,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>507</v>
       </c>
@@ -41246,12 +41267,12 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>508</v>
       </c>
@@ -41259,12 +41280,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -41272,7 +41293,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -41280,7 +41301,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -41288,7 +41309,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>313</v>
       </c>
@@ -41296,7 +41317,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -41304,7 +41325,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>540</v>
       </c>
@@ -41312,7 +41333,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>542</v>
       </c>
@@ -41330,9 +41351,9 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>469</v>
       </c>
@@ -41340,42 +41361,42 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>477</v>
       </c>
@@ -41393,13 +41414,13 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>449</v>
       </c>
@@ -41407,7 +41428,7 @@
       <c r="C1" s="72"/>
       <c r="D1" s="72"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
         <v>27</v>
       </c>
@@ -41422,7 +41443,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>36</v>
       </c>
@@ -41445,7 +41466,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>48</v>
       </c>
@@ -41466,7 +41487,7 @@
       <c r="N4" s="64"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>49</v>
       </c>
@@ -41487,7 +41508,7 @@
       <c r="N5" s="64"/>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>301</v>
       </c>
@@ -41506,7 +41527,7 @@
       <c r="N6" s="64"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
         <v>370</v>
       </c>
@@ -41529,7 +41550,7 @@
       <c r="N7" s="64"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
         <v>187</v>
       </c>
@@ -41548,7 +41569,7 @@
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
         <v>443</v>
       </c>
@@ -41558,7 +41579,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
         <v>444</v>
       </c>
@@ -41568,7 +41589,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
         <v>445</v>
       </c>
@@ -41581,7 +41602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
         <v>446</v>
       </c>
@@ -41591,7 +41612,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>260</v>
       </c>
@@ -41601,7 +41622,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>262</v>
       </c>
@@ -41611,14 +41632,14 @@
         <v>468</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
         <v>447</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>211</v>
       </c>
@@ -41640,7 +41661,7 @@
       <c r="O16" s="64"/>
       <c r="P16" s="64"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
         <v>428</v>
       </c>
@@ -41664,7 +41685,7 @@
       <c r="O17" s="64"/>
       <c r="P17" s="64"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="s">
         <v>115</v>
       </c>
@@ -41686,7 +41707,7 @@
       <c r="O18" s="64"/>
       <c r="P18" s="64"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>448</v>
       </c>
@@ -41706,7 +41727,7 @@
       <c r="O19" s="64"/>
       <c r="P19" s="64"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
@@ -41723,18 +41744,18 @@
       <c r="O20" s="64"/>
       <c r="P20" s="64"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="s">
         <v>462</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="s">
         <v>516</v>
       </c>
@@ -41743,7 +41764,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
     </row>

--- a/datosexcel.xlsx
+++ b/datosexcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilberth\Desktop\Dspace6ScriptUADY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilberth\Desktop\Dspace6ScriptUADY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509A40F-7E62-4870-8704-CA4304A9222A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ACDE88-7E02-438E-9682-63926B059855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLA" sheetId="1" r:id="rId1"/>
@@ -9776,7 +9776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10029,49 +10029,31 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10083,11 +10065,32 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10514,8 +10517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GZ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GS85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="GX101" sqref="GX101"/>
+    <sheetView tabSelected="1" topLeftCell="GS2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="GW2" sqref="GW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10633,56 +10636,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:208" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="101" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="96" t="s">
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="98" t="s">
         <v>194</v>
       </c>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="97" t="s">
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="99" t="s">
         <v>620</v>
       </c>
       <c r="AG1" s="100"/>
@@ -10690,113 +10693,113 @@
       <c r="AI1" s="100"/>
       <c r="AJ1" s="100"/>
       <c r="AK1" s="100"/>
-      <c r="AL1" s="107" t="s">
+      <c r="AL1" s="110" t="s">
         <v>657</v>
       </c>
-      <c r="AM1" s="99" t="s">
+      <c r="AM1" s="111" t="s">
         <v>179</v>
       </c>
       <c r="AN1" s="100"/>
-      <c r="AO1" s="98"/>
-      <c r="AP1" s="96" t="s">
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="112" t="s">
+      <c r="AQ1" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="111" t="s">
+      <c r="AR1" s="105" t="s">
         <v>434</v>
       </c>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96" t="s">
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="97" t="s">
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="BA1" s="104"/>
-      <c r="BB1" s="104"/>
-      <c r="BC1" s="104"/>
-      <c r="BD1" s="104"/>
-      <c r="BE1" s="104"/>
-      <c r="BF1" s="104"/>
-      <c r="BG1" s="104"/>
-      <c r="BH1" s="104"/>
-      <c r="BI1" s="104"/>
-      <c r="BJ1" s="104"/>
-      <c r="BK1" s="104"/>
-      <c r="BL1" s="104"/>
-      <c r="BM1" s="104"/>
-      <c r="BN1" s="104"/>
-      <c r="BO1" s="104"/>
-      <c r="BP1" s="104"/>
-      <c r="BQ1" s="104"/>
-      <c r="BR1" s="104"/>
-      <c r="BS1" s="104"/>
-      <c r="BT1" s="104"/>
-      <c r="BU1" s="105"/>
-      <c r="BV1" s="96" t="s">
+      <c r="BA1" s="112"/>
+      <c r="BB1" s="112"/>
+      <c r="BC1" s="112"/>
+      <c r="BD1" s="112"/>
+      <c r="BE1" s="112"/>
+      <c r="BF1" s="112"/>
+      <c r="BG1" s="112"/>
+      <c r="BH1" s="112"/>
+      <c r="BI1" s="112"/>
+      <c r="BJ1" s="112"/>
+      <c r="BK1" s="112"/>
+      <c r="BL1" s="112"/>
+      <c r="BM1" s="112"/>
+      <c r="BN1" s="112"/>
+      <c r="BO1" s="112"/>
+      <c r="BP1" s="112"/>
+      <c r="BQ1" s="112"/>
+      <c r="BR1" s="112"/>
+      <c r="BS1" s="112"/>
+      <c r="BT1" s="112"/>
+      <c r="BU1" s="113"/>
+      <c r="BV1" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="BW1" s="96"/>
-      <c r="BX1" s="96"/>
-      <c r="BY1" s="97" t="s">
+      <c r="BW1" s="98"/>
+      <c r="BX1" s="98"/>
+      <c r="BY1" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="BZ1" s="98"/>
-      <c r="CA1" s="101" t="s">
+      <c r="BZ1" s="101"/>
+      <c r="CA1" s="103" t="s">
         <v>441</v>
       </c>
-      <c r="CB1" s="102"/>
-      <c r="CC1" s="102"/>
-      <c r="CD1" s="102"/>
-      <c r="CE1" s="102"/>
-      <c r="CF1" s="102"/>
-      <c r="CG1" s="102"/>
-      <c r="CH1" s="102"/>
-      <c r="CI1" s="102"/>
-      <c r="CJ1" s="102"/>
-      <c r="CK1" s="102"/>
-      <c r="CL1" s="102"/>
-      <c r="CM1" s="102"/>
-      <c r="CN1" s="102"/>
-      <c r="CO1" s="102"/>
-      <c r="CP1" s="102"/>
-      <c r="CQ1" s="102"/>
-      <c r="CR1" s="102"/>
-      <c r="CS1" s="102"/>
-      <c r="CT1" s="102"/>
-      <c r="CU1" s="102"/>
-      <c r="CV1" s="102"/>
-      <c r="CW1" s="102"/>
-      <c r="CX1" s="102"/>
-      <c r="CY1" s="102"/>
-      <c r="CZ1" s="102"/>
-      <c r="DA1" s="102"/>
-      <c r="DB1" s="102"/>
-      <c r="DC1" s="102"/>
-      <c r="DD1" s="102"/>
-      <c r="DE1" s="102"/>
-      <c r="DF1" s="102"/>
-      <c r="DG1" s="102"/>
-      <c r="DH1" s="102"/>
-      <c r="DI1" s="102"/>
-      <c r="DJ1" s="102"/>
-      <c r="DK1" s="102"/>
-      <c r="DL1" s="103"/>
-      <c r="DM1" s="104" t="s">
+      <c r="CB1" s="104"/>
+      <c r="CC1" s="104"/>
+      <c r="CD1" s="104"/>
+      <c r="CE1" s="104"/>
+      <c r="CF1" s="104"/>
+      <c r="CG1" s="104"/>
+      <c r="CH1" s="104"/>
+      <c r="CI1" s="104"/>
+      <c r="CJ1" s="104"/>
+      <c r="CK1" s="104"/>
+      <c r="CL1" s="104"/>
+      <c r="CM1" s="104"/>
+      <c r="CN1" s="104"/>
+      <c r="CO1" s="104"/>
+      <c r="CP1" s="104"/>
+      <c r="CQ1" s="104"/>
+      <c r="CR1" s="104"/>
+      <c r="CS1" s="104"/>
+      <c r="CT1" s="104"/>
+      <c r="CU1" s="104"/>
+      <c r="CV1" s="104"/>
+      <c r="CW1" s="104"/>
+      <c r="CX1" s="104"/>
+      <c r="CY1" s="104"/>
+      <c r="CZ1" s="104"/>
+      <c r="DA1" s="104"/>
+      <c r="DB1" s="104"/>
+      <c r="DC1" s="104"/>
+      <c r="DD1" s="104"/>
+      <c r="DE1" s="104"/>
+      <c r="DF1" s="104"/>
+      <c r="DG1" s="104"/>
+      <c r="DH1" s="104"/>
+      <c r="DI1" s="104"/>
+      <c r="DJ1" s="104"/>
+      <c r="DK1" s="104"/>
+      <c r="DL1" s="109"/>
+      <c r="DM1" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="DN1" s="104"/>
-      <c r="DO1" s="104"/>
-      <c r="DP1" s="104"/>
-      <c r="DQ1" s="105"/>
-      <c r="DR1" s="99" t="s">
+      <c r="DN1" s="112"/>
+      <c r="DO1" s="112"/>
+      <c r="DP1" s="112"/>
+      <c r="DQ1" s="113"/>
+      <c r="DR1" s="111" t="s">
         <v>439</v>
       </c>
       <c r="DS1" s="100"/>
@@ -10823,8 +10826,8 @@
       <c r="EN1" s="100"/>
       <c r="EO1" s="100"/>
       <c r="EP1" s="100"/>
-      <c r="EQ1" s="98"/>
-      <c r="ER1" s="99" t="s">
+      <c r="EQ1" s="101"/>
+      <c r="ER1" s="111" t="s">
         <v>440</v>
       </c>
       <c r="ES1" s="100"/>
@@ -10843,8 +10846,8 @@
       <c r="FF1" s="100"/>
       <c r="FG1" s="100"/>
       <c r="FH1" s="100"/>
-      <c r="FI1" s="98"/>
-      <c r="FJ1" s="99" t="s">
+      <c r="FI1" s="101"/>
+      <c r="FJ1" s="111" t="s">
         <v>12</v>
       </c>
       <c r="FK1" s="100"/>
@@ -10855,30 +10858,30 @@
       <c r="FP1" s="100"/>
       <c r="FQ1" s="100"/>
       <c r="FR1" s="100"/>
-      <c r="FS1" s="98"/>
-      <c r="FT1" s="96" t="s">
+      <c r="FS1" s="101"/>
+      <c r="FT1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="FU1" s="96"/>
-      <c r="FV1" s="96"/>
-      <c r="FW1" s="96"/>
-      <c r="FX1" s="96"/>
-      <c r="FY1" s="96" t="s">
+      <c r="FU1" s="98"/>
+      <c r="FV1" s="98"/>
+      <c r="FW1" s="98"/>
+      <c r="FX1" s="98"/>
+      <c r="FY1" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="FZ1" s="96"/>
-      <c r="GA1" s="96"/>
-      <c r="GB1" s="96"/>
-      <c r="GC1" s="96"/>
-      <c r="GD1" s="96"/>
-      <c r="GE1" s="99" t="s">
+      <c r="FZ1" s="98"/>
+      <c r="GA1" s="98"/>
+      <c r="GB1" s="98"/>
+      <c r="GC1" s="98"/>
+      <c r="GD1" s="98"/>
+      <c r="GE1" s="111" t="s">
         <v>293</v>
       </c>
       <c r="GF1" s="100"/>
       <c r="GG1" s="100"/>
       <c r="GH1" s="100"/>
-      <c r="GI1" s="98"/>
-      <c r="GJ1" s="97" t="s">
+      <c r="GI1" s="101"/>
+      <c r="GJ1" s="99" t="s">
         <v>14</v>
       </c>
       <c r="GK1" s="100"/>
@@ -10887,20 +10890,26 @@
       <c r="GN1" s="100"/>
       <c r="GO1" s="100"/>
       <c r="GP1" s="100"/>
-      <c r="GQ1" s="98"/>
-      <c r="GR1" s="110" t="s">
+      <c r="GQ1" s="101"/>
+      <c r="GR1" s="102" t="s">
         <v>438</v>
       </c>
-      <c r="GS1" s="109" t="s">
+      <c r="GS1" s="97" t="s">
         <v>631</v>
       </c>
-      <c r="GT1" s="108" t="s">
+      <c r="GT1" s="96" t="s">
         <v>788</v>
+      </c>
+      <c r="GU1" s="116" t="s">
+        <v>792</v>
+      </c>
+      <c r="GV1" s="116" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:208" ht="388.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
@@ -10916,9 +10925,9 @@
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
       <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
@@ -11000,7 +11009,7 @@
       <c r="AK2" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AL2" s="107"/>
+      <c r="AL2" s="110"/>
       <c r="AM2" s="2" t="s">
         <v>180</v>
       </c>
@@ -11010,8 +11019,8 @@
       <c r="AO2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AP2" s="113"/>
-      <c r="AQ2" s="112"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="106"/>
       <c r="AR2" s="7" t="s">
         <v>15</v>
       </c>
@@ -11480,15 +11489,11 @@
       <c r="GQ2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="GR2" s="101"/>
-      <c r="GS2" s="109"/>
-      <c r="GT2" s="108"/>
-      <c r="GU2" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="GV2" s="1" t="s">
-        <v>791</v>
-      </c>
+      <c r="GR2" s="103"/>
+      <c r="GS2" s="97"/>
+      <c r="GT2" s="96"/>
+      <c r="GU2" s="116"/>
+      <c r="GV2" s="116"/>
     </row>
     <row r="3" spans="1:208" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -40508,7 +40513,24 @@
       <c r="GN121" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="GU1:GU2"/>
+    <mergeCell ref="GV1:GV2"/>
+    <mergeCell ref="FY1:GD1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="GE1:GI1"/>
+    <mergeCell ref="ER1:FI1"/>
+    <mergeCell ref="FJ1:FS1"/>
+    <mergeCell ref="DR1:EQ1"/>
+    <mergeCell ref="CA1:DL1"/>
+    <mergeCell ref="DM1:DQ1"/>
+    <mergeCell ref="FT1:FX1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="AZ1:BU1"/>
     <mergeCell ref="GT1:GT2"/>
     <mergeCell ref="GS1:GS2"/>
     <mergeCell ref="A1:A2"/>
@@ -40525,21 +40547,6 @@
     <mergeCell ref="AQ1:AQ2"/>
     <mergeCell ref="AP1:AP2"/>
     <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="AZ1:BU1"/>
-    <mergeCell ref="FY1:GD1"/>
-    <mergeCell ref="BY1:BZ1"/>
-    <mergeCell ref="GE1:GI1"/>
-    <mergeCell ref="ER1:FI1"/>
-    <mergeCell ref="FJ1:FS1"/>
-    <mergeCell ref="DR1:EQ1"/>
-    <mergeCell ref="CA1:DL1"/>
-    <mergeCell ref="DM1:DQ1"/>
-    <mergeCell ref="FT1:FX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
